--- a/results/results_2024.xlsx
+++ b/results/results_2024.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\PhdProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A2761F-FCEA-4AAA-8416-CE685F5302DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124620A2-DC3E-489B-94DF-E94CB0D28E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old results 2023" sheetId="32" r:id="rId1"/>
     <sheet name=" same matrix - bidirect LD" sheetId="34" r:id="rId2"/>
     <sheet name=" same matrix - unidirect LD" sheetId="35" r:id="rId3"/>
     <sheet name=" same matrix - LD value div 2" sheetId="36" r:id="rId4"/>
+    <sheet name="MST and Louvain" sheetId="37" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,8 +93,27 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DD690F29-753B-4ECB-95EE-3E49522F504E}</author>
+  </authors>
+  <commentList>
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{DD690F29-753B-4ECB-95EE-3E49522F504E}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Based on csv input
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="132">
   <si>
     <t>Ant</t>
   </si>
@@ -478,12 +498,33 @@
 LD unidirectional
 value of LD links was divided by 2</t>
   </si>
+  <si>
+    <t>Louvain clusters</t>
+  </si>
+  <si>
+    <t>MST clusters</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>Louvain Mojo</t>
+  </si>
+  <si>
+    <t>Louvain MojoFM</t>
+  </si>
+  <si>
+    <t>MST Mojo</t>
+  </si>
+  <si>
+    <t>MST MojoFM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,14 +547,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +576,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,6 +756,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1059,6 +1103,15 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P6" dT="2024-02-05T10:23:26.22" personId="{56EAA74D-F7BE-4305-878E-111E09878DF4}" id="{DD690F29-753B-4ECB-95EE-3E49522F504E}">
+    <text xml:space="preserve">Based on csv input
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76C50CD-59B4-4BA2-8891-9F18F3F8F3AC}">
   <dimension ref="A1:L108"/>
@@ -1073,25 +1126,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="24"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="26"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -1127,7 +1180,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1164,7 +1217,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1201,7 +1254,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1291,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1275,7 +1328,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1312,7 +1365,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -1349,7 +1402,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1386,7 +1439,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1423,7 +1476,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -1460,7 +1513,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
@@ -1497,7 +1550,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
@@ -1534,7 +1587,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
@@ -1571,7 +1624,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
@@ -1608,7 +1661,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
@@ -1645,7 +1698,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
@@ -1682,7 +1735,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
@@ -1719,7 +1772,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
@@ -1756,7 +1809,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
@@ -1793,7 +1846,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1830,7 +1883,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
@@ -1867,7 +1920,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="24"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
@@ -1904,7 +1957,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1941,7 +1994,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="26"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
@@ -1978,7 +2031,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="26"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
@@ -2015,7 +2068,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
@@ -2052,7 +2105,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="26"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -2089,7 +2142,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
@@ -2126,7 +2179,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="8" t="s">
         <v>31</v>
       </c>
@@ -2163,7 +2216,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
@@ -2200,7 +2253,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
@@ -2237,7 +2290,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="26"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
@@ -2274,7 +2327,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
@@ -2311,7 +2364,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="26"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
@@ -2348,7 +2401,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="26"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="8" t="s">
         <v>37</v>
       </c>
@@ -2385,7 +2438,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="26"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="8" t="s">
         <v>38</v>
       </c>
@@ -2422,7 +2475,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="26"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
@@ -2459,7 +2512,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="26"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
@@ -2496,7 +2549,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="26"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
@@ -2533,7 +2586,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="26"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
@@ -2570,7 +2623,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="26"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
@@ -2607,7 +2660,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="26"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="8" t="s">
         <v>44</v>
       </c>
@@ -2644,7 +2697,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="12" t="s">
         <v>45</v>
       </c>
@@ -2681,7 +2734,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -2718,7 +2771,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="19"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="8" t="s">
         <v>52</v>
       </c>
@@ -2755,7 +2808,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="19"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="8" t="s">
         <v>53</v>
       </c>
@@ -2792,7 +2845,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="19"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="8" t="s">
         <v>54</v>
       </c>
@@ -2829,7 +2882,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="19"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="8" t="s">
         <v>55</v>
       </c>
@@ -2866,7 +2919,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="19"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="8" t="s">
         <v>56</v>
       </c>
@@ -2903,7 +2956,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="19"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="8" t="s">
         <v>47</v>
       </c>
@@ -2940,7 +2993,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="19"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="8" t="s">
         <v>48</v>
       </c>
@@ -2977,7 +3030,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="19"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="8" t="s">
         <v>49</v>
       </c>
@@ -3014,7 +3067,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="19"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="8" t="s">
         <v>50</v>
       </c>
@@ -3051,7 +3104,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="19"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
@@ -3088,7 +3141,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="19"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="8" t="s">
         <v>57</v>
       </c>
@@ -3125,7 +3178,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="19"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="8" t="s">
         <v>58</v>
       </c>
@@ -3162,7 +3215,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="19"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="8" t="s">
         <v>59</v>
       </c>
@@ -3199,7 +3252,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="19"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="8" t="s">
         <v>60</v>
       </c>
@@ -3236,7 +3289,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="19"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="8" t="s">
         <v>61</v>
       </c>
@@ -3273,7 +3326,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="19"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="8" t="s">
         <v>62</v>
       </c>
@@ -3310,7 +3363,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="19"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="8" t="s">
         <v>63</v>
       </c>
@@ -3347,7 +3400,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="19"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="8" t="s">
         <v>64</v>
       </c>
@@ -3384,7 +3437,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="19"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="8" t="s">
         <v>65</v>
       </c>
@@ -3421,7 +3474,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="19"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="12" t="s">
         <v>66</v>
       </c>
@@ -3458,7 +3511,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -3495,7 +3548,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="19"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="8" t="s">
         <v>76</v>
       </c>
@@ -3532,7 +3585,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="19"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="8" t="s">
         <v>77</v>
       </c>
@@ -3569,7 +3622,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="19"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="8" t="s">
         <v>78</v>
       </c>
@@ -3606,7 +3659,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="19"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="8" t="s">
         <v>79</v>
       </c>
@@ -3643,7 +3696,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="19"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="8" t="s">
         <v>80</v>
       </c>
@@ -3680,7 +3733,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="19"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="8" t="s">
         <v>81</v>
       </c>
@@ -3717,7 +3770,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="19"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="8" t="s">
         <v>82</v>
       </c>
@@ -3754,7 +3807,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="19"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="8" t="s">
         <v>83</v>
       </c>
@@ -3791,7 +3844,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="19"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="8" t="s">
         <v>84</v>
       </c>
@@ -3828,7 +3881,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="19"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -3865,7 +3918,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="19"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="8" t="s">
         <v>86</v>
       </c>
@@ -3902,7 +3955,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="19"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="8" t="s">
         <v>87</v>
       </c>
@@ -3939,7 +3992,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="19"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="8" t="s">
         <v>88</v>
       </c>
@@ -3976,7 +4029,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="19"/>
+      <c r="A81" s="22"/>
       <c r="B81" s="8" t="s">
         <v>89</v>
       </c>
@@ -4013,7 +4066,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="19"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="8" t="s">
         <v>90</v>
       </c>
@@ -4050,7 +4103,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="19"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="8" t="s">
         <v>91</v>
       </c>
@@ -4087,7 +4140,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="19"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="8" t="s">
         <v>92</v>
       </c>
@@ -4124,7 +4177,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="19"/>
+      <c r="A85" s="22"/>
       <c r="B85" s="8" t="s">
         <v>93</v>
       </c>
@@ -4161,7 +4214,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="19"/>
+      <c r="A86" s="22"/>
       <c r="B86" s="8" t="s">
         <v>94</v>
       </c>
@@ -4198,7 +4251,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="19"/>
+      <c r="A87" s="22"/>
       <c r="B87" s="12" t="s">
         <v>95</v>
       </c>
@@ -4235,7 +4288,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -4272,7 +4325,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="19"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="8" t="s">
         <v>100</v>
       </c>
@@ -4309,7 +4362,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="19"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="8" t="s">
         <v>101</v>
       </c>
@@ -4346,7 +4399,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" s="19"/>
+      <c r="A91" s="22"/>
       <c r="B91" s="8" t="s">
         <v>102</v>
       </c>
@@ -4383,7 +4436,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="19"/>
+      <c r="A92" s="22"/>
       <c r="B92" s="8" t="s">
         <v>103</v>
       </c>
@@ -4420,7 +4473,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="19"/>
+      <c r="A93" s="22"/>
       <c r="B93" s="8" t="s">
         <v>104</v>
       </c>
@@ -4457,7 +4510,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="19"/>
+      <c r="A94" s="22"/>
       <c r="B94" s="8" t="s">
         <v>105</v>
       </c>
@@ -4494,7 +4547,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="19"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="8" t="s">
         <v>106</v>
       </c>
@@ -4531,7 +4584,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="19"/>
+      <c r="A96" s="22"/>
       <c r="B96" s="8" t="s">
         <v>107</v>
       </c>
@@ -4568,7 +4621,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="19"/>
+      <c r="A97" s="22"/>
       <c r="B97" s="8" t="s">
         <v>108</v>
       </c>
@@ -4605,7 +4658,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="19"/>
+      <c r="A98" s="22"/>
       <c r="B98" s="10" t="s">
         <v>109</v>
       </c>
@@ -4642,7 +4695,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="19"/>
+      <c r="A99" s="22"/>
       <c r="B99" s="8" t="s">
         <v>110</v>
       </c>
@@ -4679,7 +4732,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="19"/>
+      <c r="A100" s="22"/>
       <c r="B100" s="8" t="s">
         <v>111</v>
       </c>
@@ -4716,7 +4769,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="19"/>
+      <c r="A101" s="22"/>
       <c r="B101" s="8" t="s">
         <v>112</v>
       </c>
@@ -4753,7 +4806,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="19"/>
+      <c r="A102" s="22"/>
       <c r="B102" s="8" t="s">
         <v>113</v>
       </c>
@@ -4790,7 +4843,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A103" s="19"/>
+      <c r="A103" s="22"/>
       <c r="B103" s="8" t="s">
         <v>114</v>
       </c>
@@ -4827,7 +4880,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A104" s="19"/>
+      <c r="A104" s="22"/>
       <c r="B104" s="8" t="s">
         <v>115</v>
       </c>
@@ -4864,7 +4917,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="19"/>
+      <c r="A105" s="22"/>
       <c r="B105" s="8" t="s">
         <v>116</v>
       </c>
@@ -4901,7 +4954,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" s="19"/>
+      <c r="A106" s="22"/>
       <c r="B106" s="8" t="s">
         <v>117</v>
       </c>
@@ -4938,7 +4991,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="19"/>
+      <c r="A107" s="22"/>
       <c r="B107" s="8" t="s">
         <v>118</v>
       </c>
@@ -4975,7 +5028,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="19"/>
+      <c r="A108" s="22"/>
       <c r="B108" s="12" t="s">
         <v>119</v>
       </c>
@@ -5041,63 +5094,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="24"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="26"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -5133,7 +5186,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -5170,7 +5223,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -5207,7 +5260,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
@@ -5244,7 +5297,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
@@ -5281,7 +5334,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -5318,7 +5371,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -5355,7 +5408,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -5392,7 +5445,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
@@ -5429,7 +5482,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
@@ -5466,7 +5519,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
@@ -5503,7 +5556,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
@@ -5540,7 +5593,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
@@ -5577,7 +5630,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -5614,7 +5667,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -5651,7 +5704,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
@@ -5688,7 +5741,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
@@ -5725,7 +5778,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="8" t="s">
         <v>21</v>
       </c>
@@ -5762,7 +5815,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
@@ -5799,7 +5852,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
@@ -5836,7 +5889,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
@@ -5873,7 +5926,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="24"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
@@ -5910,7 +5963,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5947,7 +6000,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
@@ -5984,7 +6037,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="8" t="s">
         <v>27</v>
       </c>
@@ -6021,7 +6074,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
@@ -6058,7 +6111,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="8" t="s">
         <v>29</v>
       </c>
@@ -6095,7 +6148,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="26"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="8" t="s">
         <v>30</v>
       </c>
@@ -6132,7 +6185,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="8" t="s">
         <v>31</v>
       </c>
@@ -6169,7 +6222,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="26"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -6206,7 +6259,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="26"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="8" t="s">
         <v>33</v>
       </c>
@@ -6243,7 +6296,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="26"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="8" t="s">
         <v>34</v>
       </c>
@@ -6280,7 +6333,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="26"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="10" t="s">
         <v>35</v>
       </c>
@@ -6317,7 +6370,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="26"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="8" t="s">
         <v>36</v>
       </c>
@@ -6354,7 +6407,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="26"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="8" t="s">
         <v>37</v>
       </c>
@@ -6391,7 +6444,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="26"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
@@ -6428,7 +6481,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="26"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="8" t="s">
         <v>39</v>
       </c>
@@ -6465,7 +6518,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="26"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="8" t="s">
         <v>40</v>
       </c>
@@ -6502,7 +6555,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="26"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="8" t="s">
         <v>41</v>
       </c>
@@ -6539,7 +6592,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="26"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="8" t="s">
         <v>42</v>
       </c>
@@ -6576,7 +6629,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="26"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="8" t="s">
         <v>43</v>
       </c>
@@ -6613,7 +6666,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="26"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="8" t="s">
         <v>44</v>
       </c>
@@ -6650,7 +6703,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="26"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="12" t="s">
         <v>45</v>
       </c>
@@ -6687,7 +6740,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -6724,7 +6777,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="19"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="8" t="s">
         <v>52</v>
       </c>
@@ -6761,7 +6814,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="19"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="8" t="s">
         <v>53</v>
       </c>
@@ -6798,7 +6851,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="19"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="8" t="s">
         <v>54</v>
       </c>
@@ -6835,7 +6888,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="19"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="8" t="s">
         <v>55</v>
       </c>
@@ -6872,7 +6925,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="19"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="8" t="s">
         <v>56</v>
       </c>
@@ -6909,7 +6962,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="19"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
@@ -6946,7 +6999,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="19"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="8" t="s">
         <v>48</v>
       </c>
@@ -6983,7 +7036,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="19"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="8" t="s">
         <v>49</v>
       </c>
@@ -7020,7 +7073,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="19"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="8" t="s">
         <v>50</v>
       </c>
@@ -7057,7 +7110,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="19"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -7094,7 +7147,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="19"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="8" t="s">
         <v>57</v>
       </c>
@@ -7131,7 +7184,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="19"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="8" t="s">
         <v>58</v>
       </c>
@@ -7168,7 +7221,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="19"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="8" t="s">
         <v>59</v>
       </c>
@@ -7205,7 +7258,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="19"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="8" t="s">
         <v>60</v>
       </c>
@@ -7242,7 +7295,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="19"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="8" t="s">
         <v>61</v>
       </c>
@@ -7279,7 +7332,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="19"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="8" t="s">
         <v>62</v>
       </c>
@@ -7316,7 +7369,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="19"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="8" t="s">
         <v>63</v>
       </c>
@@ -7353,7 +7406,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="19"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="8" t="s">
         <v>64</v>
       </c>
@@ -7390,7 +7443,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="19"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="8" t="s">
         <v>65</v>
       </c>
@@ -7427,7 +7480,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="19"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
@@ -7464,7 +7517,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -7501,7 +7554,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="19"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="8" t="s">
         <v>76</v>
       </c>
@@ -7538,7 +7591,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="19"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="8" t="s">
         <v>77</v>
       </c>
@@ -7575,7 +7628,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="19"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="8" t="s">
         <v>78</v>
       </c>
@@ -7612,7 +7665,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="19"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="8" t="s">
         <v>79</v>
       </c>
@@ -7649,7 +7702,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="19"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="8" t="s">
         <v>80</v>
       </c>
@@ -7686,7 +7739,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="19"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="8" t="s">
         <v>81</v>
       </c>
@@ -7723,7 +7776,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="19"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="8" t="s">
         <v>82</v>
       </c>
@@ -7760,7 +7813,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="19"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="8" t="s">
         <v>83</v>
       </c>
@@ -7797,7 +7850,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="19"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="8" t="s">
         <v>84</v>
       </c>
@@ -7834,7 +7887,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="19"/>
+      <c r="A81" s="22"/>
       <c r="B81" s="10" t="s">
         <v>85</v>
       </c>
@@ -7871,7 +7924,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="19"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="8" t="s">
         <v>86</v>
       </c>
@@ -7908,7 +7961,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="19"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="8" t="s">
         <v>87</v>
       </c>
@@ -7945,7 +7998,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="19"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="8" t="s">
         <v>88</v>
       </c>
@@ -7982,7 +8035,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="19"/>
+      <c r="A85" s="22"/>
       <c r="B85" s="8" t="s">
         <v>89</v>
       </c>
@@ -8019,7 +8072,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="19"/>
+      <c r="A86" s="22"/>
       <c r="B86" s="8" t="s">
         <v>90</v>
       </c>
@@ -8056,7 +8109,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="19"/>
+      <c r="A87" s="22"/>
       <c r="B87" s="8" t="s">
         <v>91</v>
       </c>
@@ -8093,7 +8146,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="19"/>
+      <c r="A88" s="22"/>
       <c r="B88" s="8" t="s">
         <v>92</v>
       </c>
@@ -8130,7 +8183,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="19"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="8" t="s">
         <v>93</v>
       </c>
@@ -8167,7 +8220,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="19"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="8" t="s">
         <v>94</v>
       </c>
@@ -8204,7 +8257,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="19"/>
+      <c r="A91" s="22"/>
       <c r="B91" s="12" t="s">
         <v>95</v>
       </c>
@@ -8241,7 +8294,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -8278,7 +8331,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="19"/>
+      <c r="A93" s="22"/>
       <c r="B93" s="8" t="s">
         <v>100</v>
       </c>
@@ -8315,7 +8368,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="19"/>
+      <c r="A94" s="22"/>
       <c r="B94" s="8" t="s">
         <v>101</v>
       </c>
@@ -8352,7 +8405,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="19"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="8" t="s">
         <v>102</v>
       </c>
@@ -8389,7 +8442,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="19"/>
+      <c r="A96" s="22"/>
       <c r="B96" s="8" t="s">
         <v>103</v>
       </c>
@@ -8426,7 +8479,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="19"/>
+      <c r="A97" s="22"/>
       <c r="B97" s="8" t="s">
         <v>104</v>
       </c>
@@ -8463,7 +8516,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="19"/>
+      <c r="A98" s="22"/>
       <c r="B98" s="8" t="s">
         <v>105</v>
       </c>
@@ -8500,7 +8553,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="19"/>
+      <c r="A99" s="22"/>
       <c r="B99" s="8" t="s">
         <v>106</v>
       </c>
@@ -8537,7 +8590,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="19"/>
+      <c r="A100" s="22"/>
       <c r="B100" s="8" t="s">
         <v>107</v>
       </c>
@@ -8574,7 +8627,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="19"/>
+      <c r="A101" s="22"/>
       <c r="B101" s="8" t="s">
         <v>108</v>
       </c>
@@ -8611,7 +8664,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="19"/>
+      <c r="A102" s="22"/>
       <c r="B102" s="10" t="s">
         <v>109</v>
       </c>
@@ -8648,7 +8701,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A103" s="19"/>
+      <c r="A103" s="22"/>
       <c r="B103" s="8" t="s">
         <v>110</v>
       </c>
@@ -8685,7 +8738,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A104" s="19"/>
+      <c r="A104" s="22"/>
       <c r="B104" s="8" t="s">
         <v>111</v>
       </c>
@@ -8722,7 +8775,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="19"/>
+      <c r="A105" s="22"/>
       <c r="B105" s="8" t="s">
         <v>112</v>
       </c>
@@ -8759,7 +8812,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" s="19"/>
+      <c r="A106" s="22"/>
       <c r="B106" s="8" t="s">
         <v>113</v>
       </c>
@@ -8796,7 +8849,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="19"/>
+      <c r="A107" s="22"/>
       <c r="B107" s="8" t="s">
         <v>114</v>
       </c>
@@ -8833,7 +8886,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A108" s="19"/>
+      <c r="A108" s="22"/>
       <c r="B108" s="8" t="s">
         <v>115</v>
       </c>
@@ -8870,7 +8923,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A109" s="19"/>
+      <c r="A109" s="22"/>
       <c r="B109" s="8" t="s">
         <v>116</v>
       </c>
@@ -8907,7 +8960,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A110" s="19"/>
+      <c r="A110" s="22"/>
       <c r="B110" s="8" t="s">
         <v>117</v>
       </c>
@@ -8944,7 +8997,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" s="19"/>
+      <c r="A111" s="22"/>
       <c r="B111" s="8" t="s">
         <v>118</v>
       </c>
@@ -8981,7 +9034,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="19"/>
+      <c r="A112" s="22"/>
       <c r="B112" s="12" t="s">
         <v>119</v>
       </c>
@@ -9050,63 +9103,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="24"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="26"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -9142,7 +9195,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -9179,7 +9232,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -9216,7 +9269,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
@@ -9253,7 +9306,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
@@ -9290,7 +9343,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -9327,7 +9380,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -9364,7 +9417,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -9401,7 +9454,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
@@ -9438,7 +9491,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
@@ -9475,7 +9528,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
@@ -9512,7 +9565,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
@@ -9549,7 +9602,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
@@ -9586,7 +9639,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -9623,7 +9676,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -9660,7 +9713,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
@@ -9697,7 +9750,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
@@ -9734,7 +9787,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="8" t="s">
         <v>21</v>
       </c>
@@ -9771,7 +9824,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
@@ -9808,7 +9861,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
@@ -9845,7 +9898,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
@@ -9882,7 +9935,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="24"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
@@ -9919,7 +9972,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -9956,7 +10009,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
@@ -9993,7 +10046,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="8" t="s">
         <v>27</v>
       </c>
@@ -10030,7 +10083,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
@@ -10067,7 +10120,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="8" t="s">
         <v>29</v>
       </c>
@@ -10104,7 +10157,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="26"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="8" t="s">
         <v>30</v>
       </c>
@@ -10141,7 +10194,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="8" t="s">
         <v>31</v>
       </c>
@@ -10178,7 +10231,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="26"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -10215,7 +10268,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="26"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="8" t="s">
         <v>33</v>
       </c>
@@ -10252,7 +10305,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="26"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="8" t="s">
         <v>34</v>
       </c>
@@ -10289,7 +10342,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="26"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="10" t="s">
         <v>35</v>
       </c>
@@ -10326,7 +10379,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="26"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="8" t="s">
         <v>36</v>
       </c>
@@ -10363,7 +10416,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="26"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="8" t="s">
         <v>37</v>
       </c>
@@ -10400,7 +10453,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="26"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
@@ -10437,7 +10490,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="26"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="8" t="s">
         <v>39</v>
       </c>
@@ -10474,7 +10527,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="26"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="8" t="s">
         <v>40</v>
       </c>
@@ -10511,7 +10564,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="26"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="8" t="s">
         <v>41</v>
       </c>
@@ -10548,7 +10601,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="26"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="8" t="s">
         <v>42</v>
       </c>
@@ -10585,7 +10638,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="26"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="8" t="s">
         <v>43</v>
       </c>
@@ -10622,7 +10675,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="26"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="8" t="s">
         <v>44</v>
       </c>
@@ -10659,7 +10712,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="26"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="12" t="s">
         <v>45</v>
       </c>
@@ -10696,7 +10749,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -10733,7 +10786,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="19"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="8" t="s">
         <v>52</v>
       </c>
@@ -10770,7 +10823,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="19"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="8" t="s">
         <v>53</v>
       </c>
@@ -10807,7 +10860,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="19"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="8" t="s">
         <v>54</v>
       </c>
@@ -10844,7 +10897,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="19"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="8" t="s">
         <v>55</v>
       </c>
@@ -10881,7 +10934,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="19"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="8" t="s">
         <v>56</v>
       </c>
@@ -10918,7 +10971,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="19"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
@@ -10955,7 +11008,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="19"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="8" t="s">
         <v>48</v>
       </c>
@@ -10992,7 +11045,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="19"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="8" t="s">
         <v>49</v>
       </c>
@@ -11029,7 +11082,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="19"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="8" t="s">
         <v>50</v>
       </c>
@@ -11066,7 +11119,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="19"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -11103,7 +11156,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="19"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="8" t="s">
         <v>57</v>
       </c>
@@ -11140,7 +11193,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="19"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="8" t="s">
         <v>58</v>
       </c>
@@ -11177,7 +11230,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="19"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="8" t="s">
         <v>59</v>
       </c>
@@ -11214,7 +11267,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="19"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="8" t="s">
         <v>60</v>
       </c>
@@ -11251,7 +11304,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="19"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="8" t="s">
         <v>61</v>
       </c>
@@ -11288,7 +11341,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="19"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="8" t="s">
         <v>62</v>
       </c>
@@ -11325,7 +11378,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="19"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="8" t="s">
         <v>63</v>
       </c>
@@ -11362,7 +11415,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="19"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="8" t="s">
         <v>64</v>
       </c>
@@ -11399,7 +11452,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="19"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="8" t="s">
         <v>65</v>
       </c>
@@ -11436,7 +11489,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="19"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
@@ -11473,7 +11526,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -11510,7 +11563,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="19"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="8" t="s">
         <v>76</v>
       </c>
@@ -11547,7 +11600,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="19"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="8" t="s">
         <v>77</v>
       </c>
@@ -11584,7 +11637,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="19"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="8" t="s">
         <v>78</v>
       </c>
@@ -11621,7 +11674,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="19"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="8" t="s">
         <v>79</v>
       </c>
@@ -11658,7 +11711,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="19"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="8" t="s">
         <v>80</v>
       </c>
@@ -11695,7 +11748,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="19"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="8" t="s">
         <v>81</v>
       </c>
@@ -11732,7 +11785,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="19"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="8" t="s">
         <v>82</v>
       </c>
@@ -11769,7 +11822,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="19"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="8" t="s">
         <v>83</v>
       </c>
@@ -11806,7 +11859,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="19"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="8" t="s">
         <v>84</v>
       </c>
@@ -11843,7 +11896,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="19"/>
+      <c r="A81" s="22"/>
       <c r="B81" s="10" t="s">
         <v>85</v>
       </c>
@@ -11880,7 +11933,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="19"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="8" t="s">
         <v>86</v>
       </c>
@@ -11917,7 +11970,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="19"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="8" t="s">
         <v>87</v>
       </c>
@@ -11954,7 +12007,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="19"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="8" t="s">
         <v>88</v>
       </c>
@@ -11991,7 +12044,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="19"/>
+      <c r="A85" s="22"/>
       <c r="B85" s="8" t="s">
         <v>89</v>
       </c>
@@ -12028,7 +12081,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="19"/>
+      <c r="A86" s="22"/>
       <c r="B86" s="8" t="s">
         <v>90</v>
       </c>
@@ -12065,7 +12118,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="19"/>
+      <c r="A87" s="22"/>
       <c r="B87" s="8" t="s">
         <v>91</v>
       </c>
@@ -12102,7 +12155,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="19"/>
+      <c r="A88" s="22"/>
       <c r="B88" s="8" t="s">
         <v>92</v>
       </c>
@@ -12139,7 +12192,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="19"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="8" t="s">
         <v>93</v>
       </c>
@@ -12176,7 +12229,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="19"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="8" t="s">
         <v>94</v>
       </c>
@@ -12213,7 +12266,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="19"/>
+      <c r="A91" s="22"/>
       <c r="B91" s="12" t="s">
         <v>95</v>
       </c>
@@ -12250,7 +12303,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -12287,7 +12340,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="19"/>
+      <c r="A93" s="22"/>
       <c r="B93" s="8" t="s">
         <v>100</v>
       </c>
@@ -12324,7 +12377,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="19"/>
+      <c r="A94" s="22"/>
       <c r="B94" s="8" t="s">
         <v>101</v>
       </c>
@@ -12361,7 +12414,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="19"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="8" t="s">
         <v>102</v>
       </c>
@@ -12398,7 +12451,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="19"/>
+      <c r="A96" s="22"/>
       <c r="B96" s="8" t="s">
         <v>103</v>
       </c>
@@ -12435,7 +12488,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="19"/>
+      <c r="A97" s="22"/>
       <c r="B97" s="8" t="s">
         <v>104</v>
       </c>
@@ -12472,7 +12525,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="19"/>
+      <c r="A98" s="22"/>
       <c r="B98" s="8" t="s">
         <v>105</v>
       </c>
@@ -12509,7 +12562,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="19"/>
+      <c r="A99" s="22"/>
       <c r="B99" s="8" t="s">
         <v>106</v>
       </c>
@@ -12546,7 +12599,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="19"/>
+      <c r="A100" s="22"/>
       <c r="B100" s="8" t="s">
         <v>107</v>
       </c>
@@ -12583,7 +12636,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="19"/>
+      <c r="A101" s="22"/>
       <c r="B101" s="8" t="s">
         <v>108</v>
       </c>
@@ -12620,7 +12673,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="19"/>
+      <c r="A102" s="22"/>
       <c r="B102" s="10" t="s">
         <v>109</v>
       </c>
@@ -12657,7 +12710,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A103" s="19"/>
+      <c r="A103" s="22"/>
       <c r="B103" s="8" t="s">
         <v>110</v>
       </c>
@@ -12694,7 +12747,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A104" s="19"/>
+      <c r="A104" s="22"/>
       <c r="B104" s="8" t="s">
         <v>111</v>
       </c>
@@ -12731,7 +12784,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="19"/>
+      <c r="A105" s="22"/>
       <c r="B105" s="8" t="s">
         <v>112</v>
       </c>
@@ -12768,7 +12821,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" s="19"/>
+      <c r="A106" s="22"/>
       <c r="B106" s="8" t="s">
         <v>113</v>
       </c>
@@ -12805,7 +12858,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="19"/>
+      <c r="A107" s="22"/>
       <c r="B107" s="8" t="s">
         <v>114</v>
       </c>
@@ -12842,7 +12895,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A108" s="19"/>
+      <c r="A108" s="22"/>
       <c r="B108" s="8" t="s">
         <v>115</v>
       </c>
@@ -12879,7 +12932,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A109" s="19"/>
+      <c r="A109" s="22"/>
       <c r="B109" s="8" t="s">
         <v>116</v>
       </c>
@@ -12916,7 +12969,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A110" s="19"/>
+      <c r="A110" s="22"/>
       <c r="B110" s="8" t="s">
         <v>117</v>
       </c>
@@ -12953,7 +13006,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" s="19"/>
+      <c r="A111" s="22"/>
       <c r="B111" s="8" t="s">
         <v>118</v>
       </c>
@@ -12990,7 +13043,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="19"/>
+      <c r="A112" s="22"/>
       <c r="B112" s="12" t="s">
         <v>119</v>
       </c>
@@ -13048,8 +13101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD235BD-FDF0-4D15-9740-2885F6075B83}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="J111" sqref="A5:L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13058,63 +13111,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="24"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="26"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -13150,7 +13203,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -13187,7 +13240,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -13224,7 +13277,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
@@ -13261,7 +13314,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
@@ -13298,7 +13351,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -13335,7 +13388,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -13372,7 +13425,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -13409,7 +13462,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
@@ -13446,7 +13499,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
@@ -13483,7 +13536,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
@@ -13520,7 +13573,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
@@ -13557,7 +13610,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
@@ -13594,7 +13647,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -13631,7 +13684,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -13668,7 +13721,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
@@ -13705,7 +13758,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
@@ -13742,7 +13795,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="8" t="s">
         <v>21</v>
       </c>
@@ -13779,7 +13832,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
@@ -13816,7 +13869,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
@@ -13853,7 +13906,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
@@ -13890,7 +13943,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="24"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
@@ -13927,7 +13980,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -13964,7 +14017,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
@@ -14001,7 +14054,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="8" t="s">
         <v>27</v>
       </c>
@@ -14038,7 +14091,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
@@ -14075,7 +14128,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="8" t="s">
         <v>29</v>
       </c>
@@ -14112,7 +14165,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="26"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="8" t="s">
         <v>30</v>
       </c>
@@ -14149,7 +14202,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="8" t="s">
         <v>31</v>
       </c>
@@ -14186,7 +14239,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="26"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -14223,7 +14276,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="26"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="8" t="s">
         <v>33</v>
       </c>
@@ -14260,7 +14313,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="26"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="8" t="s">
         <v>34</v>
       </c>
@@ -14297,7 +14350,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="26"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="10" t="s">
         <v>35</v>
       </c>
@@ -14334,7 +14387,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="26"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="8" t="s">
         <v>36</v>
       </c>
@@ -14371,7 +14424,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="26"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="8" t="s">
         <v>37</v>
       </c>
@@ -14408,7 +14461,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="26"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
@@ -14445,7 +14498,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="26"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="8" t="s">
         <v>39</v>
       </c>
@@ -14482,7 +14535,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="26"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="8" t="s">
         <v>40</v>
       </c>
@@ -14519,7 +14572,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="26"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="8" t="s">
         <v>41</v>
       </c>
@@ -14556,7 +14609,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="26"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="8" t="s">
         <v>42</v>
       </c>
@@ -14593,7 +14646,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="26"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="8" t="s">
         <v>43</v>
       </c>
@@ -14630,7 +14683,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="26"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="8" t="s">
         <v>44</v>
       </c>
@@ -14667,7 +14720,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="26"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="12" t="s">
         <v>45</v>
       </c>
@@ -14704,7 +14757,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -14741,7 +14794,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="19"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="8" t="s">
         <v>52</v>
       </c>
@@ -14778,7 +14831,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="19"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="8" t="s">
         <v>53</v>
       </c>
@@ -14815,7 +14868,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="19"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="8" t="s">
         <v>54</v>
       </c>
@@ -14852,7 +14905,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="19"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="8" t="s">
         <v>55</v>
       </c>
@@ -14889,7 +14942,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="19"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="8" t="s">
         <v>56</v>
       </c>
@@ -14926,7 +14979,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="19"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
@@ -14963,7 +15016,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="19"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="8" t="s">
         <v>48</v>
       </c>
@@ -15000,7 +15053,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="19"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="8" t="s">
         <v>49</v>
       </c>
@@ -15037,7 +15090,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="19"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="8" t="s">
         <v>50</v>
       </c>
@@ -15074,7 +15127,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="19"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -15111,7 +15164,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="19"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="8" t="s">
         <v>57</v>
       </c>
@@ -15148,7 +15201,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="19"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="8" t="s">
         <v>58</v>
       </c>
@@ -15185,7 +15238,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="19"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="8" t="s">
         <v>59</v>
       </c>
@@ -15222,7 +15275,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="19"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="8" t="s">
         <v>60</v>
       </c>
@@ -15259,7 +15312,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="19"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="8" t="s">
         <v>61</v>
       </c>
@@ -15296,7 +15349,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="19"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="8" t="s">
         <v>62</v>
       </c>
@@ -15333,7 +15386,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="19"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="8" t="s">
         <v>63</v>
       </c>
@@ -15370,7 +15423,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="19"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="8" t="s">
         <v>64</v>
       </c>
@@ -15407,7 +15460,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="19"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="8" t="s">
         <v>65</v>
       </c>
@@ -15444,7 +15497,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="19"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
@@ -15481,7 +15534,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -15518,7 +15571,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="19"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="8" t="s">
         <v>76</v>
       </c>
@@ -15555,7 +15608,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="19"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="8" t="s">
         <v>77</v>
       </c>
@@ -15592,7 +15645,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="19"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="8" t="s">
         <v>78</v>
       </c>
@@ -15629,7 +15682,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="19"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="8" t="s">
         <v>79</v>
       </c>
@@ -15666,7 +15719,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="19"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="8" t="s">
         <v>80</v>
       </c>
@@ -15703,7 +15756,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="19"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="8" t="s">
         <v>81</v>
       </c>
@@ -15740,7 +15793,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="19"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="8" t="s">
         <v>82</v>
       </c>
@@ -15777,7 +15830,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="19"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="8" t="s">
         <v>83</v>
       </c>
@@ -15814,7 +15867,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="19"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="8" t="s">
         <v>84</v>
       </c>
@@ -15851,7 +15904,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="19"/>
+      <c r="A81" s="22"/>
       <c r="B81" s="10" t="s">
         <v>85</v>
       </c>
@@ -15888,7 +15941,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="19"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="8" t="s">
         <v>86</v>
       </c>
@@ -15925,7 +15978,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="19"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="8" t="s">
         <v>87</v>
       </c>
@@ -15962,7 +16015,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="19"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="8" t="s">
         <v>88</v>
       </c>
@@ -15999,7 +16052,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="19"/>
+      <c r="A85" s="22"/>
       <c r="B85" s="8" t="s">
         <v>89</v>
       </c>
@@ -16036,7 +16089,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="19"/>
+      <c r="A86" s="22"/>
       <c r="B86" s="8" t="s">
         <v>90</v>
       </c>
@@ -16073,7 +16126,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="19"/>
+      <c r="A87" s="22"/>
       <c r="B87" s="8" t="s">
         <v>91</v>
       </c>
@@ -16110,7 +16163,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="19"/>
+      <c r="A88" s="22"/>
       <c r="B88" s="8" t="s">
         <v>92</v>
       </c>
@@ -16147,7 +16200,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="19"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="8" t="s">
         <v>93</v>
       </c>
@@ -16184,7 +16237,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="19"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="8" t="s">
         <v>94</v>
       </c>
@@ -16221,7 +16274,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="19"/>
+      <c r="A91" s="22"/>
       <c r="B91" s="12" t="s">
         <v>95</v>
       </c>
@@ -16258,7 +16311,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -16295,7 +16348,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="19"/>
+      <c r="A93" s="22"/>
       <c r="B93" s="8" t="s">
         <v>100</v>
       </c>
@@ -16332,7 +16385,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="19"/>
+      <c r="A94" s="22"/>
       <c r="B94" s="8" t="s">
         <v>101</v>
       </c>
@@ -16369,7 +16422,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="19"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="8" t="s">
         <v>102</v>
       </c>
@@ -16406,7 +16459,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="19"/>
+      <c r="A96" s="22"/>
       <c r="B96" s="8" t="s">
         <v>103</v>
       </c>
@@ -16443,7 +16496,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="19"/>
+      <c r="A97" s="22"/>
       <c r="B97" s="8" t="s">
         <v>104</v>
       </c>
@@ -16480,7 +16533,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="19"/>
+      <c r="A98" s="22"/>
       <c r="B98" s="8" t="s">
         <v>105</v>
       </c>
@@ -16517,7 +16570,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="19"/>
+      <c r="A99" s="22"/>
       <c r="B99" s="8" t="s">
         <v>106</v>
       </c>
@@ -16554,7 +16607,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="19"/>
+      <c r="A100" s="22"/>
       <c r="B100" s="8" t="s">
         <v>107</v>
       </c>
@@ -16591,7 +16644,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="19"/>
+      <c r="A101" s="22"/>
       <c r="B101" s="8" t="s">
         <v>108</v>
       </c>
@@ -16628,7 +16681,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="19"/>
+      <c r="A102" s="22"/>
       <c r="B102" s="10" t="s">
         <v>109</v>
       </c>
@@ -16665,7 +16718,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A103" s="19"/>
+      <c r="A103" s="22"/>
       <c r="B103" s="8" t="s">
         <v>110</v>
       </c>
@@ -16702,7 +16755,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A104" s="19"/>
+      <c r="A104" s="22"/>
       <c r="B104" s="8" t="s">
         <v>111</v>
       </c>
@@ -16739,7 +16792,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="19"/>
+      <c r="A105" s="22"/>
       <c r="B105" s="8" t="s">
         <v>112</v>
       </c>
@@ -16776,7 +16829,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" s="19"/>
+      <c r="A106" s="22"/>
       <c r="B106" s="8" t="s">
         <v>113</v>
       </c>
@@ -16813,7 +16866,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="19"/>
+      <c r="A107" s="22"/>
       <c r="B107" s="8" t="s">
         <v>114</v>
       </c>
@@ -16850,7 +16903,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A108" s="19"/>
+      <c r="A108" s="22"/>
       <c r="B108" s="8" t="s">
         <v>115</v>
       </c>
@@ -16887,7 +16940,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A109" s="19"/>
+      <c r="A109" s="22"/>
       <c r="B109" s="8" t="s">
         <v>116</v>
       </c>
@@ -16924,7 +16977,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A110" s="19"/>
+      <c r="A110" s="22"/>
       <c r="B110" s="8" t="s">
         <v>117</v>
       </c>
@@ -16961,7 +17014,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" s="19"/>
+      <c r="A111" s="22"/>
       <c r="B111" s="8" t="s">
         <v>118</v>
       </c>
@@ -16998,7 +17051,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="19"/>
+      <c r="A112" s="22"/>
       <c r="B112" s="12" t="s">
         <v>119</v>
       </c>
@@ -17052,6 +17105,5572 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F89884-E4FA-4E98-8DCF-27E74F18B968}">
+  <dimension ref="A1:Q108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E80" sqref="E80:E82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="6">
+        <v>517</v>
+      </c>
+      <c r="D4" s="6">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6">
+        <v>228</v>
+      </c>
+      <c r="F4" s="6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L4" s="6">
+        <v>181</v>
+      </c>
+      <c r="M4" s="6">
+        <v>64.23</v>
+      </c>
+      <c r="N4" s="6">
+        <v>319</v>
+      </c>
+      <c r="O4" s="6">
+        <v>36.96</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="7">
+        <f>(C4*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>517</v>
+      </c>
+      <c r="D5" s="1">
+        <v>272</v>
+      </c>
+      <c r="E5" s="1">
+        <v>353</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>301</v>
+      </c>
+      <c r="M5" s="1">
+        <v>40.51</v>
+      </c>
+      <c r="N5" s="1">
+        <v>373</v>
+      </c>
+      <c r="O5" s="1">
+        <v>26.28</v>
+      </c>
+      <c r="P5" s="1">
+        <v>36.15</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>(C5*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>517</v>
+      </c>
+      <c r="D6" s="1">
+        <v>355</v>
+      </c>
+      <c r="E6" s="1">
+        <v>360</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L6" s="1">
+        <v>361</v>
+      </c>
+      <c r="M6" s="1">
+        <v>28.66</v>
+      </c>
+      <c r="N6" s="1">
+        <v>367</v>
+      </c>
+      <c r="O6" s="1">
+        <v>27.47</v>
+      </c>
+      <c r="P6" s="1">
+        <v>39.729999999999997</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>(C6*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>517</v>
+      </c>
+      <c r="D7" s="1">
+        <v>387</v>
+      </c>
+      <c r="E7" s="1">
+        <v>404</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L7" s="1">
+        <v>384</v>
+      </c>
+      <c r="M7" s="1">
+        <v>24.11</v>
+      </c>
+      <c r="N7" s="1">
+        <v>400</v>
+      </c>
+      <c r="O7" s="1">
+        <v>20.95</v>
+      </c>
+      <c r="P7" s="1">
+        <v>41.13</v>
+      </c>
+      <c r="Q7" s="9">
+        <f>(C7*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>517</v>
+      </c>
+      <c r="D8" s="1">
+        <v>405</v>
+      </c>
+      <c r="E8" s="1">
+        <v>413</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.106</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L8" s="1">
+        <v>401</v>
+      </c>
+      <c r="M8" s="1">
+        <v>20.75</v>
+      </c>
+      <c r="N8" s="1">
+        <v>409</v>
+      </c>
+      <c r="O8" s="1">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="P8" s="1">
+        <v>41.87</v>
+      </c>
+      <c r="Q8" s="9">
+        <f>(C8*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>517</v>
+      </c>
+      <c r="D9" s="1">
+        <v>414</v>
+      </c>
+      <c r="E9" s="1">
+        <v>422</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.106</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L9" s="1">
+        <v>407</v>
+      </c>
+      <c r="M9" s="1">
+        <v>19.57</v>
+      </c>
+      <c r="N9" s="1">
+        <v>415</v>
+      </c>
+      <c r="O9" s="1">
+        <v>17.98</v>
+      </c>
+      <c r="P9" s="1">
+        <v>43.96</v>
+      </c>
+      <c r="Q9" s="9">
+        <f>(C9*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>517</v>
+      </c>
+      <c r="D10" s="1">
+        <v>431</v>
+      </c>
+      <c r="E10" s="1">
+        <v>439</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L10" s="1">
+        <v>423</v>
+      </c>
+      <c r="M10" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="N10" s="1">
+        <v>431</v>
+      </c>
+      <c r="O10" s="1">
+        <v>14.82</v>
+      </c>
+      <c r="P10" s="1">
+        <v>47.74</v>
+      </c>
+      <c r="Q10" s="9">
+        <f>(C10*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>517</v>
+      </c>
+      <c r="D11" s="1">
+        <v>443</v>
+      </c>
+      <c r="E11" s="1">
+        <v>444</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L11" s="1">
+        <v>432</v>
+      </c>
+      <c r="M11" s="1">
+        <v>14.62</v>
+      </c>
+      <c r="N11" s="1">
+        <v>433</v>
+      </c>
+      <c r="O11" s="1">
+        <v>14.43</v>
+      </c>
+      <c r="P11" s="1">
+        <v>48.29</v>
+      </c>
+      <c r="Q11" s="9">
+        <f>(C11*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>517</v>
+      </c>
+      <c r="D12" s="1">
+        <v>454</v>
+      </c>
+      <c r="E12" s="1">
+        <v>460</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L12" s="1">
+        <v>443</v>
+      </c>
+      <c r="M12" s="1">
+        <v>12.45</v>
+      </c>
+      <c r="N12" s="1">
+        <v>449</v>
+      </c>
+      <c r="O12" s="1">
+        <v>11.26</v>
+      </c>
+      <c r="P12" s="1">
+        <v>47.85</v>
+      </c>
+      <c r="Q12" s="9">
+        <f>(C12*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="27"/>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>517</v>
+      </c>
+      <c r="D13" s="1">
+        <v>462</v>
+      </c>
+      <c r="E13" s="1">
+        <v>463</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L13" s="1">
+        <v>451</v>
+      </c>
+      <c r="M13" s="1">
+        <v>10.87</v>
+      </c>
+      <c r="N13" s="1">
+        <v>452</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10.67</v>
+      </c>
+      <c r="P13" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="Q13" s="9">
+        <f>(C13*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
+      <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>517</v>
+      </c>
+      <c r="D14" s="3">
+        <v>472</v>
+      </c>
+      <c r="E14" s="3">
+        <v>480</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L14" s="3">
+        <v>461</v>
+      </c>
+      <c r="M14" s="3">
+        <v>8.89</v>
+      </c>
+      <c r="N14" s="3">
+        <v>469</v>
+      </c>
+      <c r="O14" s="3">
+        <v>7.31</v>
+      </c>
+      <c r="P14" s="3">
+        <v>44.03</v>
+      </c>
+      <c r="Q14" s="11">
+        <f>(C14*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="27"/>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>517</v>
+      </c>
+      <c r="D15" s="1">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G15" s="18">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L15" s="1">
+        <v>173</v>
+      </c>
+      <c r="M15" s="17">
+        <v>65.81</v>
+      </c>
+      <c r="N15" s="1">
+        <v>270</v>
+      </c>
+      <c r="O15" s="17">
+        <v>46.64</v>
+      </c>
+      <c r="P15" s="1">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="Q15" s="9">
+        <f>(C15*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="27"/>
+      <c r="B16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>517</v>
+      </c>
+      <c r="D16" s="1">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8</v>
+      </c>
+      <c r="F16" s="18">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G16" s="18">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L16" s="1">
+        <v>184</v>
+      </c>
+      <c r="M16" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="N16" s="1">
+        <v>272</v>
+      </c>
+      <c r="O16" s="1">
+        <v>46.25</v>
+      </c>
+      <c r="P16" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="Q16" s="9">
+        <f>(C16*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="27"/>
+      <c r="B17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>517</v>
+      </c>
+      <c r="D17" s="1">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>14</v>
+      </c>
+      <c r="F17" s="18">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L17" s="1">
+        <v>184</v>
+      </c>
+      <c r="M17" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="N17" s="1">
+        <v>285</v>
+      </c>
+      <c r="O17" s="1">
+        <v>43.68</v>
+      </c>
+      <c r="P17" s="1">
+        <v>89.77</v>
+      </c>
+      <c r="Q17" s="9">
+        <f>(C17*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="27"/>
+      <c r="B18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>517</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="18">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.109</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L18" s="1">
+        <v>184</v>
+      </c>
+      <c r="M18" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="N18" s="1">
+        <v>281</v>
+      </c>
+      <c r="O18" s="1">
+        <v>44.47</v>
+      </c>
+      <c r="P18" s="1">
+        <v>90.86</v>
+      </c>
+      <c r="Q18" s="9">
+        <f>(C18*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="27"/>
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>517</v>
+      </c>
+      <c r="D19" s="1">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8</v>
+      </c>
+      <c r="F19" s="18">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.109</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L19" s="1">
+        <v>184</v>
+      </c>
+      <c r="M19" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="N19" s="1">
+        <v>281</v>
+      </c>
+      <c r="O19" s="1">
+        <v>44.47</v>
+      </c>
+      <c r="P19" s="1">
+        <v>92.06</v>
+      </c>
+      <c r="Q19" s="9">
+        <f>(C19*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="27"/>
+      <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>517</v>
+      </c>
+      <c r="D20" s="1">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8</v>
+      </c>
+      <c r="F20" s="18">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.109</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L20" s="1">
+        <v>184</v>
+      </c>
+      <c r="M20" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="N20" s="1">
+        <v>281</v>
+      </c>
+      <c r="O20" s="1">
+        <v>44.47</v>
+      </c>
+      <c r="P20" s="1">
+        <v>94.29</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>(C20*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="27"/>
+      <c r="B21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>517</v>
+      </c>
+      <c r="D21" s="1">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="18">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L21" s="1">
+        <v>184</v>
+      </c>
+      <c r="M21" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="N21" s="1">
+        <v>273</v>
+      </c>
+      <c r="O21" s="1">
+        <v>46.05</v>
+      </c>
+      <c r="P21" s="1">
+        <v>95.19</v>
+      </c>
+      <c r="Q21" s="9">
+        <f>(C21*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="27"/>
+      <c r="B22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1">
+        <v>517</v>
+      </c>
+      <c r="D22" s="1">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="18">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L22" s="1">
+        <v>184</v>
+      </c>
+      <c r="M22" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="N22" s="1">
+        <v>271</v>
+      </c>
+      <c r="O22" s="1">
+        <v>46.44</v>
+      </c>
+      <c r="P22" s="1">
+        <v>96.11</v>
+      </c>
+      <c r="Q22" s="9">
+        <f>(C22*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="27"/>
+      <c r="B23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>517</v>
+      </c>
+      <c r="D23" s="1">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="18">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L23" s="1">
+        <v>184</v>
+      </c>
+      <c r="M23" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="N23" s="1">
+        <v>272</v>
+      </c>
+      <c r="O23" s="1">
+        <v>46.25</v>
+      </c>
+      <c r="P23" s="1">
+        <v>96.24</v>
+      </c>
+      <c r="Q23" s="9">
+        <f>(C23*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="27"/>
+      <c r="B24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="13">
+        <v>517</v>
+      </c>
+      <c r="D24" s="13">
+        <v>13</v>
+      </c>
+      <c r="E24" s="13">
+        <v>8</v>
+      </c>
+      <c r="F24" s="19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J24" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L24" s="13">
+        <v>184</v>
+      </c>
+      <c r="M24" s="13">
+        <v>63.64</v>
+      </c>
+      <c r="N24" s="13">
+        <v>269</v>
+      </c>
+      <c r="O24" s="13">
+        <v>46.84</v>
+      </c>
+      <c r="P24" s="13">
+        <v>96.55</v>
+      </c>
+      <c r="Q24" s="14">
+        <f>(C24*100)/C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="6">
+        <v>662</v>
+      </c>
+      <c r="D25" s="6">
+        <v>31</v>
+      </c>
+      <c r="E25" s="6">
+        <v>16</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.184</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.223</v>
+      </c>
+      <c r="H25" s="6">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="J25" s="6">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L25" s="6">
+        <v>220</v>
+      </c>
+      <c r="M25" s="6">
+        <v>65.94</v>
+      </c>
+      <c r="N25" s="6">
+        <v>505</v>
+      </c>
+      <c r="O25" s="6">
+        <v>21.83</v>
+      </c>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="7">
+        <f>(C25*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="29"/>
+      <c r="B26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>662</v>
+      </c>
+      <c r="D26" s="1">
+        <v>298</v>
+      </c>
+      <c r="E26" s="1">
+        <v>375</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L26" s="1">
+        <v>314</v>
+      </c>
+      <c r="M26" s="1">
+        <v>51.39</v>
+      </c>
+      <c r="N26" s="1">
+        <v>411</v>
+      </c>
+      <c r="O26" s="1">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="P26" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="Q26" s="9">
+        <f>(C26*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="29"/>
+      <c r="B27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <v>662</v>
+      </c>
+      <c r="D27" s="1">
+        <v>404</v>
+      </c>
+      <c r="E27" s="1">
+        <v>406</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L27" s="1">
+        <v>425</v>
+      </c>
+      <c r="M27" s="1">
+        <v>34.21</v>
+      </c>
+      <c r="N27" s="1">
+        <v>444</v>
+      </c>
+      <c r="O27" s="1">
+        <v>31.27</v>
+      </c>
+      <c r="P27" s="1">
+        <v>30.95</v>
+      </c>
+      <c r="Q27" s="9">
+        <f>(C27*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="29"/>
+      <c r="B28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1">
+        <v>662</v>
+      </c>
+      <c r="D28" s="1">
+        <v>459</v>
+      </c>
+      <c r="E28" s="1">
+        <v>464</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.188</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L28" s="1">
+        <v>460</v>
+      </c>
+      <c r="M28" s="1">
+        <v>28.79</v>
+      </c>
+      <c r="N28" s="1">
+        <v>471</v>
+      </c>
+      <c r="O28" s="1">
+        <v>27.09</v>
+      </c>
+      <c r="P28" s="1">
+        <v>32.43</v>
+      </c>
+      <c r="Q28" s="9">
+        <f>(C28*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="29"/>
+      <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
+        <v>662</v>
+      </c>
+      <c r="D29" s="1">
+        <v>496</v>
+      </c>
+      <c r="E29" s="1">
+        <v>499</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L29" s="1">
+        <v>488</v>
+      </c>
+      <c r="M29" s="1">
+        <v>24.46</v>
+      </c>
+      <c r="N29" s="1">
+        <v>500</v>
+      </c>
+      <c r="O29" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="P29" s="1">
+        <v>34.33</v>
+      </c>
+      <c r="Q29" s="9">
+        <f>(C29*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="29"/>
+      <c r="B30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>662</v>
+      </c>
+      <c r="D30" s="1">
+        <v>508</v>
+      </c>
+      <c r="E30" s="1">
+        <v>509</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L30" s="1">
+        <v>499</v>
+      </c>
+      <c r="M30" s="1">
+        <v>22.76</v>
+      </c>
+      <c r="N30" s="1">
+        <v>500</v>
+      </c>
+      <c r="O30" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="P30" s="1">
+        <v>35.04</v>
+      </c>
+      <c r="Q30" s="9">
+        <f>(C30*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="29"/>
+      <c r="B31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1">
+        <v>662</v>
+      </c>
+      <c r="D31" s="1">
+        <v>530</v>
+      </c>
+      <c r="E31" s="1">
+        <v>533</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.106</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L31" s="1">
+        <v>521</v>
+      </c>
+      <c r="M31" s="1">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="N31" s="1">
+        <v>524</v>
+      </c>
+      <c r="O31" s="1">
+        <v>18.89</v>
+      </c>
+      <c r="P31" s="1">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="Q31" s="9">
+        <f>(C31*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="29"/>
+      <c r="B32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1">
+        <v>662</v>
+      </c>
+      <c r="D32" s="1">
+        <v>543</v>
+      </c>
+      <c r="E32" s="1">
+        <v>545</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L32" s="1">
+        <v>531</v>
+      </c>
+      <c r="M32" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="N32" s="1">
+        <v>533</v>
+      </c>
+      <c r="O32" s="1">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="P32" s="1">
+        <v>36.83</v>
+      </c>
+      <c r="Q32" s="9">
+        <f>(C32*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="29"/>
+      <c r="B33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1">
+        <v>662</v>
+      </c>
+      <c r="D33" s="1">
+        <v>571</v>
+      </c>
+      <c r="E33" s="1">
+        <v>572</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L33" s="1">
+        <v>557</v>
+      </c>
+      <c r="M33" s="1">
+        <v>13.78</v>
+      </c>
+      <c r="N33" s="1">
+        <v>558</v>
+      </c>
+      <c r="O33" s="1">
+        <v>13.62</v>
+      </c>
+      <c r="P33" s="1">
+        <v>40.28</v>
+      </c>
+      <c r="Q33" s="9">
+        <f>(C33*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="29"/>
+      <c r="B34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <v>662</v>
+      </c>
+      <c r="D34" s="1">
+        <v>578</v>
+      </c>
+      <c r="E34" s="1">
+        <v>580</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L34" s="1">
+        <v>564</v>
+      </c>
+      <c r="M34" s="1">
+        <v>12.69</v>
+      </c>
+      <c r="N34" s="1">
+        <v>566</v>
+      </c>
+      <c r="O34" s="1">
+        <v>12.38</v>
+      </c>
+      <c r="P34" s="1">
+        <v>38.11</v>
+      </c>
+      <c r="Q34" s="9">
+        <f>(C34*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="29"/>
+      <c r="B35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3">
+        <v>662</v>
+      </c>
+      <c r="D35" s="3">
+        <v>582</v>
+      </c>
+      <c r="E35" s="3">
+        <v>583</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I35" s="3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J35" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L35" s="3">
+        <v>568</v>
+      </c>
+      <c r="M35" s="3">
+        <v>12.07</v>
+      </c>
+      <c r="N35" s="3">
+        <v>569</v>
+      </c>
+      <c r="O35" s="3">
+        <v>11.92</v>
+      </c>
+      <c r="P35" s="3">
+        <v>37.97</v>
+      </c>
+      <c r="Q35" s="11">
+        <f>(C35*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="29"/>
+      <c r="B36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1">
+        <v>662</v>
+      </c>
+      <c r="D36" s="1">
+        <v>26</v>
+      </c>
+      <c r="E36" s="1">
+        <v>83</v>
+      </c>
+      <c r="F36" s="18">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="G36" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L36" s="1">
+        <v>250</v>
+      </c>
+      <c r="M36" s="17">
+        <v>61.3</v>
+      </c>
+      <c r="N36" s="1">
+        <v>422</v>
+      </c>
+      <c r="O36" s="17">
+        <v>34.67</v>
+      </c>
+      <c r="P36" s="1">
+        <v>55.86</v>
+      </c>
+      <c r="Q36" s="9">
+        <f>(C36*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="29"/>
+      <c r="B37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1">
+        <v>662</v>
+      </c>
+      <c r="D37" s="1">
+        <v>28</v>
+      </c>
+      <c r="E37" s="1">
+        <v>14</v>
+      </c>
+      <c r="F37" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0.22</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="J37" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L37" s="1">
+        <v>222</v>
+      </c>
+      <c r="M37" s="1">
+        <v>65.63</v>
+      </c>
+      <c r="N37" s="1">
+        <v>515</v>
+      </c>
+      <c r="O37" s="1">
+        <v>20.28</v>
+      </c>
+      <c r="P37" s="1">
+        <v>74.66</v>
+      </c>
+      <c r="Q37" s="9">
+        <f>(C37*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="29"/>
+      <c r="B38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1">
+        <v>662</v>
+      </c>
+      <c r="D38" s="1">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1">
+        <v>15</v>
+      </c>
+      <c r="F38" s="18">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G38" s="18">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="J38" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L38" s="1">
+        <v>221</v>
+      </c>
+      <c r="M38" s="1">
+        <v>65.790000000000006</v>
+      </c>
+      <c r="N38" s="1">
+        <v>518</v>
+      </c>
+      <c r="O38" s="1">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="P38" s="1">
+        <v>80.84</v>
+      </c>
+      <c r="Q38" s="9">
+        <f>(C38*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="29"/>
+      <c r="B39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1">
+        <v>662</v>
+      </c>
+      <c r="D39" s="1">
+        <v>28</v>
+      </c>
+      <c r="E39" s="1">
+        <v>13</v>
+      </c>
+      <c r="F39" s="18">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="J39" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L39" s="1">
+        <v>221</v>
+      </c>
+      <c r="M39" s="1">
+        <v>65.790000000000006</v>
+      </c>
+      <c r="N39" s="1">
+        <v>516</v>
+      </c>
+      <c r="O39" s="1">
+        <v>20.12</v>
+      </c>
+      <c r="P39" s="1">
+        <v>84.27</v>
+      </c>
+      <c r="Q39" s="9">
+        <f>(C39*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="29"/>
+      <c r="B40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1">
+        <v>662</v>
+      </c>
+      <c r="D40" s="1">
+        <v>28</v>
+      </c>
+      <c r="E40" s="1">
+        <v>11</v>
+      </c>
+      <c r="F40" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="J40" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L40" s="1">
+        <v>222</v>
+      </c>
+      <c r="M40" s="1">
+        <v>65.63</v>
+      </c>
+      <c r="N40" s="1">
+        <v>516</v>
+      </c>
+      <c r="O40" s="1">
+        <v>20.12</v>
+      </c>
+      <c r="P40" s="1">
+        <v>85.56</v>
+      </c>
+      <c r="Q40" s="9">
+        <f>(C40*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="29"/>
+      <c r="B41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="1">
+        <v>662</v>
+      </c>
+      <c r="D41" s="1">
+        <v>28</v>
+      </c>
+      <c r="E41" s="1">
+        <v>13</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="J41" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L41" s="1">
+        <v>224</v>
+      </c>
+      <c r="M41" s="1">
+        <v>65.33</v>
+      </c>
+      <c r="N41" s="1">
+        <v>516</v>
+      </c>
+      <c r="O41" s="1">
+        <v>20.12</v>
+      </c>
+      <c r="P41" s="1">
+        <v>88.17</v>
+      </c>
+      <c r="Q41" s="9">
+        <f>(C41*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="29"/>
+      <c r="B42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1">
+        <v>662</v>
+      </c>
+      <c r="D42" s="1">
+        <v>26</v>
+      </c>
+      <c r="E42" s="1">
+        <v>13</v>
+      </c>
+      <c r="F42" s="18">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="J42" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L42" s="1">
+        <v>232</v>
+      </c>
+      <c r="M42" s="1">
+        <v>64.09</v>
+      </c>
+      <c r="N42" s="1">
+        <v>516</v>
+      </c>
+      <c r="O42" s="1">
+        <v>20.12</v>
+      </c>
+      <c r="P42" s="1">
+        <v>89.52</v>
+      </c>
+      <c r="Q42" s="9">
+        <f>(C42*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="29"/>
+      <c r="B43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1">
+        <v>662</v>
+      </c>
+      <c r="D43" s="1">
+        <v>29</v>
+      </c>
+      <c r="E43" s="1">
+        <v>11</v>
+      </c>
+      <c r="F43" s="18">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H43" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="J43" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L43" s="1">
+        <v>223</v>
+      </c>
+      <c r="M43" s="1">
+        <v>65.48</v>
+      </c>
+      <c r="N43" s="1">
+        <v>513</v>
+      </c>
+      <c r="O43" s="1">
+        <v>20.59</v>
+      </c>
+      <c r="P43" s="1">
+        <v>92.58</v>
+      </c>
+      <c r="Q43" s="9">
+        <f>(C43*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="29"/>
+      <c r="B44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1">
+        <v>662</v>
+      </c>
+      <c r="D44" s="1">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1">
+        <v>11</v>
+      </c>
+      <c r="F44" s="18">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H44" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="J44" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L44" s="1">
+        <v>223</v>
+      </c>
+      <c r="M44" s="1">
+        <v>65.48</v>
+      </c>
+      <c r="N44" s="1">
+        <v>513</v>
+      </c>
+      <c r="O44" s="1">
+        <v>20.59</v>
+      </c>
+      <c r="P44" s="1">
+        <v>93.32</v>
+      </c>
+      <c r="Q44" s="9">
+        <f>(C44*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="29"/>
+      <c r="B45" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="13">
+        <v>662</v>
+      </c>
+      <c r="D45" s="13">
+        <v>29</v>
+      </c>
+      <c r="E45" s="13">
+        <v>11</v>
+      </c>
+      <c r="F45" s="19">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H45" s="13">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I45" s="13">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="J45" s="13">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K45" s="13">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L45" s="13">
+        <v>223</v>
+      </c>
+      <c r="M45" s="13">
+        <v>65.48</v>
+      </c>
+      <c r="N45" s="13">
+        <v>513</v>
+      </c>
+      <c r="O45" s="13">
+        <v>20.59</v>
+      </c>
+      <c r="P45" s="13">
+        <v>93.49</v>
+      </c>
+      <c r="Q45" s="14">
+        <f>(C45*100)/C25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="6">
+        <v>4414</v>
+      </c>
+      <c r="D46" s="6">
+        <v>26</v>
+      </c>
+      <c r="E46" s="6">
+        <v>492</v>
+      </c>
+      <c r="F46" s="6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.124</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0.193</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L46" s="6">
+        <v>2668</v>
+      </c>
+      <c r="M46" s="6">
+        <v>39.11</v>
+      </c>
+      <c r="N46" s="6">
+        <v>2905</v>
+      </c>
+      <c r="O46" s="6">
+        <v>33.71</v>
+      </c>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="7">
+        <f>(C46*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" s="22"/>
+      <c r="B47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3753</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4395</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I47" s="1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L47" s="1">
+        <v>3992</v>
+      </c>
+      <c r="M47" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="N47" s="1">
+        <v>4365</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="P47" s="1">
+        <v>14.97</v>
+      </c>
+      <c r="Q47" s="9">
+        <f>(C47*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="22"/>
+      <c r="B48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3785</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4372</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I48" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L48" s="1">
+        <v>3991</v>
+      </c>
+      <c r="M48" s="1">
+        <v>8.92</v>
+      </c>
+      <c r="N48" s="1">
+        <v>4344</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="P48" s="1">
+        <v>18.11</v>
+      </c>
+      <c r="Q48" s="9">
+        <f>(C48*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="22"/>
+      <c r="B49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3814</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4365</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I49" s="1">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L49" s="1">
+        <v>3996</v>
+      </c>
+      <c r="M49" s="1">
+        <v>8.81</v>
+      </c>
+      <c r="N49" s="1">
+        <v>4337</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="P49" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="Q49" s="9">
+        <f>(C49*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="22"/>
+      <c r="B50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3893</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4341</v>
+      </c>
+      <c r="F50" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I50" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L50" s="1">
+        <v>4020</v>
+      </c>
+      <c r="M50" s="1">
+        <v>8.26</v>
+      </c>
+      <c r="N50" s="1">
+        <v>4319</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="P50" s="1">
+        <v>22.96</v>
+      </c>
+      <c r="Q50" s="9">
+        <f>(C50*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="22"/>
+      <c r="B51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3920</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4317</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I51" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J51" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L51" s="1">
+        <v>4020</v>
+      </c>
+      <c r="M51" s="1">
+        <v>8.26</v>
+      </c>
+      <c r="N51" s="1">
+        <v>4300</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="P51" s="1">
+        <v>24.16</v>
+      </c>
+      <c r="Q51" s="9">
+        <f>(C51*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="22"/>
+      <c r="B52" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3977</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4308</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J52" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L52" s="1">
+        <v>4074</v>
+      </c>
+      <c r="M52" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="N52" s="1">
+        <v>4291</v>
+      </c>
+      <c r="O52" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="P52" s="1">
+        <v>24.32</v>
+      </c>
+      <c r="Q52" s="9">
+        <f>(C52*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="22"/>
+      <c r="B53" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4045</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4274</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L53" s="1">
+        <v>4108</v>
+      </c>
+      <c r="M53" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="N53" s="1">
+        <v>4262</v>
+      </c>
+      <c r="O53" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="P53" s="1">
+        <v>32.42</v>
+      </c>
+      <c r="Q53" s="9">
+        <f>(C53*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="22"/>
+      <c r="B54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4056</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4274</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L54" s="1">
+        <v>4117</v>
+      </c>
+      <c r="M54" s="1">
+        <v>6.05</v>
+      </c>
+      <c r="N54" s="1">
+        <v>4266</v>
+      </c>
+      <c r="O54" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="P54" s="1">
+        <v>35.22</v>
+      </c>
+      <c r="Q54" s="9">
+        <f>(C54*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="22"/>
+      <c r="B55" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4075</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4273</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G55" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L55" s="1">
+        <v>4128</v>
+      </c>
+      <c r="M55" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="N55" s="1">
+        <v>4263</v>
+      </c>
+      <c r="O55" s="1">
+        <v>2.72</v>
+      </c>
+      <c r="P55" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q55" s="9">
+        <f>(C55*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="22"/>
+      <c r="B56" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="3">
+        <v>4414</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4139</v>
+      </c>
+      <c r="E56" s="3">
+        <v>4262</v>
+      </c>
+      <c r="F56" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G56" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="I56" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L56" s="3">
+        <v>4174</v>
+      </c>
+      <c r="M56" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="N56" s="3">
+        <v>4252</v>
+      </c>
+      <c r="O56" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="P56" s="3">
+        <v>36.61</v>
+      </c>
+      <c r="Q56" s="11">
+        <f>(C56*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57" s="22"/>
+      <c r="B57" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D57" s="1">
+        <v>30</v>
+      </c>
+      <c r="E57" s="1">
+        <v>654</v>
+      </c>
+      <c r="F57" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G57" s="18">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L57" s="1">
+        <v>2596</v>
+      </c>
+      <c r="M57" s="1">
+        <v>40.76</v>
+      </c>
+      <c r="N57" s="1">
+        <v>2543</v>
+      </c>
+      <c r="O57" s="1">
+        <v>41.97</v>
+      </c>
+      <c r="P57" s="1">
+        <v>68.67</v>
+      </c>
+      <c r="Q57" s="9">
+        <f>(C57*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58" s="22"/>
+      <c r="B58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D58" s="1">
+        <v>29</v>
+      </c>
+      <c r="E58" s="1">
+        <v>590</v>
+      </c>
+      <c r="F58" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G58" s="18">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L58" s="1">
+        <v>2577</v>
+      </c>
+      <c r="M58" s="1">
+        <v>41.19</v>
+      </c>
+      <c r="N58" s="1">
+        <v>2639</v>
+      </c>
+      <c r="O58" s="1">
+        <v>39.78</v>
+      </c>
+      <c r="P58" s="1">
+        <v>77.209999999999994</v>
+      </c>
+      <c r="Q58" s="9">
+        <f>(C58*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59" s="22"/>
+      <c r="B59" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D59" s="1">
+        <v>29</v>
+      </c>
+      <c r="E59" s="1">
+        <v>550</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G59" s="18">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2606</v>
+      </c>
+      <c r="M59" s="1">
+        <v>40.53</v>
+      </c>
+      <c r="N59" s="1">
+        <v>2649</v>
+      </c>
+      <c r="O59" s="1">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="P59" s="1">
+        <v>80.36</v>
+      </c>
+      <c r="Q59" s="9">
+        <f>(C59*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="22"/>
+      <c r="B60" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D60" s="1">
+        <v>29</v>
+      </c>
+      <c r="E60" s="1">
+        <v>442</v>
+      </c>
+      <c r="F60" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G60" s="18">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L60" s="1">
+        <v>2648</v>
+      </c>
+      <c r="M60" s="1">
+        <v>39.57</v>
+      </c>
+      <c r="N60" s="1">
+        <v>2747</v>
+      </c>
+      <c r="O60" s="1">
+        <v>37.31</v>
+      </c>
+      <c r="P60" s="1">
+        <v>88.49</v>
+      </c>
+      <c r="Q60" s="9">
+        <f>(C60*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="22"/>
+      <c r="B61" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D61" s="1">
+        <v>29</v>
+      </c>
+      <c r="E61" s="1">
+        <v>385</v>
+      </c>
+      <c r="F61" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G61" s="18">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L61" s="1">
+        <v>2649</v>
+      </c>
+      <c r="M61" s="1">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="N61" s="1">
+        <v>2773</v>
+      </c>
+      <c r="O61" s="1">
+        <v>36.72</v>
+      </c>
+      <c r="P61" s="1">
+        <v>89.61</v>
+      </c>
+      <c r="Q61" s="9">
+        <f>(C61*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62" s="22"/>
+      <c r="B62" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D62" s="1">
+        <v>30</v>
+      </c>
+      <c r="E62" s="1">
+        <v>321</v>
+      </c>
+      <c r="F62" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G62" s="18">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L62" s="1">
+        <v>2625</v>
+      </c>
+      <c r="M62" s="1">
+        <v>40.1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>2718</v>
+      </c>
+      <c r="O62" s="1">
+        <v>37.97</v>
+      </c>
+      <c r="P62" s="1">
+        <v>90.52</v>
+      </c>
+      <c r="Q62" s="9">
+        <f>(C62*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A63" s="22"/>
+      <c r="B63" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D63" s="1">
+        <v>30</v>
+      </c>
+      <c r="E63" s="1">
+        <v>219</v>
+      </c>
+      <c r="F63" s="18">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G63" s="18">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L63" s="1">
+        <v>2559</v>
+      </c>
+      <c r="M63" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="N63" s="1">
+        <v>2773</v>
+      </c>
+      <c r="O63" s="1">
+        <v>36.72</v>
+      </c>
+      <c r="P63" s="1">
+        <v>96.51</v>
+      </c>
+      <c r="Q63" s="9">
+        <f>(C63*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64" s="22"/>
+      <c r="B64" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D64" s="1">
+        <v>30</v>
+      </c>
+      <c r="E64" s="1">
+        <v>202</v>
+      </c>
+      <c r="F64" s="18">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G64" s="18">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.246</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L64" s="1">
+        <v>2559</v>
+      </c>
+      <c r="M64" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="N64" s="1">
+        <v>3049</v>
+      </c>
+      <c r="O64" s="1">
+        <v>30.42</v>
+      </c>
+      <c r="P64" s="1">
+        <v>97.05</v>
+      </c>
+      <c r="Q64" s="9">
+        <f>(C64*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65" s="22"/>
+      <c r="B65" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4414</v>
+      </c>
+      <c r="D65" s="1">
+        <v>30</v>
+      </c>
+      <c r="E65" s="1">
+        <v>184</v>
+      </c>
+      <c r="F65" s="18">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G65" s="18">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L65" s="1">
+        <v>2559</v>
+      </c>
+      <c r="M65" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="N65" s="1">
+        <v>2814</v>
+      </c>
+      <c r="O65" s="1">
+        <v>35.78</v>
+      </c>
+      <c r="P65" s="1">
+        <v>97.17</v>
+      </c>
+      <c r="Q65" s="9">
+        <f>(C65*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="22"/>
+      <c r="B66" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="13">
+        <v>4414</v>
+      </c>
+      <c r="D66" s="13">
+        <v>30</v>
+      </c>
+      <c r="E66" s="13">
+        <v>113</v>
+      </c>
+      <c r="F66" s="19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G66" s="19">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H66" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="I66" s="13">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J66" s="13">
+        <v>0.313</v>
+      </c>
+      <c r="K66" s="13">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L66" s="13">
+        <v>2559</v>
+      </c>
+      <c r="M66" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="N66" s="13">
+        <v>2898</v>
+      </c>
+      <c r="O66" s="1">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="P66" s="13">
+        <v>97.74</v>
+      </c>
+      <c r="Q66" s="14">
+        <f>(C66*100)/C46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="6">
+        <v>210</v>
+      </c>
+      <c r="D67" s="6">
+        <v>10</v>
+      </c>
+      <c r="E67" s="6">
+        <v>22</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G67" s="6">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H67" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L67" s="6">
+        <v>83</v>
+      </c>
+      <c r="M67" s="6">
+        <v>59.9</v>
+      </c>
+      <c r="N67" s="6">
+        <v>70</v>
+      </c>
+      <c r="O67" s="6">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6">
+        <f>(C67*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" s="22"/>
+      <c r="B68" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="1">
+        <v>210</v>
+      </c>
+      <c r="D68" s="1">
+        <v>154</v>
+      </c>
+      <c r="E68" s="1">
+        <v>159</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H68" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I68" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J68" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L68" s="1">
+        <v>164</v>
+      </c>
+      <c r="M68" s="1">
+        <v>20.77</v>
+      </c>
+      <c r="N68" s="1">
+        <v>179</v>
+      </c>
+      <c r="O68" s="1">
+        <v>13.53</v>
+      </c>
+      <c r="P68" s="1">
+        <v>31.15</v>
+      </c>
+      <c r="Q68" s="9">
+        <f>(C68*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" s="22"/>
+      <c r="B69" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="1">
+        <v>210</v>
+      </c>
+      <c r="D69" s="1">
+        <v>171</v>
+      </c>
+      <c r="E69" s="1">
+        <v>187</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H69" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I69" s="1">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="J69" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L69" s="1">
+        <v>177</v>
+      </c>
+      <c r="M69" s="1">
+        <v>14.49</v>
+      </c>
+      <c r="N69" s="1">
+        <v>186</v>
+      </c>
+      <c r="O69" s="1">
+        <v>10.14</v>
+      </c>
+      <c r="P69" s="1">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="Q69" s="9">
+        <f>(C69*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A70" s="22"/>
+      <c r="B70" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="1">
+        <v>210</v>
+      </c>
+      <c r="D70" s="1">
+        <v>181</v>
+      </c>
+      <c r="E70" s="1">
+        <v>182</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I70" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J70" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L70" s="1">
+        <v>182</v>
+      </c>
+      <c r="M70" s="1">
+        <v>12.08</v>
+      </c>
+      <c r="N70" s="1">
+        <v>184</v>
+      </c>
+      <c r="O70" s="1">
+        <v>11.11</v>
+      </c>
+      <c r="P70" s="1">
+        <v>56.06</v>
+      </c>
+      <c r="Q70" s="9">
+        <f>(C70*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A71" s="22"/>
+      <c r="B71" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="1">
+        <v>210</v>
+      </c>
+      <c r="D71" s="1">
+        <v>187</v>
+      </c>
+      <c r="E71" s="1">
+        <v>188</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I71" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J71" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L71" s="1">
+        <v>186</v>
+      </c>
+      <c r="M71" s="1">
+        <v>10.14</v>
+      </c>
+      <c r="N71" s="1">
+        <v>188</v>
+      </c>
+      <c r="O71" s="1">
+        <v>9.18</v>
+      </c>
+      <c r="P71" s="1">
+        <v>56.14</v>
+      </c>
+      <c r="Q71" s="9">
+        <f>(C71*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A72" s="22"/>
+      <c r="B72" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="1">
+        <v>210</v>
+      </c>
+      <c r="D72" s="1">
+        <v>187</v>
+      </c>
+      <c r="E72" s="1">
+        <v>188</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H72" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I72" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J72" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L72" s="1">
+        <v>186</v>
+      </c>
+      <c r="M72" s="1">
+        <v>10.14</v>
+      </c>
+      <c r="N72" s="1">
+        <v>188</v>
+      </c>
+      <c r="O72" s="1">
+        <v>9.18</v>
+      </c>
+      <c r="P72" s="1">
+        <v>55.36</v>
+      </c>
+      <c r="Q72" s="9">
+        <f>(C72*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A73" s="22"/>
+      <c r="B73" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="1">
+        <v>210</v>
+      </c>
+      <c r="D73" s="1">
+        <v>190</v>
+      </c>
+      <c r="E73" s="1">
+        <v>195</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H73" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I73" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J73" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L73" s="1">
+        <v>189</v>
+      </c>
+      <c r="M73" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N73" s="1">
+        <v>194</v>
+      </c>
+      <c r="O73" s="1">
+        <v>6.28</v>
+      </c>
+      <c r="P73" s="1">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="Q73" s="9">
+        <f>(C73*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A74" s="22"/>
+      <c r="B74" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="1">
+        <v>210</v>
+      </c>
+      <c r="D74" s="1">
+        <v>191</v>
+      </c>
+      <c r="E74" s="1">
+        <v>196</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H74" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J74" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L74" s="1">
+        <v>190</v>
+      </c>
+      <c r="M74" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="N74" s="1">
+        <v>195</v>
+      </c>
+      <c r="O74" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="P74" s="1">
+        <v>63.16</v>
+      </c>
+      <c r="Q74" s="9">
+        <f>(C74*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A75" s="22"/>
+      <c r="B75" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="1">
+        <v>210</v>
+      </c>
+      <c r="D75" s="1">
+        <v>197</v>
+      </c>
+      <c r="E75" s="1">
+        <v>198</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H75" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L75" s="1">
+        <v>196</v>
+      </c>
+      <c r="M75" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="N75" s="1">
+        <v>197</v>
+      </c>
+      <c r="O75" s="1">
+        <v>4.83</v>
+      </c>
+      <c r="P75" s="1">
+        <v>61.54</v>
+      </c>
+      <c r="Q75" s="9">
+        <f>(C75*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A76" s="22"/>
+      <c r="B76" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="1">
+        <v>210</v>
+      </c>
+      <c r="D76" s="1">
+        <v>197</v>
+      </c>
+      <c r="E76" s="1">
+        <v>198</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H76" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L76" s="1">
+        <v>196</v>
+      </c>
+      <c r="M76" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="N76" s="1">
+        <v>197</v>
+      </c>
+      <c r="O76" s="1">
+        <v>4.83</v>
+      </c>
+      <c r="P76" s="1">
+        <v>61.54</v>
+      </c>
+      <c r="Q76" s="9">
+        <f>(C76*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A77" s="22"/>
+      <c r="B77" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="3">
+        <v>210</v>
+      </c>
+      <c r="D77" s="3">
+        <v>197</v>
+      </c>
+      <c r="E77" s="3">
+        <v>198</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H77" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L77" s="3">
+        <v>196</v>
+      </c>
+      <c r="M77" s="3">
+        <v>5.31</v>
+      </c>
+      <c r="N77" s="3">
+        <v>197</v>
+      </c>
+      <c r="O77" s="3">
+        <v>4.83</v>
+      </c>
+      <c r="P77" s="3">
+        <v>61.54</v>
+      </c>
+      <c r="Q77" s="11">
+        <f>(C77*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A78" s="22"/>
+      <c r="B78" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="1">
+        <v>210</v>
+      </c>
+      <c r="D78" s="1">
+        <v>10</v>
+      </c>
+      <c r="E78" s="1">
+        <v>10</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G78" s="20">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H78" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L78" s="1">
+        <v>83</v>
+      </c>
+      <c r="M78" s="1">
+        <v>59.9</v>
+      </c>
+      <c r="N78" s="1">
+        <v>105</v>
+      </c>
+      <c r="O78" s="1">
+        <v>49.28</v>
+      </c>
+      <c r="P78" s="1">
+        <v>81.99</v>
+      </c>
+      <c r="Q78" s="9">
+        <f>(C78*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A79" s="22"/>
+      <c r="B79" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="1">
+        <v>210</v>
+      </c>
+      <c r="D79" s="1">
+        <v>10</v>
+      </c>
+      <c r="E79" s="1">
+        <v>18</v>
+      </c>
+      <c r="F79" s="18">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G79" s="20">
+        <v>0.111</v>
+      </c>
+      <c r="H79" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L79" s="1">
+        <v>78</v>
+      </c>
+      <c r="M79" s="1">
+        <v>62.32</v>
+      </c>
+      <c r="N79" s="1">
+        <v>98</v>
+      </c>
+      <c r="O79" s="1">
+        <v>52.66</v>
+      </c>
+      <c r="P79" s="1">
+        <v>89.89</v>
+      </c>
+      <c r="Q79" s="9">
+        <f>(C79*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A80" s="22"/>
+      <c r="B80" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="1">
+        <v>210</v>
+      </c>
+      <c r="D80" s="1">
+        <v>10</v>
+      </c>
+      <c r="E80" s="1">
+        <v>2</v>
+      </c>
+      <c r="F80" s="18">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G80" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="H80" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L80" s="1">
+        <v>78</v>
+      </c>
+      <c r="M80" s="1">
+        <v>62.32</v>
+      </c>
+      <c r="N80" s="1">
+        <v>133</v>
+      </c>
+      <c r="O80" s="1">
+        <v>35.75</v>
+      </c>
+      <c r="P80" s="1">
+        <v>96.35</v>
+      </c>
+      <c r="Q80" s="9">
+        <f>(C80*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A81" s="22"/>
+      <c r="B81" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="1">
+        <v>210</v>
+      </c>
+      <c r="D81" s="1">
+        <v>10</v>
+      </c>
+      <c r="E81" s="1">
+        <v>2</v>
+      </c>
+      <c r="F81" s="18">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H81" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="J81" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L81" s="1">
+        <v>78</v>
+      </c>
+      <c r="M81" s="1">
+        <v>62.32</v>
+      </c>
+      <c r="N81" s="1">
+        <v>135</v>
+      </c>
+      <c r="O81" s="1">
+        <v>34.78</v>
+      </c>
+      <c r="P81" s="1">
+        <v>96.84</v>
+      </c>
+      <c r="Q81" s="9">
+        <f>(C81*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A82" s="22"/>
+      <c r="B82" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="1">
+        <v>210</v>
+      </c>
+      <c r="D82" s="1">
+        <v>10</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2</v>
+      </c>
+      <c r="F82" s="18">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H82" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="J82" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L82" s="1">
+        <v>78</v>
+      </c>
+      <c r="M82" s="1">
+        <v>62.32</v>
+      </c>
+      <c r="N82" s="1">
+        <v>135</v>
+      </c>
+      <c r="O82" s="1">
+        <v>34.78</v>
+      </c>
+      <c r="P82" s="1">
+        <v>96.84</v>
+      </c>
+      <c r="Q82" s="9">
+        <f>(C82*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A83" s="22"/>
+      <c r="B83" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="1">
+        <v>210</v>
+      </c>
+      <c r="D83" s="1">
+        <v>10</v>
+      </c>
+      <c r="E83" s="1">
+        <v>5</v>
+      </c>
+      <c r="F83" s="18">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H83" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="J83" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L83" s="1">
+        <v>78</v>
+      </c>
+      <c r="M83" s="1">
+        <v>62.32</v>
+      </c>
+      <c r="N83" s="1">
+        <v>131</v>
+      </c>
+      <c r="O83" s="1">
+        <v>36.71</v>
+      </c>
+      <c r="P83" s="1">
+        <v>98.2</v>
+      </c>
+      <c r="Q83" s="9">
+        <f>(C83*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A84" s="22"/>
+      <c r="B84" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="1">
+        <v>210</v>
+      </c>
+      <c r="D84" s="1">
+        <v>10</v>
+      </c>
+      <c r="E84" s="1">
+        <v>5</v>
+      </c>
+      <c r="F84" s="18">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H84" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="J84" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L84" s="1">
+        <v>78</v>
+      </c>
+      <c r="M84" s="1">
+        <v>62.32</v>
+      </c>
+      <c r="N84" s="1">
+        <v>131</v>
+      </c>
+      <c r="O84" s="1">
+        <v>36.71</v>
+      </c>
+      <c r="P84" s="1">
+        <v>98.2</v>
+      </c>
+      <c r="Q84" s="9">
+        <f>(C84*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A85" s="22"/>
+      <c r="B85" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="1">
+        <v>210</v>
+      </c>
+      <c r="D85" s="1">
+        <v>10</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+      <c r="F85" s="18">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="H85" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="J85" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L85" s="1">
+        <v>78</v>
+      </c>
+      <c r="M85" s="1">
+        <v>62.32</v>
+      </c>
+      <c r="N85" s="1">
+        <v>131</v>
+      </c>
+      <c r="O85" s="1">
+        <v>36.71</v>
+      </c>
+      <c r="P85" s="1">
+        <v>98.71</v>
+      </c>
+      <c r="Q85" s="9">
+        <f>(C85*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A86" s="22"/>
+      <c r="B86" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="1">
+        <v>210</v>
+      </c>
+      <c r="D86" s="1">
+        <v>10</v>
+      </c>
+      <c r="E86" s="1">
+        <v>2</v>
+      </c>
+      <c r="F86" s="18">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="H86" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="J86" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L86" s="1">
+        <v>78</v>
+      </c>
+      <c r="M86" s="1">
+        <v>62.32</v>
+      </c>
+      <c r="N86" s="1">
+        <v>131</v>
+      </c>
+      <c r="O86" s="1">
+        <v>36.71</v>
+      </c>
+      <c r="P86" s="1">
+        <v>98.71</v>
+      </c>
+      <c r="Q86" s="9">
+        <f>(C86*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="22"/>
+      <c r="B87" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="13">
+        <v>210</v>
+      </c>
+      <c r="D87" s="13">
+        <v>10</v>
+      </c>
+      <c r="E87" s="13">
+        <v>2</v>
+      </c>
+      <c r="F87" s="19">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G87" s="13">
+        <v>0.121</v>
+      </c>
+      <c r="H87" s="13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I87" s="13">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="J87" s="13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K87" s="13">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L87" s="13">
+        <v>78</v>
+      </c>
+      <c r="M87" s="13">
+        <v>62.32</v>
+      </c>
+      <c r="N87" s="13">
+        <v>131</v>
+      </c>
+      <c r="O87" s="13">
+        <v>36.71</v>
+      </c>
+      <c r="P87" s="13">
+        <v>98.71</v>
+      </c>
+      <c r="Q87" s="14">
+        <f>(C87*100)/C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A88" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="6">
+        <v>1738</v>
+      </c>
+      <c r="D88" s="6">
+        <v>14</v>
+      </c>
+      <c r="E88" s="6">
+        <v>127</v>
+      </c>
+      <c r="F88" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G88" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="H88" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J88" s="6">
+        <v>0.124</v>
+      </c>
+      <c r="K88" s="6">
+        <v>0.221</v>
+      </c>
+      <c r="L88" s="6">
+        <v>670</v>
+      </c>
+      <c r="M88" s="6">
+        <v>60.93</v>
+      </c>
+      <c r="N88" s="6">
+        <v>1040</v>
+      </c>
+      <c r="O88" s="6">
+        <v>39.36</v>
+      </c>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6">
+        <f>(C88*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A89" s="22"/>
+      <c r="B89" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1568</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1737</v>
+      </c>
+      <c r="F89" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G89" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I89" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J89" s="1">
+        <v>-1E-3</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L89" s="1">
+        <v>1587</v>
+      </c>
+      <c r="M89" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="N89" s="1">
+        <v>1712</v>
+      </c>
+      <c r="O89" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="P89" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="Q89" s="9">
+        <f>(C89*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A90" s="22"/>
+      <c r="B90" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1568</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1737</v>
+      </c>
+      <c r="F90" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I90" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J90" s="1">
+        <v>-1E-3</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L90" s="1">
+        <v>1587</v>
+      </c>
+      <c r="M90" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="N90" s="1">
+        <v>1712</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="P90" s="1">
+        <v>8.51</v>
+      </c>
+      <c r="Q90" s="9">
+        <f>(C90*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A91" s="22"/>
+      <c r="B91" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1568</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1737</v>
+      </c>
+      <c r="F91" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G91" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I91" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J91" s="1">
+        <v>-1E-3</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L91" s="1">
+        <v>1587</v>
+      </c>
+      <c r="M91" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="N91" s="1">
+        <v>1712</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="P91" s="1">
+        <v>9.26</v>
+      </c>
+      <c r="Q91" s="9">
+        <f>(C91*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A92" s="22"/>
+      <c r="B92" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1568</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1737</v>
+      </c>
+      <c r="F92" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G92" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I92" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J92" s="1">
+        <v>-1E-3</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L92" s="1">
+        <v>1587</v>
+      </c>
+      <c r="M92" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="N92" s="1">
+        <v>1712</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="P92" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="Q92" s="9">
+        <f>(C92*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A93" s="22"/>
+      <c r="B93" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1568</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1737</v>
+      </c>
+      <c r="F93" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I93" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J93" s="1">
+        <v>-1E-3</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L93" s="1">
+        <v>1587</v>
+      </c>
+      <c r="M93" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="N93" s="1">
+        <v>1712</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="P93" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="Q93" s="9">
+        <f>(C93*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A94" s="22"/>
+      <c r="B94" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1568</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1737</v>
+      </c>
+      <c r="F94" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I94" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J94" s="1">
+        <v>-1E-3</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L94" s="1">
+        <v>1587</v>
+      </c>
+      <c r="M94" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="N94" s="1">
+        <v>1712</v>
+      </c>
+      <c r="O94" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="P94" s="1">
+        <v>13.59</v>
+      </c>
+      <c r="Q94" s="9">
+        <f>(C94*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A95" s="22"/>
+      <c r="B95" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1570</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1737</v>
+      </c>
+      <c r="F95" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G95" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I95" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J95" s="1">
+        <v>-1E-3</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L95" s="1">
+        <v>1589</v>
+      </c>
+      <c r="M95" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="N95" s="1">
+        <v>1712</v>
+      </c>
+      <c r="O95" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="P95" s="1">
+        <v>13.69</v>
+      </c>
+      <c r="Q95" s="9">
+        <f>(C95*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A96" s="22"/>
+      <c r="B96" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1571</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1734</v>
+      </c>
+      <c r="F96" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I96" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L96" s="1">
+        <v>1586</v>
+      </c>
+      <c r="M96" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="N96" s="1">
+        <v>1709</v>
+      </c>
+      <c r="O96" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="P96" s="1">
+        <v>13.53</v>
+      </c>
+      <c r="Q96" s="9">
+        <f>(C96*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A97" s="22"/>
+      <c r="B97" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1643</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1733</v>
+      </c>
+      <c r="F97" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G97" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1640</v>
+      </c>
+      <c r="M97" s="1">
+        <v>4.37</v>
+      </c>
+      <c r="N97" s="1">
+        <v>1708</v>
+      </c>
+      <c r="O97" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="P97" s="1">
+        <v>27.32</v>
+      </c>
+      <c r="Q97" s="9">
+        <f>(C97*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A98" s="22"/>
+      <c r="B98" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1738</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1645</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1733</v>
+      </c>
+      <c r="F98" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G98" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I98" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J98" s="3">
+        <v>0</v>
+      </c>
+      <c r="K98" s="3">
+        <v>0.221</v>
+      </c>
+      <c r="L98" s="3">
+        <v>1641</v>
+      </c>
+      <c r="M98" s="3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="N98" s="3">
+        <v>1708</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="P98" s="3">
+        <v>27.27</v>
+      </c>
+      <c r="Q98" s="11">
+        <f>(C98*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A99" s="22"/>
+      <c r="B99" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D99" s="1">
+        <v>13</v>
+      </c>
+      <c r="E99" s="1">
+        <v>170</v>
+      </c>
+      <c r="F99" s="18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G99" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L99" s="1">
+        <v>701</v>
+      </c>
+      <c r="M99" s="1">
+        <v>59.13</v>
+      </c>
+      <c r="N99" s="1">
+        <v>1116</v>
+      </c>
+      <c r="O99" s="1">
+        <v>34.93</v>
+      </c>
+      <c r="P99" s="1">
+        <v>54.93</v>
+      </c>
+      <c r="Q99" s="9">
+        <f>(C99*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A100" s="22"/>
+      <c r="B100" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D100" s="1">
+        <v>13</v>
+      </c>
+      <c r="E100" s="1">
+        <v>170</v>
+      </c>
+      <c r="F100" s="18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G100" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0.188</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L100" s="1">
+        <v>701</v>
+      </c>
+      <c r="M100" s="1">
+        <v>59.13</v>
+      </c>
+      <c r="N100" s="1">
+        <v>1132</v>
+      </c>
+      <c r="O100" s="1">
+        <v>33.99</v>
+      </c>
+      <c r="P100" s="1">
+        <v>55.75</v>
+      </c>
+      <c r="Q100" s="9">
+        <f>(C100*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A101" s="22"/>
+      <c r="B101" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D101" s="1">
+        <v>13</v>
+      </c>
+      <c r="E101" s="1">
+        <v>170</v>
+      </c>
+      <c r="F101" s="18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G101" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0.158</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L101" s="1">
+        <v>701</v>
+      </c>
+      <c r="M101" s="1">
+        <v>59.13</v>
+      </c>
+      <c r="N101" s="1">
+        <v>1136</v>
+      </c>
+      <c r="O101" s="1">
+        <v>33.76</v>
+      </c>
+      <c r="P101" s="1">
+        <v>61.76</v>
+      </c>
+      <c r="Q101" s="9">
+        <f>(C101*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A102" s="22"/>
+      <c r="B102" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D102" s="1">
+        <v>13</v>
+      </c>
+      <c r="E102" s="1">
+        <v>170</v>
+      </c>
+      <c r="F102" s="18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G102" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0.158</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L102" s="1">
+        <v>701</v>
+      </c>
+      <c r="M102" s="1">
+        <v>59.13</v>
+      </c>
+      <c r="N102" s="1">
+        <v>1136</v>
+      </c>
+      <c r="O102" s="1">
+        <v>33.76</v>
+      </c>
+      <c r="P102" s="1">
+        <v>71.53</v>
+      </c>
+      <c r="Q102" s="9">
+        <f>(C102*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A103" s="22"/>
+      <c r="B103" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D103" s="1">
+        <v>13</v>
+      </c>
+      <c r="E103" s="1">
+        <v>170</v>
+      </c>
+      <c r="F103" s="18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G103" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0.161</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L103" s="1">
+        <v>701</v>
+      </c>
+      <c r="M103" s="1">
+        <v>59.13</v>
+      </c>
+      <c r="N103" s="1">
+        <v>1147</v>
+      </c>
+      <c r="O103" s="1">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="P103" s="1">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="Q103" s="9">
+        <f>(C103*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A104" s="22"/>
+      <c r="B104" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D104" s="1">
+        <v>13</v>
+      </c>
+      <c r="E104" s="1">
+        <v>170</v>
+      </c>
+      <c r="F104" s="18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G104" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0.161</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L104" s="1">
+        <v>701</v>
+      </c>
+      <c r="M104" s="1">
+        <v>59.13</v>
+      </c>
+      <c r="N104" s="1">
+        <v>1147</v>
+      </c>
+      <c r="O104" s="1">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="P104" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="Q104" s="9">
+        <f>(C104*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A105" s="22"/>
+      <c r="B105" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D105" s="1">
+        <v>13</v>
+      </c>
+      <c r="E105" s="1">
+        <v>166</v>
+      </c>
+      <c r="F105" s="18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G105" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L105" s="1">
+        <v>701</v>
+      </c>
+      <c r="M105" s="1">
+        <v>59.13</v>
+      </c>
+      <c r="N105" s="1">
+        <v>1266</v>
+      </c>
+      <c r="O105" s="1">
+        <v>26.18</v>
+      </c>
+      <c r="P105" s="1">
+        <v>79.89</v>
+      </c>
+      <c r="Q105" s="9">
+        <f>(C105*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A106" s="22"/>
+      <c r="B106" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D106" s="1">
+        <v>13</v>
+      </c>
+      <c r="E106" s="1">
+        <v>163</v>
+      </c>
+      <c r="F106" s="18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G106" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0.159</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L106" s="1">
+        <v>701</v>
+      </c>
+      <c r="M106" s="1">
+        <v>59.13</v>
+      </c>
+      <c r="N106" s="1">
+        <v>1151</v>
+      </c>
+      <c r="O106" s="1">
+        <v>32.89</v>
+      </c>
+      <c r="P106" s="1">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="Q106" s="9">
+        <f>(C106*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A107" s="22"/>
+      <c r="B107" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D107" s="1">
+        <v>15</v>
+      </c>
+      <c r="E107" s="1">
+        <v>90</v>
+      </c>
+      <c r="F107" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G107" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="L107" s="1">
+        <v>686</v>
+      </c>
+      <c r="M107" s="1">
+        <v>60</v>
+      </c>
+      <c r="N107" s="1">
+        <v>1297</v>
+      </c>
+      <c r="O107" s="1">
+        <v>24.37</v>
+      </c>
+      <c r="P107" s="1">
+        <v>96.29</v>
+      </c>
+      <c r="Q107" s="9">
+        <f>(C107*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="22"/>
+      <c r="B108" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" s="13">
+        <v>1738</v>
+      </c>
+      <c r="D108" s="13">
+        <v>15</v>
+      </c>
+      <c r="E108" s="13">
+        <v>88</v>
+      </c>
+      <c r="F108" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G108" s="13">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H108" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="I108" s="13">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J108" s="13">
+        <v>0.129</v>
+      </c>
+      <c r="K108" s="13">
+        <v>0.221</v>
+      </c>
+      <c r="L108" s="13">
+        <v>686</v>
+      </c>
+      <c r="M108" s="13">
+        <v>60</v>
+      </c>
+      <c r="N108" s="13">
+        <v>1166</v>
+      </c>
+      <c r="O108" s="13">
+        <v>32.01</v>
+      </c>
+      <c r="P108" s="13">
+        <v>96.31</v>
+      </c>
+      <c r="Q108" s="14">
+        <f>(C108*100)/C88</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A46:A66"/>
+    <mergeCell ref="A67:A87"/>
+    <mergeCell ref="A88:A108"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="A25:A45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6006a9c5-d130-408c-bc8e-3b5ecdb17aa0}" enabled="1" method="Standard" siteId="{8d4b558f-7b2e-40ba-ad1f-e04d79e6265a}" contentBits="2" removed="0"/>

--- a/results/results_2024.xlsx
+++ b/results/results_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\PhdProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124620A2-DC3E-489B-94DF-E94CB0D28E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5F1CB0-9AEE-45E8-B326-B4FA015A9110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old results 2023" sheetId="32" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name=" same matrix - unidirect LD" sheetId="35" r:id="rId3"/>
     <sheet name=" same matrix - LD value div 2" sheetId="36" r:id="rId4"/>
     <sheet name="MST and Louvain" sheetId="37" r:id="rId5"/>
+    <sheet name="Louvain orig matrix" sheetId="39" r:id="rId6"/>
+    <sheet name="Projects" sheetId="38" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,8 +114,27 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DC63439E-7B1B-4FAE-AA45-976C99AEE201}</author>
+  </authors>
+  <commentList>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{DC63439E-7B1B-4FAE-AA45-976C99AEE201}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Based on csv input
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="152">
   <si>
     <t>Ant</t>
   </si>
@@ -519,12 +540,72 @@
   <si>
     <t>MST MojoFM</t>
   </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>GitHub Repository link</t>
+  </si>
+  <si>
+    <t>Number of commits</t>
+  </si>
+  <si>
+    <t>Release Tag</t>
+  </si>
+  <si>
+    <t>rel/1.10.13</t>
+  </si>
+  <si>
+    <t>Apache Ant</t>
+  </si>
+  <si>
+    <t>Apache Ant is a Java-based build tool.</t>
+  </si>
+  <si>
+    <t>Repository Description</t>
+  </si>
+  <si>
+    <t>8.5.93</t>
+  </si>
+  <si>
+    <t>https://github.com/apache/tomcat</t>
+  </si>
+  <si>
+    <t>https://github.com/apache/ant</t>
+  </si>
+  <si>
+    <t>Apache Tomcat</t>
+  </si>
+  <si>
+    <t>Apache Tomcat software powers numerous large-scale, mission-critical web applications across a diverse range of industries and organizations. </t>
+  </si>
+  <si>
+    <t>6.2.14</t>
+  </si>
+  <si>
+    <t>Hibernate ORM</t>
+  </si>
+  <si>
+    <t>https://github.com/hibernate/hibernate-orm</t>
+  </si>
+  <si>
+    <t>Hibernate ORM is a powerful object/relational mapping solution for Java</t>
+  </si>
+  <si>
+    <t>gson-parent-2.10.1</t>
+  </si>
+  <si>
+    <t>A Java serialization/deserialization library to convert Java Objects into JSON and back</t>
+  </si>
+  <si>
+    <t>https://github.com/google/gson</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +627,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -728,10 +823,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,6 +855,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,7 +896,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1112,6 +1216,15 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K10" dT="2024-02-05T10:23:26.22" personId="{56EAA74D-F7BE-4305-878E-111E09878DF4}" id="{DC63439E-7B1B-4FAE-AA45-976C99AEE201}">
+    <text xml:space="preserve">Based on csv input
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76C50CD-59B4-4BA2-8891-9F18F3F8F3AC}">
   <dimension ref="A1:L108"/>
@@ -1126,25 +1239,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="27"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="26"/>
+      <c r="H2" s="29"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -1180,7 +1293,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1217,7 +1330,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1254,7 +1367,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1404,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1441,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1365,7 +1478,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -1402,7 +1515,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1439,7 +1552,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1476,7 +1589,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -1513,7 +1626,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
@@ -1550,7 +1663,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
@@ -1587,7 +1700,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
@@ -1624,7 +1737,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1774,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
@@ -1698,7 +1811,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
@@ -1735,7 +1848,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
@@ -1772,7 +1885,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
@@ -1809,7 +1922,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
@@ -1846,7 +1959,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1883,7 +1996,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
@@ -1920,7 +2033,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
@@ -1957,7 +2070,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1994,7 +2107,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="29"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
@@ -2031,7 +2144,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
@@ -2068,7 +2181,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="29"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
@@ -2105,7 +2218,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="29"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -2142,7 +2255,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
@@ -2179,7 +2292,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="8" t="s">
         <v>31</v>
       </c>
@@ -2216,7 +2329,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
@@ -2253,7 +2366,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="29"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
@@ -2290,7 +2403,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="29"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
@@ -2327,7 +2440,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="29"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
@@ -2364,7 +2477,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="29"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
@@ -2401,7 +2514,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="29"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="8" t="s">
         <v>37</v>
       </c>
@@ -2438,7 +2551,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="29"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="8" t="s">
         <v>38</v>
       </c>
@@ -2475,7 +2588,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="29"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
@@ -2512,7 +2625,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="29"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
@@ -2549,7 +2662,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="29"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
@@ -2586,7 +2699,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="29"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
@@ -2623,7 +2736,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="29"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
@@ -2660,7 +2773,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="29"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="8" t="s">
         <v>44</v>
       </c>
@@ -2697,7 +2810,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="29"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="12" t="s">
         <v>45</v>
       </c>
@@ -2734,7 +2847,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -2771,7 +2884,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="22"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="8" t="s">
         <v>52</v>
       </c>
@@ -2808,7 +2921,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="22"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="8" t="s">
         <v>53</v>
       </c>
@@ -2845,7 +2958,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="22"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="8" t="s">
         <v>54</v>
       </c>
@@ -2882,7 +2995,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="22"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="8" t="s">
         <v>55</v>
       </c>
@@ -2919,7 +3032,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="8" t="s">
         <v>56</v>
       </c>
@@ -2956,7 +3069,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="8" t="s">
         <v>47</v>
       </c>
@@ -2993,7 +3106,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
         <v>48</v>
       </c>
@@ -3030,7 +3143,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="22"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="8" t="s">
         <v>49</v>
       </c>
@@ -3067,7 +3180,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="22"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="8" t="s">
         <v>50</v>
       </c>
@@ -3104,7 +3217,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="22"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
@@ -3141,7 +3254,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="22"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="8" t="s">
         <v>57</v>
       </c>
@@ -3178,7 +3291,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="22"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="8" t="s">
         <v>58</v>
       </c>
@@ -3215,7 +3328,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="22"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="8" t="s">
         <v>59</v>
       </c>
@@ -3252,7 +3365,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="22"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="8" t="s">
         <v>60</v>
       </c>
@@ -3289,7 +3402,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="22"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="8" t="s">
         <v>61</v>
       </c>
@@ -3326,7 +3439,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="22"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="8" t="s">
         <v>62</v>
       </c>
@@ -3363,7 +3476,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="22"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="8" t="s">
         <v>63</v>
       </c>
@@ -3400,7 +3513,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="22"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="8" t="s">
         <v>64</v>
       </c>
@@ -3437,7 +3550,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="22"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="8" t="s">
         <v>65</v>
       </c>
@@ -3474,7 +3587,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="22"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="12" t="s">
         <v>66</v>
       </c>
@@ -3511,7 +3624,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="24" t="s">
         <v>97</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -3548,7 +3661,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="22"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="8" t="s">
         <v>76</v>
       </c>
@@ -3585,7 +3698,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="22"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="8" t="s">
         <v>77</v>
       </c>
@@ -3622,7 +3735,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="22"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="8" t="s">
         <v>78</v>
       </c>
@@ -3659,7 +3772,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="22"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="8" t="s">
         <v>79</v>
       </c>
@@ -3696,7 +3809,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="22"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="8" t="s">
         <v>80</v>
       </c>
@@ -3733,7 +3846,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="22"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="8" t="s">
         <v>81</v>
       </c>
@@ -3770,7 +3883,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="22"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="8" t="s">
         <v>82</v>
       </c>
@@ -3807,7 +3920,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="22"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="8" t="s">
         <v>83</v>
       </c>
@@ -3844,7 +3957,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="22"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="8" t="s">
         <v>84</v>
       </c>
@@ -3881,7 +3994,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="22"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -3918,7 +4031,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="22"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="8" t="s">
         <v>86</v>
       </c>
@@ -3955,7 +4068,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="22"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="8" t="s">
         <v>87</v>
       </c>
@@ -3992,7 +4105,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="22"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="8" t="s">
         <v>88</v>
       </c>
@@ -4029,7 +4142,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="22"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="8" t="s">
         <v>89</v>
       </c>
@@ -4066,7 +4179,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="22"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="8" t="s">
         <v>90</v>
       </c>
@@ -4103,7 +4216,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="22"/>
+      <c r="A83" s="25"/>
       <c r="B83" s="8" t="s">
         <v>91</v>
       </c>
@@ -4140,7 +4253,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="22"/>
+      <c r="A84" s="25"/>
       <c r="B84" s="8" t="s">
         <v>92</v>
       </c>
@@ -4177,7 +4290,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="22"/>
+      <c r="A85" s="25"/>
       <c r="B85" s="8" t="s">
         <v>93</v>
       </c>
@@ -4214,7 +4327,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="22"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="8" t="s">
         <v>94</v>
       </c>
@@ -4251,7 +4364,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="22"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="12" t="s">
         <v>95</v>
       </c>
@@ -4288,7 +4401,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="24" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -4325,7 +4438,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="22"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="8" t="s">
         <v>100</v>
       </c>
@@ -4362,7 +4475,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="22"/>
+      <c r="A90" s="25"/>
       <c r="B90" s="8" t="s">
         <v>101</v>
       </c>
@@ -4399,7 +4512,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" s="22"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="8" t="s">
         <v>102</v>
       </c>
@@ -4436,7 +4549,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="22"/>
+      <c r="A92" s="25"/>
       <c r="B92" s="8" t="s">
         <v>103</v>
       </c>
@@ -4473,7 +4586,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="22"/>
+      <c r="A93" s="25"/>
       <c r="B93" s="8" t="s">
         <v>104</v>
       </c>
@@ -4510,7 +4623,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="22"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="8" t="s">
         <v>105</v>
       </c>
@@ -4547,7 +4660,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="22"/>
+      <c r="A95" s="25"/>
       <c r="B95" s="8" t="s">
         <v>106</v>
       </c>
@@ -4584,7 +4697,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="22"/>
+      <c r="A96" s="25"/>
       <c r="B96" s="8" t="s">
         <v>107</v>
       </c>
@@ -4621,7 +4734,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="22"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="8" t="s">
         <v>108</v>
       </c>
@@ -4658,7 +4771,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="22"/>
+      <c r="A98" s="25"/>
       <c r="B98" s="10" t="s">
         <v>109</v>
       </c>
@@ -4695,7 +4808,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="22"/>
+      <c r="A99" s="25"/>
       <c r="B99" s="8" t="s">
         <v>110</v>
       </c>
@@ -4732,7 +4845,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="22"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="8" t="s">
         <v>111</v>
       </c>
@@ -4769,7 +4882,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="22"/>
+      <c r="A101" s="25"/>
       <c r="B101" s="8" t="s">
         <v>112</v>
       </c>
@@ -4806,7 +4919,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="22"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="8" t="s">
         <v>113</v>
       </c>
@@ -4843,7 +4956,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A103" s="22"/>
+      <c r="A103" s="25"/>
       <c r="B103" s="8" t="s">
         <v>114</v>
       </c>
@@ -4880,7 +4993,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A104" s="22"/>
+      <c r="A104" s="25"/>
       <c r="B104" s="8" t="s">
         <v>115</v>
       </c>
@@ -4917,7 +5030,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="22"/>
+      <c r="A105" s="25"/>
       <c r="B105" s="8" t="s">
         <v>116</v>
       </c>
@@ -4954,7 +5067,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" s="22"/>
+      <c r="A106" s="25"/>
       <c r="B106" s="8" t="s">
         <v>117</v>
       </c>
@@ -4991,7 +5104,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="22"/>
+      <c r="A107" s="25"/>
       <c r="B107" s="8" t="s">
         <v>118</v>
       </c>
@@ -5028,7 +5141,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="22"/>
+      <c r="A108" s="25"/>
       <c r="B108" s="12" t="s">
         <v>119</v>
       </c>
@@ -5094,63 +5207,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="H5" s="27"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="29"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5299,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -5223,7 +5336,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -5260,7 +5373,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
@@ -5297,7 +5410,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
@@ -5334,7 +5447,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -5371,7 +5484,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -5408,7 +5521,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -5445,7 +5558,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
@@ -5482,7 +5595,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
@@ -5519,7 +5632,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
@@ -5556,7 +5669,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
@@ -5593,7 +5706,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
@@ -5630,7 +5743,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -5667,7 +5780,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -5704,7 +5817,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
@@ -5741,7 +5854,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
@@ -5778,7 +5891,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="27"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="8" t="s">
         <v>21</v>
       </c>
@@ -5815,7 +5928,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
@@ -5852,7 +5965,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="27"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
@@ -5889,7 +6002,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
@@ -5926,7 +6039,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="27"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
@@ -5963,7 +6076,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -6000,7 +6113,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
@@ -6037,7 +6150,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="8" t="s">
         <v>27</v>
       </c>
@@ -6074,7 +6187,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
@@ -6111,7 +6224,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="29"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="8" t="s">
         <v>29</v>
       </c>
@@ -6148,7 +6261,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="29"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="8" t="s">
         <v>30</v>
       </c>
@@ -6185,7 +6298,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="29"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="8" t="s">
         <v>31</v>
       </c>
@@ -6222,7 +6335,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="29"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -6259,7 +6372,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="29"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="8" t="s">
         <v>33</v>
       </c>
@@ -6296,7 +6409,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="29"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="8" t="s">
         <v>34</v>
       </c>
@@ -6333,7 +6446,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="29"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="10" t="s">
         <v>35</v>
       </c>
@@ -6370,7 +6483,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="29"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="8" t="s">
         <v>36</v>
       </c>
@@ -6407,7 +6520,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="29"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="8" t="s">
         <v>37</v>
       </c>
@@ -6444,7 +6557,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="29"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
@@ -6481,7 +6594,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="29"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="8" t="s">
         <v>39</v>
       </c>
@@ -6518,7 +6631,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="29"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="8" t="s">
         <v>40</v>
       </c>
@@ -6555,7 +6668,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="29"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="8" t="s">
         <v>41</v>
       </c>
@@ -6592,7 +6705,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="29"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="8" t="s">
         <v>42</v>
       </c>
@@ -6629,7 +6742,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="29"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="8" t="s">
         <v>43</v>
       </c>
@@ -6666,7 +6779,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="29"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="8" t="s">
         <v>44</v>
       </c>
@@ -6703,7 +6816,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="29"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="12" t="s">
         <v>45</v>
       </c>
@@ -6740,7 +6853,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -6777,7 +6890,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="8" t="s">
         <v>52</v>
       </c>
@@ -6814,7 +6927,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="8" t="s">
         <v>53</v>
       </c>
@@ -6851,7 +6964,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
         <v>54</v>
       </c>
@@ -6888,7 +7001,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="22"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="8" t="s">
         <v>55</v>
       </c>
@@ -6925,7 +7038,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="22"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="8" t="s">
         <v>56</v>
       </c>
@@ -6962,7 +7075,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="22"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
@@ -6999,7 +7112,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="22"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="8" t="s">
         <v>48</v>
       </c>
@@ -7036,7 +7149,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="22"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="8" t="s">
         <v>49</v>
       </c>
@@ -7073,7 +7186,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="22"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="8" t="s">
         <v>50</v>
       </c>
@@ -7110,7 +7223,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="22"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -7147,7 +7260,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="22"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="8" t="s">
         <v>57</v>
       </c>
@@ -7184,7 +7297,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="22"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="8" t="s">
         <v>58</v>
       </c>
@@ -7221,7 +7334,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="22"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="8" t="s">
         <v>59</v>
       </c>
@@ -7258,7 +7371,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="22"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="8" t="s">
         <v>60</v>
       </c>
@@ -7295,7 +7408,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="22"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="8" t="s">
         <v>61</v>
       </c>
@@ -7332,7 +7445,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="22"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="8" t="s">
         <v>62</v>
       </c>
@@ -7369,7 +7482,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="22"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="8" t="s">
         <v>63</v>
       </c>
@@ -7406,7 +7519,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="22"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="8" t="s">
         <v>64</v>
       </c>
@@ -7443,7 +7556,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="22"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="8" t="s">
         <v>65</v>
       </c>
@@ -7480,7 +7593,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="22"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
@@ -7517,7 +7630,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="24" t="s">
         <v>97</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -7554,7 +7667,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="22"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="8" t="s">
         <v>76</v>
       </c>
@@ -7591,7 +7704,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="22"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="8" t="s">
         <v>77</v>
       </c>
@@ -7628,7 +7741,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="22"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="8" t="s">
         <v>78</v>
       </c>
@@ -7665,7 +7778,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="22"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="8" t="s">
         <v>79</v>
       </c>
@@ -7702,7 +7815,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="22"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="8" t="s">
         <v>80</v>
       </c>
@@ -7739,7 +7852,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="22"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="8" t="s">
         <v>81</v>
       </c>
@@ -7776,7 +7889,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="22"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="8" t="s">
         <v>82</v>
       </c>
@@ -7813,7 +7926,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="22"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="8" t="s">
         <v>83</v>
       </c>
@@ -7850,7 +7963,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="22"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="8" t="s">
         <v>84</v>
       </c>
@@ -7887,7 +8000,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="22"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="10" t="s">
         <v>85</v>
       </c>
@@ -7924,7 +8037,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="22"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="8" t="s">
         <v>86</v>
       </c>
@@ -7961,7 +8074,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="22"/>
+      <c r="A83" s="25"/>
       <c r="B83" s="8" t="s">
         <v>87</v>
       </c>
@@ -7998,7 +8111,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="22"/>
+      <c r="A84" s="25"/>
       <c r="B84" s="8" t="s">
         <v>88</v>
       </c>
@@ -8035,7 +8148,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="22"/>
+      <c r="A85" s="25"/>
       <c r="B85" s="8" t="s">
         <v>89</v>
       </c>
@@ -8072,7 +8185,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="22"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="8" t="s">
         <v>90</v>
       </c>
@@ -8109,7 +8222,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="22"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="8" t="s">
         <v>91</v>
       </c>
@@ -8146,7 +8259,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="22"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="8" t="s">
         <v>92</v>
       </c>
@@ -8183,7 +8296,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="22"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="8" t="s">
         <v>93</v>
       </c>
@@ -8220,7 +8333,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="22"/>
+      <c r="A90" s="25"/>
       <c r="B90" s="8" t="s">
         <v>94</v>
       </c>
@@ -8257,7 +8370,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="22"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="12" t="s">
         <v>95</v>
       </c>
@@ -8294,7 +8407,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="24" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -8331,7 +8444,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="22"/>
+      <c r="A93" s="25"/>
       <c r="B93" s="8" t="s">
         <v>100</v>
       </c>
@@ -8368,7 +8481,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="22"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="8" t="s">
         <v>101</v>
       </c>
@@ -8405,7 +8518,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="22"/>
+      <c r="A95" s="25"/>
       <c r="B95" s="8" t="s">
         <v>102</v>
       </c>
@@ -8442,7 +8555,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="22"/>
+      <c r="A96" s="25"/>
       <c r="B96" s="8" t="s">
         <v>103</v>
       </c>
@@ -8479,7 +8592,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="22"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="8" t="s">
         <v>104</v>
       </c>
@@ -8516,7 +8629,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="22"/>
+      <c r="A98" s="25"/>
       <c r="B98" s="8" t="s">
         <v>105</v>
       </c>
@@ -8553,7 +8666,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="22"/>
+      <c r="A99" s="25"/>
       <c r="B99" s="8" t="s">
         <v>106</v>
       </c>
@@ -8590,7 +8703,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="22"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="8" t="s">
         <v>107</v>
       </c>
@@ -8627,7 +8740,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="22"/>
+      <c r="A101" s="25"/>
       <c r="B101" s="8" t="s">
         <v>108</v>
       </c>
@@ -8664,7 +8777,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="22"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="10" t="s">
         <v>109</v>
       </c>
@@ -8701,7 +8814,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A103" s="22"/>
+      <c r="A103" s="25"/>
       <c r="B103" s="8" t="s">
         <v>110</v>
       </c>
@@ -8738,7 +8851,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A104" s="22"/>
+      <c r="A104" s="25"/>
       <c r="B104" s="8" t="s">
         <v>111</v>
       </c>
@@ -8775,7 +8888,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="22"/>
+      <c r="A105" s="25"/>
       <c r="B105" s="8" t="s">
         <v>112</v>
       </c>
@@ -8812,7 +8925,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" s="22"/>
+      <c r="A106" s="25"/>
       <c r="B106" s="8" t="s">
         <v>113</v>
       </c>
@@ -8849,7 +8962,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="22"/>
+      <c r="A107" s="25"/>
       <c r="B107" s="8" t="s">
         <v>114</v>
       </c>
@@ -8886,7 +8999,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A108" s="22"/>
+      <c r="A108" s="25"/>
       <c r="B108" s="8" t="s">
         <v>115</v>
       </c>
@@ -8923,7 +9036,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A109" s="22"/>
+      <c r="A109" s="25"/>
       <c r="B109" s="8" t="s">
         <v>116</v>
       </c>
@@ -8960,7 +9073,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A110" s="22"/>
+      <c r="A110" s="25"/>
       <c r="B110" s="8" t="s">
         <v>117</v>
       </c>
@@ -8997,7 +9110,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" s="22"/>
+      <c r="A111" s="25"/>
       <c r="B111" s="8" t="s">
         <v>118</v>
       </c>
@@ -9034,7 +9147,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="22"/>
+      <c r="A112" s="25"/>
       <c r="B112" s="12" t="s">
         <v>119</v>
       </c>
@@ -9103,63 +9216,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="H5" s="27"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="29"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -9195,7 +9308,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -9232,7 +9345,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -9269,7 +9382,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
@@ -9306,7 +9419,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
@@ -9343,7 +9456,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -9380,7 +9493,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -9417,7 +9530,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -9454,7 +9567,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
@@ -9491,7 +9604,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
@@ -9528,7 +9641,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
@@ -9565,7 +9678,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
@@ -9602,7 +9715,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
@@ -9639,7 +9752,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -9676,7 +9789,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -9713,7 +9826,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
@@ -9750,7 +9863,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
@@ -9787,7 +9900,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="27"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="8" t="s">
         <v>21</v>
       </c>
@@ -9824,7 +9937,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
@@ -9861,7 +9974,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="27"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
@@ -9898,7 +10011,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
@@ -9935,7 +10048,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="27"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
@@ -9972,7 +10085,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -10009,7 +10122,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
@@ -10046,7 +10159,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="8" t="s">
         <v>27</v>
       </c>
@@ -10083,7 +10196,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
@@ -10120,7 +10233,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="29"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="8" t="s">
         <v>29</v>
       </c>
@@ -10157,7 +10270,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="29"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="8" t="s">
         <v>30</v>
       </c>
@@ -10194,7 +10307,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="29"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="8" t="s">
         <v>31</v>
       </c>
@@ -10231,7 +10344,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="29"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -10268,7 +10381,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="29"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="8" t="s">
         <v>33</v>
       </c>
@@ -10305,7 +10418,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="29"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="8" t="s">
         <v>34</v>
       </c>
@@ -10342,7 +10455,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="29"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="10" t="s">
         <v>35</v>
       </c>
@@ -10379,7 +10492,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="29"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="8" t="s">
         <v>36</v>
       </c>
@@ -10416,7 +10529,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="29"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="8" t="s">
         <v>37</v>
       </c>
@@ -10453,7 +10566,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="29"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
@@ -10490,7 +10603,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="29"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="8" t="s">
         <v>39</v>
       </c>
@@ -10527,7 +10640,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="29"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="8" t="s">
         <v>40</v>
       </c>
@@ -10564,7 +10677,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="29"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="8" t="s">
         <v>41</v>
       </c>
@@ -10601,7 +10714,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="29"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="8" t="s">
         <v>42</v>
       </c>
@@ -10638,7 +10751,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="29"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="8" t="s">
         <v>43</v>
       </c>
@@ -10675,7 +10788,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="29"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="8" t="s">
         <v>44</v>
       </c>
@@ -10712,7 +10825,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="29"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="12" t="s">
         <v>45</v>
       </c>
@@ -10749,7 +10862,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -10786,7 +10899,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="8" t="s">
         <v>52</v>
       </c>
@@ -10823,7 +10936,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="8" t="s">
         <v>53</v>
       </c>
@@ -10860,7 +10973,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
         <v>54</v>
       </c>
@@ -10897,7 +11010,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="22"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="8" t="s">
         <v>55</v>
       </c>
@@ -10934,7 +11047,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="22"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="8" t="s">
         <v>56</v>
       </c>
@@ -10971,7 +11084,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="22"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
@@ -11008,7 +11121,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="22"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="8" t="s">
         <v>48</v>
       </c>
@@ -11045,7 +11158,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="22"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="8" t="s">
         <v>49</v>
       </c>
@@ -11082,7 +11195,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="22"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="8" t="s">
         <v>50</v>
       </c>
@@ -11119,7 +11232,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="22"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -11156,7 +11269,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="22"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="8" t="s">
         <v>57</v>
       </c>
@@ -11193,7 +11306,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="22"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="8" t="s">
         <v>58</v>
       </c>
@@ -11230,7 +11343,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="22"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="8" t="s">
         <v>59</v>
       </c>
@@ -11267,7 +11380,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="22"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="8" t="s">
         <v>60</v>
       </c>
@@ -11304,7 +11417,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="22"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="8" t="s">
         <v>61</v>
       </c>
@@ -11341,7 +11454,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="22"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="8" t="s">
         <v>62</v>
       </c>
@@ -11378,7 +11491,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="22"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="8" t="s">
         <v>63</v>
       </c>
@@ -11415,7 +11528,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="22"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="8" t="s">
         <v>64</v>
       </c>
@@ -11452,7 +11565,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="22"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="8" t="s">
         <v>65</v>
       </c>
@@ -11489,7 +11602,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="22"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
@@ -11526,7 +11639,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="24" t="s">
         <v>97</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -11563,7 +11676,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="22"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="8" t="s">
         <v>76</v>
       </c>
@@ -11600,7 +11713,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="22"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="8" t="s">
         <v>77</v>
       </c>
@@ -11637,7 +11750,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="22"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="8" t="s">
         <v>78</v>
       </c>
@@ -11674,7 +11787,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="22"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="8" t="s">
         <v>79</v>
       </c>
@@ -11711,7 +11824,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="22"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="8" t="s">
         <v>80</v>
       </c>
@@ -11748,7 +11861,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="22"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="8" t="s">
         <v>81</v>
       </c>
@@ -11785,7 +11898,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="22"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="8" t="s">
         <v>82</v>
       </c>
@@ -11822,7 +11935,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="22"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="8" t="s">
         <v>83</v>
       </c>
@@ -11859,7 +11972,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="22"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="8" t="s">
         <v>84</v>
       </c>
@@ -11896,7 +12009,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="22"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="10" t="s">
         <v>85</v>
       </c>
@@ -11933,7 +12046,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="22"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="8" t="s">
         <v>86</v>
       </c>
@@ -11970,7 +12083,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="22"/>
+      <c r="A83" s="25"/>
       <c r="B83" s="8" t="s">
         <v>87</v>
       </c>
@@ -12007,7 +12120,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="22"/>
+      <c r="A84" s="25"/>
       <c r="B84" s="8" t="s">
         <v>88</v>
       </c>
@@ -12044,7 +12157,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="22"/>
+      <c r="A85" s="25"/>
       <c r="B85" s="8" t="s">
         <v>89</v>
       </c>
@@ -12081,7 +12194,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="22"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="8" t="s">
         <v>90</v>
       </c>
@@ -12118,7 +12231,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="22"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="8" t="s">
         <v>91</v>
       </c>
@@ -12155,7 +12268,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="22"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="8" t="s">
         <v>92</v>
       </c>
@@ -12192,7 +12305,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="22"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="8" t="s">
         <v>93</v>
       </c>
@@ -12229,7 +12342,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="22"/>
+      <c r="A90" s="25"/>
       <c r="B90" s="8" t="s">
         <v>94</v>
       </c>
@@ -12266,7 +12379,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="22"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="12" t="s">
         <v>95</v>
       </c>
@@ -12303,7 +12416,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="24" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -12340,7 +12453,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="22"/>
+      <c r="A93" s="25"/>
       <c r="B93" s="8" t="s">
         <v>100</v>
       </c>
@@ -12377,7 +12490,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="22"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="8" t="s">
         <v>101</v>
       </c>
@@ -12414,7 +12527,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="22"/>
+      <c r="A95" s="25"/>
       <c r="B95" s="8" t="s">
         <v>102</v>
       </c>
@@ -12451,7 +12564,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="22"/>
+      <c r="A96" s="25"/>
       <c r="B96" s="8" t="s">
         <v>103</v>
       </c>
@@ -12488,7 +12601,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="22"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="8" t="s">
         <v>104</v>
       </c>
@@ -12525,7 +12638,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="22"/>
+      <c r="A98" s="25"/>
       <c r="B98" s="8" t="s">
         <v>105</v>
       </c>
@@ -12562,7 +12675,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="22"/>
+      <c r="A99" s="25"/>
       <c r="B99" s="8" t="s">
         <v>106</v>
       </c>
@@ -12599,7 +12712,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="22"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="8" t="s">
         <v>107</v>
       </c>
@@ -12636,7 +12749,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="22"/>
+      <c r="A101" s="25"/>
       <c r="B101" s="8" t="s">
         <v>108</v>
       </c>
@@ -12673,7 +12786,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="22"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="10" t="s">
         <v>109</v>
       </c>
@@ -12710,7 +12823,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A103" s="22"/>
+      <c r="A103" s="25"/>
       <c r="B103" s="8" t="s">
         <v>110</v>
       </c>
@@ -12747,7 +12860,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A104" s="22"/>
+      <c r="A104" s="25"/>
       <c r="B104" s="8" t="s">
         <v>111</v>
       </c>
@@ -12784,7 +12897,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="22"/>
+      <c r="A105" s="25"/>
       <c r="B105" s="8" t="s">
         <v>112</v>
       </c>
@@ -12821,7 +12934,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" s="22"/>
+      <c r="A106" s="25"/>
       <c r="B106" s="8" t="s">
         <v>113</v>
       </c>
@@ -12858,7 +12971,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="22"/>
+      <c r="A107" s="25"/>
       <c r="B107" s="8" t="s">
         <v>114</v>
       </c>
@@ -12895,7 +13008,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A108" s="22"/>
+      <c r="A108" s="25"/>
       <c r="B108" s="8" t="s">
         <v>115</v>
       </c>
@@ -12932,7 +13045,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A109" s="22"/>
+      <c r="A109" s="25"/>
       <c r="B109" s="8" t="s">
         <v>116</v>
       </c>
@@ -12969,7 +13082,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A110" s="22"/>
+      <c r="A110" s="25"/>
       <c r="B110" s="8" t="s">
         <v>117</v>
       </c>
@@ -13006,7 +13119,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" s="22"/>
+      <c r="A111" s="25"/>
       <c r="B111" s="8" t="s">
         <v>118</v>
       </c>
@@ -13043,7 +13156,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="22"/>
+      <c r="A112" s="25"/>
       <c r="B112" s="12" t="s">
         <v>119</v>
       </c>
@@ -13101,7 +13214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD235BD-FDF0-4D15-9740-2885F6075B83}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J111" sqref="A5:L112"/>
     </sheetView>
   </sheetViews>
@@ -13111,63 +13224,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="H5" s="27"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="29"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -13203,7 +13316,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -13240,7 +13353,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -13277,7 +13390,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
@@ -13314,7 +13427,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
@@ -13351,7 +13464,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -13388,7 +13501,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
@@ -13425,7 +13538,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -13462,7 +13575,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
@@ -13499,7 +13612,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
@@ -13536,7 +13649,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
@@ -13573,7 +13686,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
@@ -13610,7 +13723,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
@@ -13647,7 +13760,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
@@ -13684,7 +13797,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -13721,7 +13834,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
@@ -13758,7 +13871,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
@@ -13795,7 +13908,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="27"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="8" t="s">
         <v>21</v>
       </c>
@@ -13832,7 +13945,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
@@ -13869,7 +13982,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="27"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
@@ -13906,7 +14019,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="8" t="s">
         <v>24</v>
       </c>
@@ -13943,7 +14056,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="27"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
@@ -13980,7 +14093,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -14017,7 +14130,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
@@ -14054,7 +14167,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="8" t="s">
         <v>27</v>
       </c>
@@ -14091,7 +14204,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
@@ -14128,7 +14241,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="29"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="8" t="s">
         <v>29</v>
       </c>
@@ -14165,7 +14278,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="29"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="8" t="s">
         <v>30</v>
       </c>
@@ -14202,7 +14315,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="29"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="8" t="s">
         <v>31</v>
       </c>
@@ -14239,7 +14352,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="29"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -14276,7 +14389,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="29"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="8" t="s">
         <v>33</v>
       </c>
@@ -14313,7 +14426,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="29"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="8" t="s">
         <v>34</v>
       </c>
@@ -14350,7 +14463,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="29"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="10" t="s">
         <v>35</v>
       </c>
@@ -14387,7 +14500,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="29"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="8" t="s">
         <v>36</v>
       </c>
@@ -14424,7 +14537,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="29"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="8" t="s">
         <v>37</v>
       </c>
@@ -14461,7 +14574,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="29"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="8" t="s">
         <v>38</v>
       </c>
@@ -14498,7 +14611,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="29"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="8" t="s">
         <v>39</v>
       </c>
@@ -14535,7 +14648,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="29"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="8" t="s">
         <v>40</v>
       </c>
@@ -14572,7 +14685,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="29"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="8" t="s">
         <v>41</v>
       </c>
@@ -14609,7 +14722,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="29"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="8" t="s">
         <v>42</v>
       </c>
@@ -14646,7 +14759,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="29"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="8" t="s">
         <v>43</v>
       </c>
@@ -14683,7 +14796,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="29"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="8" t="s">
         <v>44</v>
       </c>
@@ -14720,7 +14833,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="29"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="12" t="s">
         <v>45</v>
       </c>
@@ -14757,7 +14870,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -14794,7 +14907,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="8" t="s">
         <v>52</v>
       </c>
@@ -14831,7 +14944,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="8" t="s">
         <v>53</v>
       </c>
@@ -14868,7 +14981,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
         <v>54</v>
       </c>
@@ -14905,7 +15018,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="22"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="8" t="s">
         <v>55</v>
       </c>
@@ -14942,7 +15055,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="22"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="8" t="s">
         <v>56</v>
       </c>
@@ -14979,7 +15092,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="22"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
@@ -15016,7 +15129,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="22"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="8" t="s">
         <v>48</v>
       </c>
@@ -15053,7 +15166,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="22"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="8" t="s">
         <v>49</v>
       </c>
@@ -15090,7 +15203,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="22"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="8" t="s">
         <v>50</v>
       </c>
@@ -15127,7 +15240,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="22"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -15164,7 +15277,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="22"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="8" t="s">
         <v>57</v>
       </c>
@@ -15201,7 +15314,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="22"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="8" t="s">
         <v>58</v>
       </c>
@@ -15238,7 +15351,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="22"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="8" t="s">
         <v>59</v>
       </c>
@@ -15275,7 +15388,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="22"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="8" t="s">
         <v>60</v>
       </c>
@@ -15312,7 +15425,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="22"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="8" t="s">
         <v>61</v>
       </c>
@@ -15349,7 +15462,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="22"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="8" t="s">
         <v>62</v>
       </c>
@@ -15386,7 +15499,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="22"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="8" t="s">
         <v>63</v>
       </c>
@@ -15423,7 +15536,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="22"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="8" t="s">
         <v>64</v>
       </c>
@@ -15460,7 +15573,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="22"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="8" t="s">
         <v>65</v>
       </c>
@@ -15497,7 +15610,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="22"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
@@ -15534,7 +15647,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="24" t="s">
         <v>97</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -15571,7 +15684,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="22"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="8" t="s">
         <v>76</v>
       </c>
@@ -15608,7 +15721,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="22"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="8" t="s">
         <v>77</v>
       </c>
@@ -15645,7 +15758,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="22"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="8" t="s">
         <v>78</v>
       </c>
@@ -15682,7 +15795,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="22"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="8" t="s">
         <v>79</v>
       </c>
@@ -15719,7 +15832,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="22"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="8" t="s">
         <v>80</v>
       </c>
@@ -15756,7 +15869,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="22"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="8" t="s">
         <v>81</v>
       </c>
@@ -15793,7 +15906,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="22"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="8" t="s">
         <v>82</v>
       </c>
@@ -15830,7 +15943,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="22"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="8" t="s">
         <v>83</v>
       </c>
@@ -15867,7 +15980,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="22"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="8" t="s">
         <v>84</v>
       </c>
@@ -15904,7 +16017,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="22"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="10" t="s">
         <v>85</v>
       </c>
@@ -15941,7 +16054,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="22"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="8" t="s">
         <v>86</v>
       </c>
@@ -15978,7 +16091,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="22"/>
+      <c r="A83" s="25"/>
       <c r="B83" s="8" t="s">
         <v>87</v>
       </c>
@@ -16015,7 +16128,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="22"/>
+      <c r="A84" s="25"/>
       <c r="B84" s="8" t="s">
         <v>88</v>
       </c>
@@ -16052,7 +16165,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="22"/>
+      <c r="A85" s="25"/>
       <c r="B85" s="8" t="s">
         <v>89</v>
       </c>
@@ -16089,7 +16202,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="22"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="8" t="s">
         <v>90</v>
       </c>
@@ -16126,7 +16239,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="22"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="8" t="s">
         <v>91</v>
       </c>
@@ -16163,7 +16276,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="22"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="8" t="s">
         <v>92</v>
       </c>
@@ -16200,7 +16313,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="22"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="8" t="s">
         <v>93</v>
       </c>
@@ -16237,7 +16350,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="22"/>
+      <c r="A90" s="25"/>
       <c r="B90" s="8" t="s">
         <v>94</v>
       </c>
@@ -16274,7 +16387,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="22"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="12" t="s">
         <v>95</v>
       </c>
@@ -16311,7 +16424,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="24" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -16348,7 +16461,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="22"/>
+      <c r="A93" s="25"/>
       <c r="B93" s="8" t="s">
         <v>100</v>
       </c>
@@ -16385,7 +16498,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="22"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="8" t="s">
         <v>101</v>
       </c>
@@ -16422,7 +16535,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="22"/>
+      <c r="A95" s="25"/>
       <c r="B95" s="8" t="s">
         <v>102</v>
       </c>
@@ -16459,7 +16572,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="22"/>
+      <c r="A96" s="25"/>
       <c r="B96" s="8" t="s">
         <v>103</v>
       </c>
@@ -16496,7 +16609,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="22"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="8" t="s">
         <v>104</v>
       </c>
@@ -16533,7 +16646,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="22"/>
+      <c r="A98" s="25"/>
       <c r="B98" s="8" t="s">
         <v>105</v>
       </c>
@@ -16570,7 +16683,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="22"/>
+      <c r="A99" s="25"/>
       <c r="B99" s="8" t="s">
         <v>106</v>
       </c>
@@ -16607,7 +16720,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="22"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="8" t="s">
         <v>107</v>
       </c>
@@ -16644,7 +16757,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="22"/>
+      <c r="A101" s="25"/>
       <c r="B101" s="8" t="s">
         <v>108</v>
       </c>
@@ -16681,7 +16794,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="22"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="10" t="s">
         <v>109</v>
       </c>
@@ -16718,7 +16831,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A103" s="22"/>
+      <c r="A103" s="25"/>
       <c r="B103" s="8" t="s">
         <v>110</v>
       </c>
@@ -16755,7 +16868,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A104" s="22"/>
+      <c r="A104" s="25"/>
       <c r="B104" s="8" t="s">
         <v>111</v>
       </c>
@@ -16792,7 +16905,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="22"/>
+      <c r="A105" s="25"/>
       <c r="B105" s="8" t="s">
         <v>112</v>
       </c>
@@ -16829,7 +16942,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" s="22"/>
+      <c r="A106" s="25"/>
       <c r="B106" s="8" t="s">
         <v>113</v>
       </c>
@@ -16866,7 +16979,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="22"/>
+      <c r="A107" s="25"/>
       <c r="B107" s="8" t="s">
         <v>114</v>
       </c>
@@ -16903,7 +17016,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A108" s="22"/>
+      <c r="A108" s="25"/>
       <c r="B108" s="8" t="s">
         <v>115</v>
       </c>
@@ -16940,7 +17053,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A109" s="22"/>
+      <c r="A109" s="25"/>
       <c r="B109" s="8" t="s">
         <v>116</v>
       </c>
@@ -16977,7 +17090,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A110" s="22"/>
+      <c r="A110" s="25"/>
       <c r="B110" s="8" t="s">
         <v>117</v>
       </c>
@@ -17014,7 +17127,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" s="22"/>
+      <c r="A111" s="25"/>
       <c r="B111" s="8" t="s">
         <v>118</v>
       </c>
@@ -17051,7 +17164,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="22"/>
+      <c r="A112" s="25"/>
       <c r="B112" s="12" t="s">
         <v>119</v>
       </c>
@@ -17109,7 +17222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F89884-E4FA-4E98-8DCF-27E74F18B968}">
   <dimension ref="A1:Q108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -17122,29 +17235,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -17195,7 +17308,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -17247,7 +17360,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
@@ -17299,7 +17412,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
@@ -17351,7 +17464,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -17403,7 +17516,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -17455,7 +17568,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -17507,7 +17620,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -17559,7 +17672,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -17611,7 +17724,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -17663,7 +17776,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
@@ -17715,7 +17828,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
@@ -17767,7 +17880,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
@@ -17819,7 +17932,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
@@ -17871,7 +17984,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
@@ -17923,7 +18036,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
@@ -17975,7 +18088,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
@@ -18027,7 +18140,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
@@ -18079,7 +18192,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
@@ -18131,7 +18244,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -18183,7 +18296,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
@@ -18235,7 +18348,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="27"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
@@ -18287,7 +18400,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -18339,7 +18452,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="29"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
@@ -18391,7 +18504,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
@@ -18443,7 +18556,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="29"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
@@ -18495,7 +18608,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="29"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -18547,7 +18660,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
@@ -18599,7 +18712,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="8" t="s">
         <v>31</v>
       </c>
@@ -18651,7 +18764,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
@@ -18703,7 +18816,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="29"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
@@ -18755,7 +18868,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="29"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
@@ -18807,7 +18920,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="29"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
@@ -18859,7 +18972,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="29"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
@@ -18911,7 +19024,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="29"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="8" t="s">
         <v>37</v>
       </c>
@@ -18963,7 +19076,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="29"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="8" t="s">
         <v>38</v>
       </c>
@@ -19015,7 +19128,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="29"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
@@ -19067,7 +19180,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="29"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
@@ -19119,7 +19232,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="29"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
@@ -19171,7 +19284,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" s="29"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
@@ -19223,7 +19336,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="29"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
@@ -19275,7 +19388,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="29"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="8" t="s">
         <v>44</v>
       </c>
@@ -19327,7 +19440,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="29"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="12" t="s">
         <v>45</v>
       </c>
@@ -19379,7 +19492,7 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -19431,7 +19544,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47" s="22"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="8" t="s">
         <v>52</v>
       </c>
@@ -19483,7 +19596,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" s="22"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="8" t="s">
         <v>53</v>
       </c>
@@ -19535,7 +19648,7 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="22"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="8" t="s">
         <v>54</v>
       </c>
@@ -19587,7 +19700,7 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="22"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="8" t="s">
         <v>55</v>
       </c>
@@ -19639,7 +19752,7 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="8" t="s">
         <v>56</v>
       </c>
@@ -19691,7 +19804,7 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="8" t="s">
         <v>47</v>
       </c>
@@ -19743,7 +19856,7 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
         <v>48</v>
       </c>
@@ -19795,7 +19908,7 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="22"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="8" t="s">
         <v>49</v>
       </c>
@@ -19847,7 +19960,7 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A55" s="22"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="8" t="s">
         <v>50</v>
       </c>
@@ -19899,7 +20012,7 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" s="22"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
@@ -19951,7 +20064,7 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57" s="22"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="8" t="s">
         <v>57</v>
       </c>
@@ -20003,7 +20116,7 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" s="22"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="8" t="s">
         <v>58</v>
       </c>
@@ -20055,7 +20168,7 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A59" s="22"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="8" t="s">
         <v>59</v>
       </c>
@@ -20107,7 +20220,7 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A60" s="22"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="8" t="s">
         <v>60</v>
       </c>
@@ -20159,7 +20272,7 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A61" s="22"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="8" t="s">
         <v>61</v>
       </c>
@@ -20211,7 +20324,7 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A62" s="22"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="8" t="s">
         <v>62</v>
       </c>
@@ -20263,7 +20376,7 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A63" s="22"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="8" t="s">
         <v>63</v>
       </c>
@@ -20315,7 +20428,7 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A64" s="22"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="8" t="s">
         <v>64</v>
       </c>
@@ -20367,7 +20480,7 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A65" s="22"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="8" t="s">
         <v>65</v>
       </c>
@@ -20419,7 +20532,7 @@
       </c>
     </row>
     <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="22"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="12" t="s">
         <v>66</v>
       </c>
@@ -20471,7 +20584,7 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="24" t="s">
         <v>97</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -20523,7 +20636,7 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A68" s="22"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="8" t="s">
         <v>76</v>
       </c>
@@ -20575,7 +20688,7 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A69" s="22"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="8" t="s">
         <v>77</v>
       </c>
@@ -20627,7 +20740,7 @@
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A70" s="22"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="8" t="s">
         <v>78</v>
       </c>
@@ -20679,7 +20792,7 @@
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A71" s="22"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="8" t="s">
         <v>79</v>
       </c>
@@ -20731,7 +20844,7 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A72" s="22"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="8" t="s">
         <v>80</v>
       </c>
@@ -20783,7 +20896,7 @@
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A73" s="22"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="8" t="s">
         <v>81</v>
       </c>
@@ -20835,7 +20948,7 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A74" s="22"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="8" t="s">
         <v>82</v>
       </c>
@@ -20887,7 +21000,7 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A75" s="22"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="8" t="s">
         <v>83</v>
       </c>
@@ -20939,7 +21052,7 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A76" s="22"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="8" t="s">
         <v>84</v>
       </c>
@@ -20991,7 +21104,7 @@
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A77" s="22"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="10" t="s">
         <v>85</v>
       </c>
@@ -21043,7 +21156,7 @@
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A78" s="22"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="8" t="s">
         <v>86</v>
       </c>
@@ -21095,7 +21208,7 @@
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A79" s="22"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="8" t="s">
         <v>87</v>
       </c>
@@ -21147,7 +21260,7 @@
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A80" s="22"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="8" t="s">
         <v>88</v>
       </c>
@@ -21199,7 +21312,7 @@
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A81" s="22"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="8" t="s">
         <v>89</v>
       </c>
@@ -21251,7 +21364,7 @@
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A82" s="22"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="8" t="s">
         <v>90</v>
       </c>
@@ -21303,7 +21416,7 @@
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A83" s="22"/>
+      <c r="A83" s="25"/>
       <c r="B83" s="8" t="s">
         <v>91</v>
       </c>
@@ -21355,7 +21468,7 @@
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A84" s="22"/>
+      <c r="A84" s="25"/>
       <c r="B84" s="8" t="s">
         <v>92</v>
       </c>
@@ -21407,7 +21520,7 @@
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A85" s="22"/>
+      <c r="A85" s="25"/>
       <c r="B85" s="8" t="s">
         <v>93</v>
       </c>
@@ -21459,7 +21572,7 @@
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A86" s="22"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="8" t="s">
         <v>94</v>
       </c>
@@ -21511,7 +21624,7 @@
       </c>
     </row>
     <row r="87" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="22"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="12" t="s">
         <v>95</v>
       </c>
@@ -21563,7 +21676,7 @@
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="24" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -21615,7 +21728,7 @@
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A89" s="22"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="8" t="s">
         <v>100</v>
       </c>
@@ -21667,7 +21780,7 @@
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A90" s="22"/>
+      <c r="A90" s="25"/>
       <c r="B90" s="8" t="s">
         <v>101</v>
       </c>
@@ -21719,7 +21832,7 @@
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A91" s="22"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="8" t="s">
         <v>102</v>
       </c>
@@ -21771,7 +21884,7 @@
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A92" s="22"/>
+      <c r="A92" s="25"/>
       <c r="B92" s="8" t="s">
         <v>103</v>
       </c>
@@ -21823,7 +21936,7 @@
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A93" s="22"/>
+      <c r="A93" s="25"/>
       <c r="B93" s="8" t="s">
         <v>104</v>
       </c>
@@ -21875,7 +21988,7 @@
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A94" s="22"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="8" t="s">
         <v>105</v>
       </c>
@@ -21927,7 +22040,7 @@
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A95" s="22"/>
+      <c r="A95" s="25"/>
       <c r="B95" s="8" t="s">
         <v>106</v>
       </c>
@@ -21979,7 +22092,7 @@
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A96" s="22"/>
+      <c r="A96" s="25"/>
       <c r="B96" s="8" t="s">
         <v>107</v>
       </c>
@@ -22031,7 +22144,7 @@
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A97" s="22"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="8" t="s">
         <v>108</v>
       </c>
@@ -22083,7 +22196,7 @@
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A98" s="22"/>
+      <c r="A98" s="25"/>
       <c r="B98" s="10" t="s">
         <v>109</v>
       </c>
@@ -22135,7 +22248,7 @@
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A99" s="22"/>
+      <c r="A99" s="25"/>
       <c r="B99" s="8" t="s">
         <v>110</v>
       </c>
@@ -22187,7 +22300,7 @@
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A100" s="22"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="8" t="s">
         <v>111</v>
       </c>
@@ -22239,7 +22352,7 @@
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A101" s="22"/>
+      <c r="A101" s="25"/>
       <c r="B101" s="8" t="s">
         <v>112</v>
       </c>
@@ -22291,7 +22404,7 @@
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A102" s="22"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="8" t="s">
         <v>113</v>
       </c>
@@ -22343,7 +22456,7 @@
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A103" s="22"/>
+      <c r="A103" s="25"/>
       <c r="B103" s="8" t="s">
         <v>114</v>
       </c>
@@ -22395,7 +22508,7 @@
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A104" s="22"/>
+      <c r="A104" s="25"/>
       <c r="B104" s="8" t="s">
         <v>115</v>
       </c>
@@ -22447,7 +22560,7 @@
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A105" s="22"/>
+      <c r="A105" s="25"/>
       <c r="B105" s="8" t="s">
         <v>116</v>
       </c>
@@ -22499,7 +22612,7 @@
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A106" s="22"/>
+      <c r="A106" s="25"/>
       <c r="B106" s="8" t="s">
         <v>117</v>
       </c>
@@ -22551,7 +22664,7 @@
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A107" s="22"/>
+      <c r="A107" s="25"/>
       <c r="B107" s="8" t="s">
         <v>118</v>
       </c>
@@ -22603,7 +22716,7 @@
       </c>
     </row>
     <row r="108" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="22"/>
+      <c r="A108" s="25"/>
       <c r="B108" s="12" t="s">
         <v>119</v>
       </c>
@@ -22671,6 +22784,4132 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0C943F-F7CD-4508-8B5C-2655C2C13EE4}">
+  <dimension ref="A1:L112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="6">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>517</v>
+      </c>
+      <c r="E8" s="6">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I8" s="6">
+        <v>163</v>
+      </c>
+      <c r="J8" s="6">
+        <v>67.790000000000006</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7">
+        <f>(D8*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>272</v>
+      </c>
+      <c r="D9" s="1">
+        <v>517</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I9" s="1">
+        <v>301</v>
+      </c>
+      <c r="J9" s="1">
+        <v>40.51</v>
+      </c>
+      <c r="K9" s="1">
+        <v>36.15</v>
+      </c>
+      <c r="L9" s="9">
+        <f>(D9*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>355</v>
+      </c>
+      <c r="D10" s="1">
+        <v>517</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I10" s="1">
+        <v>361</v>
+      </c>
+      <c r="J10" s="1">
+        <v>28.66</v>
+      </c>
+      <c r="K10" s="1">
+        <v>39.729999999999997</v>
+      </c>
+      <c r="L10" s="9">
+        <f>(D10*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>387</v>
+      </c>
+      <c r="D11" s="1">
+        <v>517</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I11" s="1">
+        <v>384</v>
+      </c>
+      <c r="J11" s="1">
+        <v>24.11</v>
+      </c>
+      <c r="K11" s="1">
+        <v>41.13</v>
+      </c>
+      <c r="L11" s="9">
+        <f>(D11*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>405</v>
+      </c>
+      <c r="D12" s="1">
+        <v>517</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I12" s="1">
+        <v>401</v>
+      </c>
+      <c r="J12" s="1">
+        <v>20.75</v>
+      </c>
+      <c r="K12" s="1">
+        <v>41.87</v>
+      </c>
+      <c r="L12" s="9">
+        <f>(D12*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>414</v>
+      </c>
+      <c r="D13" s="1">
+        <v>517</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.106</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I13" s="1">
+        <v>407</v>
+      </c>
+      <c r="J13" s="1">
+        <v>19.57</v>
+      </c>
+      <c r="K13" s="1">
+        <v>43.96</v>
+      </c>
+      <c r="L13" s="9">
+        <f>(D13*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>431</v>
+      </c>
+      <c r="D14" s="1">
+        <v>517</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I14" s="1">
+        <v>423</v>
+      </c>
+      <c r="J14" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>47.74</v>
+      </c>
+      <c r="L14" s="9">
+        <f>(D14*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="30"/>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>443</v>
+      </c>
+      <c r="D15" s="1">
+        <v>517</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I15" s="1">
+        <v>432</v>
+      </c>
+      <c r="J15" s="1">
+        <v>14.62</v>
+      </c>
+      <c r="K15" s="1">
+        <v>48.29</v>
+      </c>
+      <c r="L15" s="9">
+        <f>(D15*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>454</v>
+      </c>
+      <c r="D16" s="1">
+        <v>517</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I16" s="1">
+        <v>443</v>
+      </c>
+      <c r="J16" s="1">
+        <v>12.45</v>
+      </c>
+      <c r="K16" s="1">
+        <v>47.85</v>
+      </c>
+      <c r="L16" s="9">
+        <f>(D16*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>462</v>
+      </c>
+      <c r="D17" s="1">
+        <v>517</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I17" s="1">
+        <v>451</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10.87</v>
+      </c>
+      <c r="K17" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="L17" s="9">
+        <f>(D17*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
+      <c r="B18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>472</v>
+      </c>
+      <c r="D18" s="3">
+        <v>517</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I18" s="3">
+        <v>461</v>
+      </c>
+      <c r="J18" s="3">
+        <v>8.89</v>
+      </c>
+      <c r="K18" s="3">
+        <v>44.03</v>
+      </c>
+      <c r="L18" s="11">
+        <f>(D18*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1">
+        <v>517</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.153</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="I19" s="1">
+        <v>173</v>
+      </c>
+      <c r="J19" s="17">
+        <v>65.81</v>
+      </c>
+      <c r="K19" s="1">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="L19" s="9">
+        <f>(D19*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="30"/>
+      <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>517</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.115</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="I20" s="1">
+        <v>184</v>
+      </c>
+      <c r="J20" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="K20" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="L20" s="9">
+        <f>(D20*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="30"/>
+      <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1">
+        <v>517</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="I21" s="1">
+        <v>184</v>
+      </c>
+      <c r="J21" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="K21" s="1">
+        <v>89.77</v>
+      </c>
+      <c r="L21" s="9">
+        <f>(D21*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="30"/>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>517</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="I22" s="1">
+        <v>184</v>
+      </c>
+      <c r="J22" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="K22" s="1">
+        <v>90.86</v>
+      </c>
+      <c r="L22" s="9">
+        <f>(D22*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>517</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="I23" s="1">
+        <v>184</v>
+      </c>
+      <c r="J23" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="K23" s="1">
+        <v>92.06</v>
+      </c>
+      <c r="L23" s="9">
+        <f>(D23*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="30"/>
+      <c r="B24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>517</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.123</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="I24" s="1">
+        <v>184</v>
+      </c>
+      <c r="J24" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="K24" s="1">
+        <v>94.29</v>
+      </c>
+      <c r="L24" s="9">
+        <f>(D24*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="30"/>
+      <c r="B25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
+        <v>517</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.123</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="I25" s="1">
+        <v>184</v>
+      </c>
+      <c r="J25" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="K25" s="1">
+        <v>95.19</v>
+      </c>
+      <c r="L25" s="9">
+        <f>(D25*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="30"/>
+      <c r="B26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>517</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.108</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="I26" s="1">
+        <v>184</v>
+      </c>
+      <c r="J26" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="K26" s="1">
+        <v>96.11</v>
+      </c>
+      <c r="L26" s="9">
+        <f>(D26*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="30"/>
+      <c r="B27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <v>517</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="I27" s="1">
+        <v>184</v>
+      </c>
+      <c r="J27" s="1">
+        <v>63.64</v>
+      </c>
+      <c r="K27" s="1">
+        <v>96.24</v>
+      </c>
+      <c r="L27" s="9">
+        <f>(D27*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="30"/>
+      <c r="B28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="13">
+        <v>13</v>
+      </c>
+      <c r="D28" s="13">
+        <v>517</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.107</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="I28" s="13">
+        <v>184</v>
+      </c>
+      <c r="J28" s="13">
+        <v>63.64</v>
+      </c>
+      <c r="K28" s="13">
+        <v>96.55</v>
+      </c>
+      <c r="L28" s="14">
+        <f>(D28*100)/D8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="6">
+        <v>31</v>
+      </c>
+      <c r="D29" s="6">
+        <v>662</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.184</v>
+      </c>
+      <c r="F29" s="6">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I29" s="6">
+        <v>220</v>
+      </c>
+      <c r="J29" s="6">
+        <v>65.94</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7">
+        <f>(D29*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="32"/>
+      <c r="B30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1">
+        <v>298</v>
+      </c>
+      <c r="D30" s="1">
+        <v>662</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I30" s="1">
+        <v>314</v>
+      </c>
+      <c r="J30" s="1">
+        <v>51.39</v>
+      </c>
+      <c r="K30" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="L30" s="9">
+        <f>(D30*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="32"/>
+      <c r="B31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1">
+        <v>404</v>
+      </c>
+      <c r="D31" s="1">
+        <v>662</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I31" s="1">
+        <v>425</v>
+      </c>
+      <c r="J31" s="1">
+        <v>34.21</v>
+      </c>
+      <c r="K31" s="1">
+        <v>30.95</v>
+      </c>
+      <c r="L31" s="9">
+        <f>(D31*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="32"/>
+      <c r="B32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1">
+        <v>459</v>
+      </c>
+      <c r="D32" s="1">
+        <v>662</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I32" s="1">
+        <v>460</v>
+      </c>
+      <c r="J32" s="1">
+        <v>28.79</v>
+      </c>
+      <c r="K32" s="1">
+        <v>32.43</v>
+      </c>
+      <c r="L32" s="9">
+        <f>(D32*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="32"/>
+      <c r="B33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1">
+        <v>496</v>
+      </c>
+      <c r="D33" s="1">
+        <v>662</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I33" s="1">
+        <v>488</v>
+      </c>
+      <c r="J33" s="1">
+        <v>24.46</v>
+      </c>
+      <c r="K33" s="1">
+        <v>34.33</v>
+      </c>
+      <c r="L33" s="9">
+        <f>(D33*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="32"/>
+      <c r="B34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>508</v>
+      </c>
+      <c r="D34" s="1">
+        <v>662</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I34" s="1">
+        <v>499</v>
+      </c>
+      <c r="J34" s="1">
+        <v>22.76</v>
+      </c>
+      <c r="K34" s="1">
+        <v>35.04</v>
+      </c>
+      <c r="L34" s="9">
+        <f>(D34*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="32"/>
+      <c r="B35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1">
+        <v>530</v>
+      </c>
+      <c r="D35" s="1">
+        <v>662</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.106</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I35" s="1">
+        <v>521</v>
+      </c>
+      <c r="J35" s="1">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="K35" s="1">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="L35" s="9">
+        <f>(D35*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="32"/>
+      <c r="B36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1">
+        <v>543</v>
+      </c>
+      <c r="D36" s="1">
+        <v>662</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I36" s="1">
+        <v>531</v>
+      </c>
+      <c r="J36" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="K36" s="1">
+        <v>36.83</v>
+      </c>
+      <c r="L36" s="9">
+        <f>(D36*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="32"/>
+      <c r="B37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1">
+        <v>571</v>
+      </c>
+      <c r="D37" s="1">
+        <v>662</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I37" s="1">
+        <v>557</v>
+      </c>
+      <c r="J37" s="1">
+        <v>13.78</v>
+      </c>
+      <c r="K37" s="1">
+        <v>40.28</v>
+      </c>
+      <c r="L37" s="9">
+        <f>(D37*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="32"/>
+      <c r="B38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1">
+        <v>578</v>
+      </c>
+      <c r="D38" s="1">
+        <v>662</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I38" s="1">
+        <v>564</v>
+      </c>
+      <c r="J38" s="1">
+        <v>12.69</v>
+      </c>
+      <c r="K38" s="1">
+        <v>38.11</v>
+      </c>
+      <c r="L38" s="9">
+        <f>(D38*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="32"/>
+      <c r="B39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="3">
+        <v>582</v>
+      </c>
+      <c r="D39" s="3">
+        <v>662</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G39" s="3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I39" s="3">
+        <v>568</v>
+      </c>
+      <c r="J39" s="3">
+        <v>12.07</v>
+      </c>
+      <c r="K39" s="3">
+        <v>37.97</v>
+      </c>
+      <c r="L39" s="11">
+        <f>(D39*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="32"/>
+      <c r="B40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1">
+        <v>662</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.156</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I40" s="1">
+        <v>218</v>
+      </c>
+      <c r="J40" s="17">
+        <v>66.25</v>
+      </c>
+      <c r="K40" s="1">
+        <v>55.86</v>
+      </c>
+      <c r="L40" s="9">
+        <f>(D40*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="32"/>
+      <c r="B41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="1">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1">
+        <v>662</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I41" s="1">
+        <v>215</v>
+      </c>
+      <c r="J41" s="1">
+        <v>66.72</v>
+      </c>
+      <c r="K41" s="1">
+        <v>74.66</v>
+      </c>
+      <c r="L41" s="9">
+        <f>(D41*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="32"/>
+      <c r="B42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1">
+        <v>28</v>
+      </c>
+      <c r="D42" s="1">
+        <v>662</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I42" s="1">
+        <v>208</v>
+      </c>
+      <c r="J42" s="1">
+        <v>67.8</v>
+      </c>
+      <c r="K42" s="1">
+        <v>80.84</v>
+      </c>
+      <c r="L42" s="9">
+        <f>(D42*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="32"/>
+      <c r="B43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1">
+        <v>28</v>
+      </c>
+      <c r="D43" s="1">
+        <v>662</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I43" s="1">
+        <v>209</v>
+      </c>
+      <c r="J43" s="1">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="K43" s="1">
+        <v>84.27</v>
+      </c>
+      <c r="L43" s="9">
+        <f>(D43*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="32"/>
+      <c r="B44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1">
+        <v>662</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I44" s="1">
+        <v>208</v>
+      </c>
+      <c r="J44" s="1">
+        <v>67.8</v>
+      </c>
+      <c r="K44" s="1">
+        <v>85.56</v>
+      </c>
+      <c r="L44" s="9">
+        <f>(D44*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="32"/>
+      <c r="B45" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1">
+        <v>662</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I45" s="1">
+        <v>204</v>
+      </c>
+      <c r="J45" s="1">
+        <v>68.42</v>
+      </c>
+      <c r="K45" s="1">
+        <v>88.17</v>
+      </c>
+      <c r="L45" s="9">
+        <f>(D45*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="32"/>
+      <c r="B46" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1">
+        <v>662</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I46" s="1">
+        <v>235</v>
+      </c>
+      <c r="J46" s="1">
+        <v>63.62</v>
+      </c>
+      <c r="K46" s="1">
+        <v>89.52</v>
+      </c>
+      <c r="L46" s="9">
+        <f>(D46*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="32"/>
+      <c r="B47" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1">
+        <v>662</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I47" s="1">
+        <v>217</v>
+      </c>
+      <c r="J47" s="1">
+        <v>66.41</v>
+      </c>
+      <c r="K47" s="1">
+        <v>92.58</v>
+      </c>
+      <c r="L47" s="9">
+        <f>(D47*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="32"/>
+      <c r="B48" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1">
+        <v>30</v>
+      </c>
+      <c r="D48" s="1">
+        <v>662</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I48" s="1">
+        <v>217</v>
+      </c>
+      <c r="J48" s="1">
+        <v>66.41</v>
+      </c>
+      <c r="K48" s="1">
+        <v>93.32</v>
+      </c>
+      <c r="L48" s="9">
+        <f>(D48*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="32"/>
+      <c r="B49" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="13">
+        <v>30</v>
+      </c>
+      <c r="D49" s="13">
+        <v>662</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F49" s="13">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="I49" s="13">
+        <v>217</v>
+      </c>
+      <c r="J49" s="13">
+        <v>66.41</v>
+      </c>
+      <c r="K49" s="13">
+        <v>93.49</v>
+      </c>
+      <c r="L49" s="14">
+        <f>(D49*100)/D29</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="6">
+        <v>26</v>
+      </c>
+      <c r="D50" s="6">
+        <v>4414</v>
+      </c>
+      <c r="E50" s="6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I50" s="6">
+        <v>2668</v>
+      </c>
+      <c r="J50" s="6">
+        <v>39.11</v>
+      </c>
+      <c r="K50" s="6"/>
+      <c r="L50" s="7">
+        <f>(D50*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="25"/>
+      <c r="B51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3011</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.115</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I51" s="1">
+        <v>3792</v>
+      </c>
+      <c r="J51" s="1">
+        <v>13.46</v>
+      </c>
+      <c r="K51" s="1">
+        <v>14.97</v>
+      </c>
+      <c r="L51" s="9">
+        <f>(D51*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="25"/>
+      <c r="B52" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3153</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3787</v>
+      </c>
+      <c r="J52" s="1">
+        <v>13.58</v>
+      </c>
+      <c r="K52" s="1">
+        <v>18.11</v>
+      </c>
+      <c r="L52" s="9">
+        <f>(D52*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="25"/>
+      <c r="B53" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3258</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G53" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3795</v>
+      </c>
+      <c r="J53" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="K53" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L53" s="9">
+        <f>(D53*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="25"/>
+      <c r="B54" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3585</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G54" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3916</v>
+      </c>
+      <c r="J54" s="1">
+        <v>10.63</v>
+      </c>
+      <c r="K54" s="1">
+        <v>22.96</v>
+      </c>
+      <c r="L54" s="9">
+        <f>(D54*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="25"/>
+      <c r="B55" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3602</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G55" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I55" s="1">
+        <v>3919</v>
+      </c>
+      <c r="J55" s="1">
+        <v>10.57</v>
+      </c>
+      <c r="K55" s="1">
+        <v>24.16</v>
+      </c>
+      <c r="L55" s="9">
+        <f>(D55*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="25"/>
+      <c r="B56" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3653</v>
+      </c>
+      <c r="D56" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G56" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I56" s="1">
+        <v>3949</v>
+      </c>
+      <c r="J56" s="1">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="K56" s="1">
+        <v>24.32</v>
+      </c>
+      <c r="L56" s="9">
+        <f>(D56*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="25"/>
+      <c r="B57" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4045</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E57" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I57" s="1">
+        <v>4108</v>
+      </c>
+      <c r="J57" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="K57" s="1">
+        <v>32.42</v>
+      </c>
+      <c r="L57" s="9">
+        <f>(D57*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="25"/>
+      <c r="B58" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4056</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I58" s="1">
+        <v>4117</v>
+      </c>
+      <c r="J58" s="1">
+        <v>6.05</v>
+      </c>
+      <c r="K58" s="1">
+        <v>35.22</v>
+      </c>
+      <c r="L58" s="9">
+        <f>(D58*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="25"/>
+      <c r="B59" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4075</v>
+      </c>
+      <c r="D59" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E59" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I59" s="1">
+        <v>4128</v>
+      </c>
+      <c r="J59" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="K59" s="1">
+        <v>35</v>
+      </c>
+      <c r="L59" s="9">
+        <f>(D59*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="25"/>
+      <c r="B60" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="3">
+        <v>4139</v>
+      </c>
+      <c r="D60" s="3">
+        <v>4414</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4174</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="K60" s="3">
+        <v>36.61</v>
+      </c>
+      <c r="L60" s="11">
+        <f>(D60*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="25"/>
+      <c r="B61" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1">
+        <v>27</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E61" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I61" s="1">
+        <v>2604</v>
+      </c>
+      <c r="J61" s="1">
+        <v>40.58</v>
+      </c>
+      <c r="K61" s="1">
+        <v>68.67</v>
+      </c>
+      <c r="L61" s="9">
+        <f>(D61*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="25"/>
+      <c r="B62" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="1">
+        <v>28</v>
+      </c>
+      <c r="D62" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2598</v>
+      </c>
+      <c r="J62" s="1">
+        <v>40.71</v>
+      </c>
+      <c r="K62" s="1">
+        <v>77.209999999999994</v>
+      </c>
+      <c r="L62" s="9">
+        <f>(D62*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="25"/>
+      <c r="B63" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="1">
+        <v>28</v>
+      </c>
+      <c r="D63" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E63" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2615</v>
+      </c>
+      <c r="J63" s="1">
+        <v>40.32</v>
+      </c>
+      <c r="K63" s="1">
+        <v>80.36</v>
+      </c>
+      <c r="L63" s="9">
+        <f>(D63*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="25"/>
+      <c r="B64" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="1">
+        <v>30</v>
+      </c>
+      <c r="D64" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E64" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2591</v>
+      </c>
+      <c r="J64" s="1">
+        <v>40.869999999999997</v>
+      </c>
+      <c r="K64" s="1">
+        <v>88.49</v>
+      </c>
+      <c r="L64" s="9">
+        <f>(D64*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="25"/>
+      <c r="B65" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="1">
+        <v>31</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E65" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2621</v>
+      </c>
+      <c r="J65" s="1">
+        <v>40.19</v>
+      </c>
+      <c r="K65" s="1">
+        <v>89.61</v>
+      </c>
+      <c r="L65" s="9">
+        <f>(D65*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="25"/>
+      <c r="B66" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="1">
+        <v>31</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E66" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I66" s="1">
+        <v>2621</v>
+      </c>
+      <c r="J66" s="1">
+        <v>40.19</v>
+      </c>
+      <c r="K66" s="1">
+        <v>90.52</v>
+      </c>
+      <c r="L66" s="9">
+        <f>(D66*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="25"/>
+      <c r="B67" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="1">
+        <v>30</v>
+      </c>
+      <c r="D67" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E67" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2611</v>
+      </c>
+      <c r="J67" s="1">
+        <v>40.42</v>
+      </c>
+      <c r="K67" s="1">
+        <v>96.51</v>
+      </c>
+      <c r="L67" s="9">
+        <f>(D67*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="25"/>
+      <c r="B68" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="1">
+        <v>28</v>
+      </c>
+      <c r="D68" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E68" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2627</v>
+      </c>
+      <c r="J68" s="1">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="K68" s="1">
+        <v>97.05</v>
+      </c>
+      <c r="L68" s="9">
+        <f>(D68*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="25"/>
+      <c r="B69" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="1">
+        <v>28</v>
+      </c>
+      <c r="D69" s="1">
+        <v>4414</v>
+      </c>
+      <c r="E69" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I69" s="1">
+        <v>2627</v>
+      </c>
+      <c r="J69" s="1">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="K69" s="1">
+        <v>97.17</v>
+      </c>
+      <c r="L69" s="9">
+        <f>(D69*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="25"/>
+      <c r="B70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="13">
+        <v>28</v>
+      </c>
+      <c r="D70" s="13">
+        <v>4414</v>
+      </c>
+      <c r="E70" s="13">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F70" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="G70" s="13">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H70" s="13">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I70" s="13">
+        <v>2627</v>
+      </c>
+      <c r="J70" s="1">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="K70" s="13">
+        <v>97.74</v>
+      </c>
+      <c r="L70" s="14">
+        <f>(D70*100)/D50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="6">
+        <v>10</v>
+      </c>
+      <c r="D71" s="6">
+        <v>210</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F71" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I71" s="6">
+        <v>83</v>
+      </c>
+      <c r="J71" s="6">
+        <v>59.9</v>
+      </c>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6">
+        <f>(D71*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="25"/>
+      <c r="B72" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="1">
+        <v>154</v>
+      </c>
+      <c r="D72" s="1">
+        <v>210</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I72" s="1">
+        <v>164</v>
+      </c>
+      <c r="J72" s="1">
+        <v>20.77</v>
+      </c>
+      <c r="K72" s="1">
+        <v>31.15</v>
+      </c>
+      <c r="L72" s="9">
+        <f>(D72*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="25"/>
+      <c r="B73" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="1">
+        <v>171</v>
+      </c>
+      <c r="D73" s="1">
+        <v>210</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F73" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G73" s="1">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I73" s="1">
+        <v>177</v>
+      </c>
+      <c r="J73" s="1">
+        <v>14.49</v>
+      </c>
+      <c r="K73" s="1">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="L73" s="9">
+        <f>(D73*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="25"/>
+      <c r="B74" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="1">
+        <v>181</v>
+      </c>
+      <c r="D74" s="1">
+        <v>210</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G74" s="1">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I74" s="1">
+        <v>182</v>
+      </c>
+      <c r="J74" s="1">
+        <v>12.08</v>
+      </c>
+      <c r="K74" s="1">
+        <v>56.06</v>
+      </c>
+      <c r="L74" s="9">
+        <f>(D74*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" s="25"/>
+      <c r="B75" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="1">
+        <v>187</v>
+      </c>
+      <c r="D75" s="1">
+        <v>210</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F75" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G75" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I75" s="1">
+        <v>186</v>
+      </c>
+      <c r="J75" s="1">
+        <v>10.14</v>
+      </c>
+      <c r="K75" s="1">
+        <v>56.14</v>
+      </c>
+      <c r="L75" s="9">
+        <f>(D75*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="25"/>
+      <c r="B76" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="1">
+        <v>187</v>
+      </c>
+      <c r="D76" s="1">
+        <v>210</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F76" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G76" s="1">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I76" s="1">
+        <v>186</v>
+      </c>
+      <c r="J76" s="1">
+        <v>10.14</v>
+      </c>
+      <c r="K76" s="1">
+        <v>55.36</v>
+      </c>
+      <c r="L76" s="9">
+        <f>(D76*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="25"/>
+      <c r="B77" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="1">
+        <v>190</v>
+      </c>
+      <c r="D77" s="1">
+        <v>210</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F77" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G77" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I77" s="1">
+        <v>189</v>
+      </c>
+      <c r="J77" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K77" s="1">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="L77" s="9">
+        <f>(D77*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" s="25"/>
+      <c r="B78" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="1">
+        <v>191</v>
+      </c>
+      <c r="D78" s="1">
+        <v>210</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F78" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I78" s="1">
+        <v>190</v>
+      </c>
+      <c r="J78" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="K78" s="1">
+        <v>63.16</v>
+      </c>
+      <c r="L78" s="9">
+        <f>(D78*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="25"/>
+      <c r="B79" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="1">
+        <v>197</v>
+      </c>
+      <c r="D79" s="1">
+        <v>210</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F79" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I79" s="1">
+        <v>196</v>
+      </c>
+      <c r="J79" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="K79" s="1">
+        <v>61.54</v>
+      </c>
+      <c r="L79" s="9">
+        <f>(D79*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" s="25"/>
+      <c r="B80" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="1">
+        <v>197</v>
+      </c>
+      <c r="D80" s="1">
+        <v>210</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F80" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I80" s="1">
+        <v>196</v>
+      </c>
+      <c r="J80" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="K80" s="1">
+        <v>61.54</v>
+      </c>
+      <c r="L80" s="9">
+        <f>(D80*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" s="25"/>
+      <c r="B81" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="3">
+        <v>197</v>
+      </c>
+      <c r="D81" s="3">
+        <v>210</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I81" s="3">
+        <v>196</v>
+      </c>
+      <c r="J81" s="3">
+        <v>5.31</v>
+      </c>
+      <c r="K81" s="3">
+        <v>61.54</v>
+      </c>
+      <c r="L81" s="11">
+        <f>(D81*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" s="25"/>
+      <c r="B82" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="1">
+        <v>11</v>
+      </c>
+      <c r="D82" s="1">
+        <v>210</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.161</v>
+      </c>
+      <c r="F82" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I82" s="1">
+        <v>68</v>
+      </c>
+      <c r="J82" s="1">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="K82" s="1">
+        <v>81.99</v>
+      </c>
+      <c r="L82" s="9">
+        <f>(D82*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" s="25"/>
+      <c r="B83" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="1">
+        <v>10</v>
+      </c>
+      <c r="D83" s="1">
+        <v>210</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F83" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I83" s="1">
+        <v>68</v>
+      </c>
+      <c r="J83" s="1">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="K83" s="1">
+        <v>89.89</v>
+      </c>
+      <c r="L83" s="9">
+        <f>(D83*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" s="25"/>
+      <c r="B84" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="1">
+        <v>10</v>
+      </c>
+      <c r="D84" s="1">
+        <v>210</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F84" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I84" s="1">
+        <v>68</v>
+      </c>
+      <c r="J84" s="1">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="K84" s="1">
+        <v>96.35</v>
+      </c>
+      <c r="L84" s="9">
+        <f>(D84*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="25"/>
+      <c r="B85" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="1">
+        <v>10</v>
+      </c>
+      <c r="D85" s="1">
+        <v>210</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F85" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I85" s="1">
+        <v>68</v>
+      </c>
+      <c r="J85" s="1">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="K85" s="1">
+        <v>96.84</v>
+      </c>
+      <c r="L85" s="9">
+        <f>(D85*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" s="25"/>
+      <c r="B86" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="1">
+        <v>10</v>
+      </c>
+      <c r="D86" s="1">
+        <v>210</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F86" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I86" s="1">
+        <v>68</v>
+      </c>
+      <c r="J86" s="1">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="K86" s="1">
+        <v>96.84</v>
+      </c>
+      <c r="L86" s="9">
+        <f>(D86*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" s="25"/>
+      <c r="B87" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="1">
+        <v>10</v>
+      </c>
+      <c r="D87" s="1">
+        <v>210</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F87" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I87" s="1">
+        <v>68</v>
+      </c>
+      <c r="J87" s="1">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="K87" s="1">
+        <v>98.2</v>
+      </c>
+      <c r="L87" s="9">
+        <f>(D87*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88" s="25"/>
+      <c r="B88" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="1">
+        <v>10</v>
+      </c>
+      <c r="D88" s="1">
+        <v>210</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F88" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I88" s="1">
+        <v>68</v>
+      </c>
+      <c r="J88" s="1">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="K88" s="1">
+        <v>98.2</v>
+      </c>
+      <c r="L88" s="9">
+        <f>(D88*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" s="25"/>
+      <c r="B89" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="1">
+        <v>11</v>
+      </c>
+      <c r="D89" s="1">
+        <v>210</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F89" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I89" s="1">
+        <v>79</v>
+      </c>
+      <c r="J89" s="1">
+        <v>61.84</v>
+      </c>
+      <c r="K89" s="1">
+        <v>98.71</v>
+      </c>
+      <c r="L89" s="9">
+        <f>(D89*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" s="25"/>
+      <c r="B90" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="1">
+        <v>11</v>
+      </c>
+      <c r="D90" s="1">
+        <v>210</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F90" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I90" s="1">
+        <v>79</v>
+      </c>
+      <c r="J90" s="1">
+        <v>61.84</v>
+      </c>
+      <c r="K90" s="1">
+        <v>98.71</v>
+      </c>
+      <c r="L90" s="9">
+        <f>(D90*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="25"/>
+      <c r="B91" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="13">
+        <v>11</v>
+      </c>
+      <c r="D91" s="13">
+        <v>210</v>
+      </c>
+      <c r="E91" s="13">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F91" s="13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G91" s="13">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="H91" s="13">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I91" s="13">
+        <v>79</v>
+      </c>
+      <c r="J91" s="13">
+        <v>61.84</v>
+      </c>
+      <c r="K91" s="13">
+        <v>98.71</v>
+      </c>
+      <c r="L91" s="14">
+        <f>(D91*100)/D71</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="6">
+        <v>14</v>
+      </c>
+      <c r="D92" s="6">
+        <v>1738</v>
+      </c>
+      <c r="E92" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F92" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G92" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H92" s="6">
+        <v>0.221</v>
+      </c>
+      <c r="I92" s="6">
+        <v>670</v>
+      </c>
+      <c r="J92" s="6">
+        <v>60.93</v>
+      </c>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6">
+        <f>(D92*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" s="25"/>
+      <c r="B93" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1282</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E93" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G93" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1482</v>
+      </c>
+      <c r="J93" s="1">
+        <v>13.59</v>
+      </c>
+      <c r="K93" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="L93" s="9">
+        <f>(D93*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" s="25"/>
+      <c r="B94" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1282</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E94" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G94" s="1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1452</v>
+      </c>
+      <c r="J94" s="1">
+        <v>15.34</v>
+      </c>
+      <c r="K94" s="1">
+        <v>8.51</v>
+      </c>
+      <c r="L94" s="9">
+        <f>(D94*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" s="25"/>
+      <c r="B95" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1318</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E95" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1463</v>
+      </c>
+      <c r="J95" s="1">
+        <v>14.69</v>
+      </c>
+      <c r="K95" s="1">
+        <v>9.26</v>
+      </c>
+      <c r="L95" s="9">
+        <f>(D95*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" s="25"/>
+      <c r="B96" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1375</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G96" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1509</v>
+      </c>
+      <c r="J96" s="1">
+        <v>12.01</v>
+      </c>
+      <c r="K96" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="L96" s="9">
+        <f>(D96*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A97" s="25"/>
+      <c r="B97" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1406</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E97" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G97" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1500</v>
+      </c>
+      <c r="J97" s="1">
+        <v>12.54</v>
+      </c>
+      <c r="K97" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="L97" s="9">
+        <f>(D97*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A98" s="25"/>
+      <c r="B98" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1468</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E98" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G98" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1545</v>
+      </c>
+      <c r="J98" s="1">
+        <v>9.91</v>
+      </c>
+      <c r="K98" s="1">
+        <v>13.59</v>
+      </c>
+      <c r="L98" s="9">
+        <f>(D98*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A99" s="25"/>
+      <c r="B99" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1470</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E99" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G99" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1547</v>
+      </c>
+      <c r="J99" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K99" s="1">
+        <v>13.69</v>
+      </c>
+      <c r="L99" s="9">
+        <f>(D99*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100" s="25"/>
+      <c r="B100" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1471</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E100" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G100" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1544</v>
+      </c>
+      <c r="J100" s="1">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="K100" s="1">
+        <v>13.53</v>
+      </c>
+      <c r="L100" s="9">
+        <f>(D100*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A101" s="25"/>
+      <c r="B101" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1643</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E101" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1640</v>
+      </c>
+      <c r="J101" s="1">
+        <v>4.37</v>
+      </c>
+      <c r="K101" s="1">
+        <v>27.32</v>
+      </c>
+      <c r="L101" s="9">
+        <f>(D101*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A102" s="25"/>
+      <c r="B102" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1645</v>
+      </c>
+      <c r="D102" s="3">
+        <v>1738</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0.221</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1641</v>
+      </c>
+      <c r="J102" s="3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="K102" s="3">
+        <v>27.27</v>
+      </c>
+      <c r="L102" s="11">
+        <f>(D102*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A103" s="25"/>
+      <c r="B103" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="1">
+        <v>12</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E103" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I103" s="1">
+        <v>699</v>
+      </c>
+      <c r="J103" s="1">
+        <v>59.24</v>
+      </c>
+      <c r="K103" s="1">
+        <v>54.93</v>
+      </c>
+      <c r="L103" s="9">
+        <f>(D103*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A104" s="25"/>
+      <c r="B104" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="1">
+        <v>13</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E104" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I104" s="1">
+        <v>691</v>
+      </c>
+      <c r="J104" s="1">
+        <v>59.71</v>
+      </c>
+      <c r="K104" s="1">
+        <v>55.75</v>
+      </c>
+      <c r="L104" s="9">
+        <f>(D104*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A105" s="25"/>
+      <c r="B105" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="1">
+        <v>12</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E105" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I105" s="1">
+        <v>700</v>
+      </c>
+      <c r="J105" s="1">
+        <v>59.18</v>
+      </c>
+      <c r="K105" s="1">
+        <v>61.76</v>
+      </c>
+      <c r="L105" s="9">
+        <f>(D105*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A106" s="25"/>
+      <c r="B106" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="1">
+        <v>14</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E106" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I106" s="1">
+        <v>704</v>
+      </c>
+      <c r="J106" s="1">
+        <v>58.95</v>
+      </c>
+      <c r="K106" s="1">
+        <v>71.53</v>
+      </c>
+      <c r="L106" s="9">
+        <f>(D106*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A107" s="25"/>
+      <c r="B107" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" s="1">
+        <v>14</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E107" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I107" s="1">
+        <v>704</v>
+      </c>
+      <c r="J107" s="1">
+        <v>58.95</v>
+      </c>
+      <c r="K107" s="1">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="L107" s="9">
+        <f>(D107*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A108" s="25"/>
+      <c r="B108" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="1">
+        <v>14</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E108" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I108" s="1">
+        <v>704</v>
+      </c>
+      <c r="J108" s="1">
+        <v>58.95</v>
+      </c>
+      <c r="K108" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="L108" s="9">
+        <f>(D108*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A109" s="25"/>
+      <c r="B109" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="1">
+        <v>13</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E109" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I109" s="1">
+        <v>705</v>
+      </c>
+      <c r="J109" s="1">
+        <v>58.89</v>
+      </c>
+      <c r="K109" s="1">
+        <v>79.89</v>
+      </c>
+      <c r="L109" s="9">
+        <f>(D109*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A110" s="25"/>
+      <c r="B110" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" s="1">
+        <v>13</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E110" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I110" s="1">
+        <v>705</v>
+      </c>
+      <c r="J110" s="1">
+        <v>58.89</v>
+      </c>
+      <c r="K110" s="1">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="L110" s="9">
+        <f>(D110*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A111" s="25"/>
+      <c r="B111" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" s="1">
+        <v>15</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1738</v>
+      </c>
+      <c r="E111" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="I111" s="1">
+        <v>686</v>
+      </c>
+      <c r="J111" s="1">
+        <v>60</v>
+      </c>
+      <c r="K111" s="1">
+        <v>96.29</v>
+      </c>
+      <c r="L111" s="9">
+        <f>(D111*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="25"/>
+      <c r="B112" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="13">
+        <v>15</v>
+      </c>
+      <c r="D112" s="13">
+        <v>1738</v>
+      </c>
+      <c r="E112" s="13">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F112" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="G112" s="13">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="H112" s="13">
+        <v>0.221</v>
+      </c>
+      <c r="I112" s="13">
+        <v>686</v>
+      </c>
+      <c r="J112" s="13">
+        <v>60</v>
+      </c>
+      <c r="K112" s="13">
+        <v>96.31</v>
+      </c>
+      <c r="L112" s="14">
+        <f>(D112*100)/D92</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A29:A49"/>
+    <mergeCell ref="A50:A70"/>
+    <mergeCell ref="A71:A91"/>
+    <mergeCell ref="A92:A112"/>
+    <mergeCell ref="C1:L3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A8:A28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8D636B-9791-48D6-9E7E-061A6406E6E8}">
+  <dimension ref="D5:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6">
+        <v>14917</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7">
+        <v>22698</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8">
+        <v>16609</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9">
+        <v>1772</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" display="https://github.com/apache/ant/releases/tag/rel%2F1.10.13" xr:uid="{43FB4A40-B5B0-4584-9B6C-FBFEEC5ECC32}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{567AEEE1-8D93-45BE-90C9-2616084CCF45}"/>
+    <hyperlink ref="E7" r:id="rId3" display="https://github.com/apache/tomcat/releases/tag/8.5.93" xr:uid="{2D17A969-FD3B-498B-BD15-6B34B0A184B1}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{4CB679A2-29BB-4825-A9F4-67C097B77724}"/>
+    <hyperlink ref="E8" r:id="rId5" display="https://github.com/hibernate/hibernate-orm/tree/6.2.14" xr:uid="{8383405C-8E64-4C17-A850-D250E9B8020B}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{79A342D2-B773-4383-9D20-C4886FCBFD28}"/>
+    <hyperlink ref="E9" r:id="rId7" display="https://github.com/google/gson/releases/tag/gson-parent-2.10.1" xr:uid="{44CB1B2F-F553-4C2A-A899-D9DA507E3183}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{772C57A4-BAF6-4CEE-BAB2-26E1B4382C8D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6006a9c5-d130-408c-bc8e-3b5ecdb17aa0}" enabled="1" method="Standard" siteId="{8d4b558f-7b2e-40ba-ad1f-e04d79e6265a}" contentBits="2" removed="0"/>

--- a/results/results_2024.xlsx
+++ b/results/results_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\PhdProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5F1CB0-9AEE-45E8-B326-B4FA015A9110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83530B2A-0564-4C9C-B2D3-C1DC8E1478BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old results 2023" sheetId="32" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name=" same matrix - unidirect LD" sheetId="35" r:id="rId3"/>
     <sheet name=" same matrix - LD value div 2" sheetId="36" r:id="rId4"/>
     <sheet name="MST and Louvain" sheetId="37" r:id="rId5"/>
-    <sheet name="Louvain orig matrix" sheetId="39" r:id="rId6"/>
-    <sheet name="Projects" sheetId="38" r:id="rId7"/>
+    <sheet name="with new ref sol" sheetId="39" r:id="rId6"/>
+    <sheet name="new MQ" sheetId="40" r:id="rId7"/>
+    <sheet name="Projects" sheetId="38" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,8 +134,27 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={95758711-1525-4232-994D-9354709F9BED}</author>
+  </authors>
+  <commentList>
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{95758711-1525-4232-994D-9354709F9BED}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Based on csv input
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="152">
   <si>
     <t>Ant</t>
   </si>
@@ -1225,6 +1245,15 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K6" dT="2024-02-05T10:23:26.22" personId="{56EAA74D-F7BE-4305-878E-111E09878DF4}" id="{95758711-1525-4232-994D-9354709F9BED}">
+    <text xml:space="preserve">Based on csv input
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76C50CD-59B4-4BA2-8891-9F18F3F8F3AC}">
   <dimension ref="A1:L108"/>
@@ -13214,8 +13243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD235BD-FDF0-4D15-9740-2885F6075B83}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J111" sqref="A5:L112"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22786,10 +22815,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0C943F-F7CD-4508-8B5C-2655C2C13EE4}">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:K28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22897,28 +22927,28 @@
         <v>73</v>
       </c>
       <c r="C8" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6">
         <v>517</v>
       </c>
       <c r="E8" s="6">
-        <v>8.8999999999999996E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="F8" s="6">
-        <v>9.9000000000000005E-2</v>
+        <v>0.104</v>
       </c>
       <c r="G8" s="6">
-        <v>0.59899999999999998</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="H8" s="6">
-        <v>0.35599999999999998</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="I8" s="6">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="J8" s="6">
-        <v>67.790000000000006</v>
+        <v>72.11</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="7">
@@ -22932,35 +22962,35 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>272</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1">
-        <v>517</v>
+        <v>320</v>
       </c>
       <c r="E9" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="F9" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>0.222</v>
+        <v>0.78</v>
       </c>
       <c r="H9" s="1">
-        <v>0.35599999999999998</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="J9" s="1">
-        <v>40.51</v>
+        <v>66.89</v>
       </c>
       <c r="K9" s="1">
         <v>36.15</v>
       </c>
       <c r="L9" s="9">
         <f>(D9*100)/D8</f>
-        <v>100</v>
+        <v>61.895551257253388</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -22969,35 +22999,35 @@
         <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>355</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1">
-        <v>517</v>
+        <v>215</v>
       </c>
       <c r="E10" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="F10" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="G10" s="1">
-        <v>0.155</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>0.35599999999999998</v>
+        <v>0.66</v>
       </c>
       <c r="I10" s="1">
-        <v>361</v>
+        <v>63</v>
       </c>
       <c r="J10" s="1">
-        <v>28.66</v>
+        <v>68.81</v>
       </c>
       <c r="K10" s="1">
         <v>39.729999999999997</v>
       </c>
       <c r="L10" s="9">
         <f>(D10*100)/D8</f>
-        <v>100</v>
+        <v>41.586073500967117</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -23006,35 +23036,35 @@
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1">
-        <v>517</v>
+        <v>174</v>
       </c>
       <c r="E11" s="1">
-        <v>0.03</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="F11" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>0.13200000000000001</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="H11" s="1">
-        <v>0.35599999999999998</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="J11" s="1">
-        <v>24.11</v>
+        <v>72.39</v>
       </c>
       <c r="K11" s="1">
         <v>41.13</v>
       </c>
       <c r="L11" s="9">
         <f>(D11*100)/D8</f>
-        <v>100</v>
+        <v>33.65570599613153</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -23043,35 +23073,35 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>405</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>517</v>
+        <v>152</v>
       </c>
       <c r="E12" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F12" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>0.113</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>0.35599999999999998</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="I12" s="1">
-        <v>401</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1">
-        <v>20.75</v>
+        <v>72.540000000000006</v>
       </c>
       <c r="K12" s="1">
         <v>41.87</v>
       </c>
       <c r="L12" s="9">
         <f>(D12*100)/D8</f>
-        <v>100</v>
+        <v>29.400386847195357</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -23080,35 +23110,35 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>414</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1">
-        <v>517</v>
+        <v>138</v>
       </c>
       <c r="E13" s="1">
-        <v>2.3E-2</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="F13" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="G13" s="1">
-        <v>0.106</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="H13" s="1">
-        <v>0.35599999999999998</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>407</v>
+        <v>31</v>
       </c>
       <c r="J13" s="1">
-        <v>19.57</v>
+        <v>75.78</v>
       </c>
       <c r="K13" s="1">
         <v>43.96</v>
       </c>
       <c r="L13" s="9">
         <f>(D13*100)/D8</f>
-        <v>100</v>
+        <v>26.692456479690524</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -23117,35 +23147,35 @@
         <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>431</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
-        <v>517</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="F14" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="G14" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>0.748</v>
       </c>
       <c r="H14" s="1">
-        <v>0.35599999999999998</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="I14" s="1">
-        <v>423</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1">
-        <v>16.399999999999999</v>
+        <v>72.97</v>
       </c>
       <c r="K14" s="1">
         <v>47.74</v>
       </c>
       <c r="L14" s="9">
         <f>(D14*100)/D8</f>
-        <v>100</v>
+        <v>23.210831721470019</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -23154,35 +23184,35 @@
         <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>443</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1">
-        <v>517</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1">
-        <v>1.9E-2</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="F15" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="G15" s="1">
-        <v>7.5999999999999998E-2</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>0.35599999999999998</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="I15" s="1">
-        <v>432</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1">
-        <v>14.62</v>
+        <v>74.23</v>
       </c>
       <c r="K15" s="1">
         <v>48.29</v>
       </c>
       <c r="L15" s="9">
         <f>(D15*100)/D8</f>
-        <v>100</v>
+        <v>20.502901353965182</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -23191,35 +23221,35 @@
         <v>13</v>
       </c>
       <c r="C16" s="1">
-        <v>454</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1">
-        <v>517</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1">
-        <v>1.6E-2</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="F16" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.307</v>
       </c>
       <c r="G16" s="1">
-        <v>5.7000000000000002E-2</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="H16" s="1">
-        <v>0.35599999999999998</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>443</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1">
-        <v>12.45</v>
+        <v>73.489999999999995</v>
       </c>
       <c r="K16" s="1">
         <v>47.85</v>
       </c>
       <c r="L16" s="9">
         <f>(D16*100)/D8</f>
-        <v>100</v>
+        <v>17.794970986460349</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -23228,35 +23258,35 @@
         <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>462</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="F17" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="G17" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="H17" s="1">
-        <v>0.35599999999999998</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>451</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1">
-        <v>10.87</v>
+        <v>75.709999999999994</v>
       </c>
       <c r="K17" s="1">
         <v>45.7</v>
       </c>
       <c r="L17" s="9">
         <f>(D17*100)/D8</f>
-        <v>100</v>
+        <v>15.28046421663443</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -23265,35 +23295,35 @@
         <v>15</v>
       </c>
       <c r="C18" s="3">
-        <v>472</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3">
-        <v>517</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3">
-        <v>0.01</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="F18" s="3">
-        <v>9.9000000000000005E-2</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="G18" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="H18" s="3">
-        <v>0.35599999999999998</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="I18" s="3">
-        <v>461</v>
+        <v>11</v>
       </c>
       <c r="J18" s="3">
-        <v>8.89</v>
+        <v>80.36</v>
       </c>
       <c r="K18" s="3">
         <v>44.03</v>
       </c>
       <c r="L18" s="11">
         <f>(D18*100)/D8</f>
-        <v>100</v>
+        <v>12.379110251450676</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -23302,28 +23332,28 @@
         <v>16</v>
       </c>
       <c r="C19" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1">
         <v>517</v>
       </c>
       <c r="E19" s="1">
-        <v>0.153</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F19" s="1">
-        <v>0.19700000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="G19" s="1">
-        <v>0.60499999999999998</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>0.36</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="I19" s="1">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="J19" s="17">
-        <v>65.81</v>
+        <v>82.87</v>
       </c>
       <c r="K19" s="1">
         <v>77.650000000000006</v>
@@ -23339,28 +23369,28 @@
         <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
         <v>517</v>
       </c>
       <c r="E20" s="1">
-        <v>0.115</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="F20" s="1">
-        <v>0.14099999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="G20" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.60699999999999998</v>
       </c>
-      <c r="H20" s="1">
-        <v>0.36</v>
-      </c>
       <c r="I20" s="1">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="J20" s="1">
-        <v>63.64</v>
+        <v>80.28</v>
       </c>
       <c r="K20" s="1">
         <v>87.2</v>
@@ -23376,28 +23406,28 @@
         <v>18</v>
       </c>
       <c r="C21" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1">
         <v>517</v>
       </c>
       <c r="E21" s="1">
-        <v>0.112</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="F21" s="1">
-        <v>0.13800000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="G21" s="1">
-        <v>0.60799999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="H21" s="1">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="I21" s="1">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="J21" s="1">
-        <v>63.64</v>
+        <v>84.06</v>
       </c>
       <c r="K21" s="1">
         <v>89.77</v>
@@ -23413,28 +23443,28 @@
         <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1">
         <v>517</v>
       </c>
       <c r="E22" s="1">
-        <v>0.11</v>
+        <v>0.185</v>
       </c>
       <c r="F22" s="1">
-        <v>0.13200000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="G22" s="1">
-        <v>0.60799999999999998</v>
+        <v>0.623</v>
       </c>
       <c r="H22" s="1">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="I22" s="1">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="J22" s="1">
-        <v>63.64</v>
+        <v>77.89</v>
       </c>
       <c r="K22" s="1">
         <v>90.86</v>
@@ -23450,28 +23480,28 @@
         <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1">
         <v>517</v>
       </c>
       <c r="E23" s="1">
-        <v>0.11</v>
+        <v>0.182</v>
       </c>
       <c r="F23" s="1">
-        <v>0.13200000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="G23" s="1">
-        <v>0.60799999999999998</v>
+        <v>0.627</v>
       </c>
       <c r="H23" s="1">
-        <v>0.36</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="J23" s="1">
-        <v>63.64</v>
+        <v>73.31</v>
       </c>
       <c r="K23" s="1">
         <v>92.06</v>
@@ -23487,28 +23517,28 @@
         <v>21</v>
       </c>
       <c r="C24" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1">
         <v>517</v>
       </c>
       <c r="E24" s="1">
-        <v>0.105</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="F24" s="1">
-        <v>0.123</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="G24" s="1">
-        <v>0.60799999999999998</v>
+        <v>0.626</v>
       </c>
       <c r="H24" s="1">
-        <v>0.36</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="J24" s="1">
-        <v>63.64</v>
+        <v>73.31</v>
       </c>
       <c r="K24" s="1">
         <v>94.29</v>
@@ -23524,28 +23554,28 @@
         <v>22</v>
       </c>
       <c r="C25" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1">
         <v>517</v>
       </c>
       <c r="E25" s="1">
-        <v>0.105</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="F25" s="1">
-        <v>0.123</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="G25" s="1">
-        <v>0.60799999999999998</v>
+        <v>0.625</v>
       </c>
       <c r="H25" s="1">
-        <v>0.36</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="J25" s="1">
-        <v>63.64</v>
+        <v>73.510000000000005</v>
       </c>
       <c r="K25" s="1">
         <v>95.19</v>
@@ -23561,28 +23591,28 @@
         <v>23</v>
       </c>
       <c r="C26" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1">
         <v>517</v>
       </c>
       <c r="E26" s="1">
-        <v>0.104</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F26" s="1">
-        <v>0.108</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="G26" s="1">
-        <v>0.60699999999999998</v>
+        <v>0.625</v>
       </c>
       <c r="H26" s="1">
-        <v>0.35899999999999999</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="J26" s="1">
-        <v>63.64</v>
+        <v>73.510000000000005</v>
       </c>
       <c r="K26" s="1">
         <v>96.11</v>
@@ -23598,28 +23628,28 @@
         <v>24</v>
       </c>
       <c r="C27" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1">
         <v>517</v>
       </c>
       <c r="E27" s="1">
-        <v>0.10299999999999999</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F27" s="1">
-        <v>0.107</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="G27" s="1">
-        <v>0.60699999999999998</v>
+        <v>0.624</v>
       </c>
       <c r="H27" s="1">
-        <v>0.35799999999999998</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="I27" s="1">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="J27" s="1">
-        <v>63.64</v>
+        <v>73.510000000000005</v>
       </c>
       <c r="K27" s="1">
         <v>96.24</v>
@@ -23635,28 +23665,28 @@
         <v>25</v>
       </c>
       <c r="C28" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="13">
         <v>517</v>
       </c>
       <c r="E28" s="13">
-        <v>0.10299999999999999</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="F28" s="13">
-        <v>0.107</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="G28" s="13">
-        <v>0.60699999999999998</v>
+        <v>0.623</v>
       </c>
       <c r="H28" s="13">
-        <v>0.35799999999999998</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="I28" s="13">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="J28" s="13">
-        <v>63.64</v>
+        <v>72.31</v>
       </c>
       <c r="K28" s="13">
         <v>96.55</v>
@@ -23683,19 +23713,19 @@
         <v>0.184</v>
       </c>
       <c r="F29" s="6">
-        <v>5.1999999999999998E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G29" s="6">
         <v>0.67</v>
       </c>
       <c r="H29" s="6">
-        <v>0.47099999999999997</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="I29" s="6">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="J29" s="6">
-        <v>65.94</v>
+        <v>81.92</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="7">
@@ -23709,35 +23739,35 @@
         <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1">
-        <v>662</v>
+        <v>415</v>
       </c>
       <c r="E30" s="1">
-        <v>2.3E-2</v>
+        <v>0.5</v>
       </c>
       <c r="F30" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="G30" s="1">
-        <v>0.32100000000000001</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="H30" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="I30" s="1">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="J30" s="1">
-        <v>51.39</v>
+        <v>88.75</v>
       </c>
       <c r="K30" s="1">
         <v>22.1</v>
       </c>
       <c r="L30" s="9">
         <f>(D30*100)/D29</f>
-        <v>100</v>
+        <v>62.688821752265859</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -23746,35 +23776,35 @@
         <v>27</v>
       </c>
       <c r="C31" s="1">
-        <v>404</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1">
-        <v>662</v>
+        <v>308</v>
       </c>
       <c r="E31" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="F31" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.312</v>
       </c>
       <c r="G31" s="1">
-        <v>0.24299999999999999</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="H31" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="I31" s="1">
-        <v>425</v>
+        <v>54</v>
       </c>
       <c r="J31" s="1">
-        <v>34.21</v>
+        <v>81.63</v>
       </c>
       <c r="K31" s="1">
         <v>30.95</v>
       </c>
       <c r="L31" s="9">
         <f>(D31*100)/D29</f>
-        <v>100</v>
+        <v>46.525679758308158</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -23783,35 +23813,35 @@
         <v>28</v>
       </c>
       <c r="C32" s="1">
-        <v>459</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1">
-        <v>662</v>
+        <v>250</v>
       </c>
       <c r="E32" s="1">
-        <v>2.4E-2</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="F32" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.316</v>
       </c>
       <c r="G32" s="1">
-        <v>0.184</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="H32" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="I32" s="1">
-        <v>460</v>
+        <v>43</v>
       </c>
       <c r="J32" s="1">
-        <v>28.79</v>
+        <v>81.78</v>
       </c>
       <c r="K32" s="1">
         <v>32.43</v>
       </c>
       <c r="L32" s="9">
         <f>(D32*100)/D29</f>
-        <v>100</v>
+        <v>37.764350453172206</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -23820,35 +23850,35 @@
         <v>29</v>
       </c>
       <c r="C33" s="1">
-        <v>496</v>
+        <v>42</v>
       </c>
       <c r="D33" s="1">
-        <v>662</v>
+        <v>209</v>
       </c>
       <c r="E33" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="F33" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="G33" s="1">
-        <v>0.14699999999999999</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="H33" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="I33" s="1">
-        <v>488</v>
+        <v>32</v>
       </c>
       <c r="J33" s="1">
-        <v>24.46</v>
+        <v>83.67</v>
       </c>
       <c r="K33" s="1">
         <v>34.33</v>
       </c>
       <c r="L33" s="9">
         <f>(D33*100)/D29</f>
-        <v>100</v>
+        <v>31.570996978851962</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -23857,35 +23887,35 @@
         <v>30</v>
       </c>
       <c r="C34" s="1">
-        <v>508</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1">
-        <v>662</v>
+        <v>199</v>
       </c>
       <c r="E34" s="1">
-        <v>2.3E-2</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="F34" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="G34" s="1">
-        <v>0.13700000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="H34" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="I34" s="1">
-        <v>499</v>
+        <v>33</v>
       </c>
       <c r="J34" s="1">
-        <v>22.76</v>
+        <v>82.26</v>
       </c>
       <c r="K34" s="1">
         <v>35.04</v>
       </c>
       <c r="L34" s="9">
         <f>(D34*100)/D29</f>
-        <v>100</v>
+        <v>30.060422960725077</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -23894,35 +23924,35 @@
         <v>31</v>
       </c>
       <c r="C35" s="1">
-        <v>530</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1">
-        <v>662</v>
+        <v>178</v>
       </c>
       <c r="E35" s="1">
-        <v>2.4E-2</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="F35" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="G35" s="1">
-        <v>0.106</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="H35" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="I35" s="1">
-        <v>521</v>
+        <v>34</v>
       </c>
       <c r="J35" s="1">
-        <v>19.350000000000001</v>
+        <v>79.52</v>
       </c>
       <c r="K35" s="1">
         <v>36.549999999999997</v>
       </c>
       <c r="L35" s="9">
         <f>(D35*100)/D29</f>
-        <v>100</v>
+        <v>26.888217522658611</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -23931,35 +23961,35 @@
         <v>32</v>
       </c>
       <c r="C36" s="1">
-        <v>543</v>
+        <v>45</v>
       </c>
       <c r="D36" s="1">
-        <v>662</v>
+        <v>165</v>
       </c>
       <c r="E36" s="1">
-        <v>2.4E-2</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="F36" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="G36" s="1">
-        <v>9.0999999999999998E-2</v>
+        <v>0.876</v>
       </c>
       <c r="H36" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="I36" s="1">
-        <v>531</v>
+        <v>34</v>
       </c>
       <c r="J36" s="1">
-        <v>17.8</v>
+        <v>77.78</v>
       </c>
       <c r="K36" s="1">
         <v>36.83</v>
       </c>
       <c r="L36" s="9">
         <f>(D36*100)/D29</f>
-        <v>100</v>
+        <v>24.924471299093657</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -23968,35 +23998,35 @@
         <v>33</v>
       </c>
       <c r="C37" s="1">
-        <v>571</v>
+        <v>36</v>
       </c>
       <c r="D37" s="1">
-        <v>662</v>
+        <v>127</v>
       </c>
       <c r="E37" s="1">
-        <v>0.02</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="F37" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="G37" s="1">
-        <v>7.5999999999999998E-2</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="H37" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="I37" s="1">
-        <v>557</v>
+        <v>28</v>
       </c>
       <c r="J37" s="1">
-        <v>13.78</v>
+        <v>76.27</v>
       </c>
       <c r="K37" s="1">
         <v>40.28</v>
       </c>
       <c r="L37" s="9">
         <f>(D37*100)/D29</f>
-        <v>100</v>
+        <v>19.184290030211482</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -24005,35 +24035,35 @@
         <v>34</v>
       </c>
       <c r="C38" s="1">
-        <v>578</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1">
-        <v>662</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>0.623</v>
       </c>
       <c r="F38" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="G38" s="1">
-        <v>7.0999999999999994E-2</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="H38" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="I38" s="1">
-        <v>564</v>
+        <v>24</v>
       </c>
       <c r="J38" s="1">
-        <v>12.69</v>
+        <v>77.569999999999993</v>
       </c>
       <c r="K38" s="1">
         <v>38.11</v>
       </c>
       <c r="L38" s="9">
         <f>(D38*100)/D29</f>
-        <v>100</v>
+        <v>17.522658610271904</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -24042,35 +24072,35 @@
         <v>35</v>
       </c>
       <c r="C39" s="3">
-        <v>582</v>
+        <v>30</v>
       </c>
       <c r="D39" s="3">
-        <v>662</v>
+        <v>110</v>
       </c>
       <c r="E39" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>0.64</v>
       </c>
       <c r="F39" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>0.35</v>
       </c>
       <c r="G39" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>0.88</v>
       </c>
       <c r="H39" s="3">
-        <v>0.47099999999999997</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="I39" s="3">
-        <v>568</v>
+        <v>21</v>
       </c>
       <c r="J39" s="3">
-        <v>12.07</v>
+        <v>79.209999999999994</v>
       </c>
       <c r="K39" s="3">
         <v>37.97</v>
       </c>
       <c r="L39" s="11">
         <f>(D39*100)/D29</f>
-        <v>100</v>
+        <v>16.61631419939577</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -24079,35 +24109,35 @@
         <v>36</v>
       </c>
       <c r="C40" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="E40" s="1">
-        <v>0.156</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="F40" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="G40" s="1">
-        <v>0.67500000000000004</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="H40" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="I40" s="1">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="J40" s="17">
-        <v>66.25</v>
+        <v>91.46</v>
       </c>
       <c r="K40" s="1">
         <v>55.86</v>
       </c>
       <c r="L40" s="9">
         <f>(D40*100)/D29</f>
-        <v>100</v>
+        <v>101.3595166163142</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -24116,35 +24146,35 @@
         <v>37</v>
       </c>
       <c r="C41" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" s="1">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="E41" s="1">
-        <v>0.17100000000000001</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="F41" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="G41" s="1">
-        <v>0.67100000000000004</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="H41" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="I41" s="1">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="J41" s="1">
-        <v>66.72</v>
+        <v>81.13</v>
       </c>
       <c r="K41" s="1">
         <v>74.66</v>
       </c>
       <c r="L41" s="9">
         <f>(D41*100)/D29</f>
-        <v>100</v>
+        <v>100.75528700906344</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -24153,35 +24183,35 @@
         <v>38</v>
       </c>
       <c r="C42" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D42" s="1">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E42" s="1">
-        <v>0.17100000000000001</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="F42" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="G42" s="1">
-        <v>0.66900000000000004</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="H42" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="I42" s="1">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="J42" s="1">
-        <v>67.8</v>
+        <v>85.19</v>
       </c>
       <c r="K42" s="1">
         <v>80.84</v>
       </c>
       <c r="L42" s="9">
         <f>(D42*100)/D29</f>
-        <v>100</v>
+        <v>100.15105740181269</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -24190,35 +24220,35 @@
         <v>39</v>
       </c>
       <c r="C43" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D43" s="1">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E43" s="1">
-        <v>0.17100000000000001</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="F43" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="G43" s="1">
-        <v>0.66800000000000004</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="H43" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="I43" s="1">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="J43" s="1">
-        <v>67.650000000000006</v>
+        <v>82.72</v>
       </c>
       <c r="K43" s="1">
         <v>84.27</v>
       </c>
       <c r="L43" s="9">
         <f>(D43*100)/D29</f>
-        <v>100</v>
+        <v>100.15105740181269</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -24230,32 +24260,32 @@
         <v>30</v>
       </c>
       <c r="D44" s="1">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E44" s="1">
-        <v>0.17499999999999999</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="F44" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="G44" s="1">
-        <v>0.66600000000000004</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="H44" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="I44" s="1">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="J44" s="1">
-        <v>67.8</v>
+        <v>82.72</v>
       </c>
       <c r="K44" s="1">
         <v>85.56</v>
       </c>
       <c r="L44" s="9">
         <f>(D44*100)/D29</f>
-        <v>100</v>
+        <v>100.15105740181269</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -24267,32 +24297,32 @@
         <v>30</v>
       </c>
       <c r="D45" s="1">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E45" s="1">
-        <v>0.17399999999999999</v>
+        <v>0.223</v>
       </c>
       <c r="F45" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.129</v>
       </c>
       <c r="G45" s="1">
-        <v>0.66600000000000004</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="H45" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="I45" s="1">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="J45" s="1">
-        <v>68.42</v>
+        <v>82.72</v>
       </c>
       <c r="K45" s="1">
         <v>88.17</v>
       </c>
       <c r="L45" s="9">
         <f>(D45*100)/D29</f>
-        <v>100</v>
+        <v>100.15105740181269</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -24301,35 +24331,35 @@
         <v>42</v>
       </c>
       <c r="C46" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D46" s="1">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E46" s="1">
-        <v>0.17799999999999999</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="F46" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.127</v>
       </c>
       <c r="G46" s="1">
-        <v>0.66700000000000004</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="H46" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="I46" s="1">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="J46" s="1">
-        <v>63.62</v>
+        <v>83.49</v>
       </c>
       <c r="K46" s="1">
         <v>89.52</v>
       </c>
       <c r="L46" s="9">
         <f>(D46*100)/D29</f>
-        <v>100</v>
+        <v>100.15105740181269</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -24338,28 +24368,28 @@
         <v>43</v>
       </c>
       <c r="C47" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D47" s="1">
         <v>662</v>
       </c>
       <c r="E47" s="1">
-        <v>0.17499999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="F47" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.124</v>
       </c>
       <c r="G47" s="1">
-        <v>0.66700000000000004</v>
+        <v>0.69</v>
       </c>
       <c r="H47" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="I47" s="1">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="J47" s="1">
-        <v>66.41</v>
+        <v>83.46</v>
       </c>
       <c r="K47" s="1">
         <v>92.58</v>
@@ -24375,28 +24405,28 @@
         <v>44</v>
       </c>
       <c r="C48" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D48" s="1">
         <v>662</v>
       </c>
       <c r="E48" s="1">
-        <v>0.17499999999999999</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F48" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.123</v>
       </c>
       <c r="G48" s="1">
-        <v>0.66900000000000004</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="H48" s="1">
-        <v>0.47099999999999997</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="I48" s="1">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="J48" s="1">
-        <v>66.41</v>
+        <v>83</v>
       </c>
       <c r="K48" s="1">
         <v>93.32</v>
@@ -24412,28 +24442,28 @@
         <v>45</v>
       </c>
       <c r="C49" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" s="13">
         <v>662</v>
       </c>
       <c r="E49" s="13">
-        <v>0.17499999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="F49" s="13">
-        <v>5.1999999999999998E-2</v>
+        <v>0.123</v>
       </c>
       <c r="G49" s="13">
-        <v>0.66900000000000004</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="H49" s="13">
-        <v>0.47099999999999997</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="I49" s="13">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="J49" s="13">
-        <v>66.41</v>
+        <v>82.84</v>
       </c>
       <c r="K49" s="13">
         <v>93.49</v>
@@ -24460,19 +24490,19 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F50" s="6">
-        <v>0.03</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G50" s="6">
         <v>0.69599999999999995</v>
       </c>
       <c r="H50" s="6">
-        <v>0.35399999999999998</v>
+        <v>0.499</v>
       </c>
       <c r="I50" s="6">
-        <v>2668</v>
+        <v>1978</v>
       </c>
       <c r="J50" s="6">
-        <v>39.11</v>
+        <v>55.07</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="7">
@@ -24486,35 +24516,35 @@
         <v>52</v>
       </c>
       <c r="C51" s="1">
-        <v>3011</v>
+        <v>47</v>
       </c>
       <c r="D51" s="1">
-        <v>4414</v>
+        <v>1469</v>
       </c>
       <c r="E51" s="1">
-        <v>2E-3</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="F51" s="1">
-        <v>0.03</v>
+        <v>0.121</v>
       </c>
       <c r="G51" s="1">
-        <v>0.115</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="H51" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="I51" s="1">
-        <v>3792</v>
+        <v>675</v>
       </c>
       <c r="J51" s="1">
-        <v>13.46</v>
+        <v>53.74</v>
       </c>
       <c r="K51" s="1">
         <v>14.97</v>
       </c>
       <c r="L51" s="9">
         <f>(D51*100)/D50</f>
-        <v>100</v>
+        <v>33.280471227911192</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -24523,35 +24553,35 @@
         <v>53</v>
       </c>
       <c r="C52" s="1">
-        <v>3153</v>
+        <v>65</v>
       </c>
       <c r="D52" s="1">
-        <v>4414</v>
+        <v>1343</v>
       </c>
       <c r="E52" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="F52" s="1">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="G52" s="1">
-        <v>0.10299999999999999</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="H52" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="I52" s="1">
-        <v>3787</v>
+        <v>568</v>
       </c>
       <c r="J52" s="1">
-        <v>13.58</v>
+        <v>57.39</v>
       </c>
       <c r="K52" s="1">
         <v>18.11</v>
       </c>
       <c r="L52" s="9">
         <f>(D52*100)/D50</f>
-        <v>100</v>
+        <v>30.425917535115541</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -24560,35 +24590,35 @@
         <v>54</v>
       </c>
       <c r="C53" s="1">
-        <v>3258</v>
+        <v>68</v>
       </c>
       <c r="D53" s="1">
-        <v>4414</v>
+        <v>1242</v>
       </c>
       <c r="E53" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.379</v>
       </c>
       <c r="F53" s="1">
-        <v>0.03</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="G53" s="1">
-        <v>9.1999999999999998E-2</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="H53" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="I53" s="1">
-        <v>3795</v>
+        <v>505</v>
       </c>
       <c r="J53" s="1">
-        <v>13.4</v>
+        <v>59.01</v>
       </c>
       <c r="K53" s="1">
         <v>18.899999999999999</v>
       </c>
       <c r="L53" s="9">
         <f>(D53*100)/D50</f>
-        <v>100</v>
+        <v>28.137743543271409</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
@@ -24597,35 +24627,35 @@
         <v>55</v>
       </c>
       <c r="C54" s="1">
-        <v>3585</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1">
-        <v>4414</v>
+        <v>933</v>
       </c>
       <c r="E54" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="F54" s="1">
-        <v>0.03</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="G54" s="1">
-        <v>6.5000000000000002E-2</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="H54" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="I54" s="1">
-        <v>3916</v>
+        <v>374</v>
       </c>
       <c r="J54" s="1">
-        <v>10.63</v>
+        <v>59.52</v>
       </c>
       <c r="K54" s="1">
         <v>22.96</v>
       </c>
       <c r="L54" s="9">
         <f>(D54*100)/D50</f>
-        <v>100</v>
+        <v>21.137290439510647</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -24634,35 +24664,35 @@
         <v>56</v>
       </c>
       <c r="C55" s="1">
-        <v>3602</v>
+        <v>90</v>
       </c>
       <c r="D55" s="1">
-        <v>4414</v>
+        <v>917</v>
       </c>
       <c r="E55" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="F55" s="1">
-        <v>0.03</v>
+        <v>0.155</v>
       </c>
       <c r="G55" s="1">
-        <v>6.3E-2</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="H55" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.623</v>
       </c>
       <c r="I55" s="1">
-        <v>3919</v>
+        <v>377</v>
       </c>
       <c r="J55" s="1">
-        <v>10.57</v>
+        <v>58.48</v>
       </c>
       <c r="K55" s="1">
         <v>24.16</v>
       </c>
       <c r="L55" s="9">
         <f>(D55*100)/D50</f>
-        <v>100</v>
+        <v>20.774807430901678</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -24671,35 +24701,35 @@
         <v>47</v>
       </c>
       <c r="C56" s="1">
-        <v>3653</v>
+        <v>89</v>
       </c>
       <c r="D56" s="1">
-        <v>4414</v>
+        <v>866</v>
       </c>
       <c r="E56" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.4</v>
       </c>
       <c r="F56" s="1">
-        <v>0.03</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="G56" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.86</v>
       </c>
       <c r="H56" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="I56" s="1">
-        <v>3949</v>
+        <v>356</v>
       </c>
       <c r="J56" s="1">
-        <v>9.8800000000000008</v>
+        <v>58.46</v>
       </c>
       <c r="K56" s="1">
         <v>24.32</v>
       </c>
       <c r="L56" s="9">
         <f>(D56*100)/D50</f>
-        <v>100</v>
+        <v>19.619392840960579</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -24708,35 +24738,35 @@
         <v>48</v>
       </c>
       <c r="C57" s="1">
-        <v>4045</v>
+        <v>93</v>
       </c>
       <c r="D57" s="1">
-        <v>4414</v>
+        <v>474</v>
       </c>
       <c r="E57" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.502</v>
       </c>
       <c r="F57" s="1">
-        <v>0.03</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="G57" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="H57" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="I57" s="1">
-        <v>4108</v>
+        <v>162</v>
       </c>
       <c r="J57" s="1">
-        <v>6.25</v>
+        <v>65.16</v>
       </c>
       <c r="K57" s="1">
         <v>32.42</v>
       </c>
       <c r="L57" s="9">
         <f>(D57*100)/D50</f>
-        <v>100</v>
+        <v>10.738559130040779</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -24745,35 +24775,35 @@
         <v>49</v>
       </c>
       <c r="C58" s="1">
-        <v>4056</v>
+        <v>96</v>
       </c>
       <c r="D58" s="1">
-        <v>4414</v>
+        <v>465</v>
       </c>
       <c r="E58" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.498</v>
       </c>
       <c r="F58" s="1">
-        <v>0.03</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G58" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.871</v>
       </c>
       <c r="H58" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="I58" s="1">
-        <v>4117</v>
+        <v>164</v>
       </c>
       <c r="J58" s="1">
-        <v>6.05</v>
+        <v>64.040000000000006</v>
       </c>
       <c r="K58" s="1">
         <v>35.22</v>
       </c>
       <c r="L58" s="9">
         <f>(D58*100)/D50</f>
-        <v>100</v>
+        <v>10.534662437698232</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -24782,35 +24812,35 @@
         <v>50</v>
       </c>
       <c r="C59" s="1">
-        <v>4075</v>
+        <v>97</v>
       </c>
       <c r="D59" s="1">
-        <v>4414</v>
+        <v>447</v>
       </c>
       <c r="E59" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="F59" s="1">
-        <v>0.03</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="G59" s="1">
-        <v>2.4E-2</v>
+        <v>0.871</v>
       </c>
       <c r="H59" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="I59" s="1">
-        <v>4128</v>
+        <v>159</v>
       </c>
       <c r="J59" s="1">
-        <v>5.8</v>
+        <v>63.7</v>
       </c>
       <c r="K59" s="1">
         <v>35</v>
       </c>
       <c r="L59" s="9">
         <f>(D59*100)/D50</f>
-        <v>100</v>
+        <v>10.12686905301314</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -24819,35 +24849,35 @@
         <v>51</v>
       </c>
       <c r="C60" s="3">
-        <v>4139</v>
+        <v>86</v>
       </c>
       <c r="D60" s="3">
-        <v>4414</v>
+        <v>370</v>
       </c>
       <c r="E60" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="F60" s="3">
-        <v>0.03</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="G60" s="3">
-        <v>0.02</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="H60" s="3">
-        <v>0.35399999999999998</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="I60" s="3">
-        <v>4174</v>
+        <v>134</v>
       </c>
       <c r="J60" s="3">
-        <v>4.75</v>
+        <v>62.88</v>
       </c>
       <c r="K60" s="3">
         <v>36.61</v>
       </c>
       <c r="L60" s="11">
         <f>(D60*100)/D50</f>
-        <v>100</v>
+        <v>8.3824195740824656</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -24856,35 +24886,35 @@
         <v>57</v>
       </c>
       <c r="C61" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D61" s="1">
-        <v>4414</v>
+        <v>4432</v>
       </c>
       <c r="E61" s="1">
-        <v>6.3E-2</v>
+        <v>0.127</v>
       </c>
       <c r="F61" s="1">
-        <v>0.03</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="G61" s="1">
-        <v>0.69899999999999995</v>
+        <v>0.7</v>
       </c>
       <c r="H61" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="I61" s="1">
-        <v>2604</v>
+        <v>1889</v>
       </c>
       <c r="J61" s="1">
-        <v>40.58</v>
+        <v>57.26</v>
       </c>
       <c r="K61" s="1">
         <v>68.67</v>
       </c>
       <c r="L61" s="9">
         <f>(D61*100)/D50</f>
-        <v>100</v>
+        <v>100.40779338468509</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
@@ -24893,35 +24923,35 @@
         <v>58</v>
       </c>
       <c r="C62" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="1">
-        <v>4414</v>
+        <v>4431</v>
       </c>
       <c r="E62" s="1">
-        <v>0.06</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="F62" s="1">
-        <v>0.03</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G62" s="1">
-        <v>0.69899999999999995</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="H62" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.501</v>
       </c>
       <c r="I62" s="1">
-        <v>2598</v>
+        <v>1932</v>
       </c>
       <c r="J62" s="1">
-        <v>40.71</v>
+        <v>56.28</v>
       </c>
       <c r="K62" s="1">
         <v>77.209999999999994</v>
       </c>
       <c r="L62" s="9">
         <f>(D62*100)/D50</f>
-        <v>100</v>
+        <v>100.38513819664703</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
@@ -24930,35 +24960,35 @@
         <v>59</v>
       </c>
       <c r="C63" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="1">
-        <v>4414</v>
+        <v>4431</v>
       </c>
       <c r="E63" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F63" s="1">
-        <v>0.03</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="G63" s="1">
-        <v>0.69899999999999995</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="H63" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.501</v>
       </c>
       <c r="I63" s="1">
-        <v>2615</v>
+        <v>1960</v>
       </c>
       <c r="J63" s="1">
-        <v>40.32</v>
+        <v>55.65</v>
       </c>
       <c r="K63" s="1">
         <v>80.36</v>
       </c>
       <c r="L63" s="9">
         <f>(D63*100)/D50</f>
-        <v>100</v>
+        <v>100.38513819664703</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -24967,35 +24997,35 @@
         <v>60</v>
       </c>
       <c r="C64" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64" s="1">
-        <v>4414</v>
+        <v>4429</v>
       </c>
       <c r="E64" s="1">
-        <v>7.1999999999999995E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="F64" s="1">
-        <v>0.03</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G64" s="1">
         <v>0.7</v>
       </c>
       <c r="H64" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.502</v>
       </c>
       <c r="I64" s="1">
-        <v>2591</v>
+        <v>1947</v>
       </c>
       <c r="J64" s="1">
-        <v>40.869999999999997</v>
+        <v>55.92</v>
       </c>
       <c r="K64" s="1">
         <v>88.49</v>
       </c>
       <c r="L64" s="9">
         <f>(D64*100)/D50</f>
-        <v>100</v>
+        <v>100.33982782057092</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -25004,35 +25034,35 @@
         <v>61</v>
       </c>
       <c r="C65" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D65" s="1">
-        <v>4414</v>
+        <v>4429</v>
       </c>
       <c r="E65" s="1">
-        <v>8.4000000000000005E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="F65" s="1">
-        <v>0.03</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G65" s="1">
         <v>0.7</v>
       </c>
       <c r="H65" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.502</v>
       </c>
       <c r="I65" s="1">
-        <v>2621</v>
+        <v>1889</v>
       </c>
       <c r="J65" s="1">
-        <v>40.19</v>
+        <v>57.23</v>
       </c>
       <c r="K65" s="1">
         <v>89.61</v>
       </c>
       <c r="L65" s="9">
         <f>(D65*100)/D50</f>
-        <v>100</v>
+        <v>100.33982782057092</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
@@ -25041,35 +25071,35 @@
         <v>62</v>
       </c>
       <c r="C66" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D66" s="1">
-        <v>4414</v>
+        <v>4429</v>
       </c>
       <c r="E66" s="1">
-        <v>8.4000000000000005E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="F66" s="1">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G66" s="1">
         <v>0.7</v>
       </c>
       <c r="H66" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.501</v>
       </c>
       <c r="I66" s="1">
-        <v>2621</v>
+        <v>1862</v>
       </c>
       <c r="J66" s="1">
-        <v>40.19</v>
+        <v>57.84</v>
       </c>
       <c r="K66" s="1">
         <v>90.52</v>
       </c>
       <c r="L66" s="9">
         <f>(D66*100)/D50</f>
-        <v>100</v>
+        <v>100.33982782057092</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -25078,35 +25108,35 @@
         <v>63</v>
       </c>
       <c r="C67" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D67" s="1">
-        <v>4414</v>
+        <v>4425</v>
       </c>
       <c r="E67" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F67" s="1">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G67" s="1">
-        <v>0.69899999999999995</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="H67" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.502</v>
       </c>
       <c r="I67" s="1">
-        <v>2611</v>
+        <v>1877</v>
       </c>
       <c r="J67" s="1">
-        <v>40.42</v>
+        <v>57.47</v>
       </c>
       <c r="K67" s="1">
         <v>96.51</v>
       </c>
       <c r="L67" s="9">
         <f>(D67*100)/D50</f>
-        <v>100</v>
+        <v>100.24920706841867</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -25115,35 +25145,35 @@
         <v>64</v>
       </c>
       <c r="C68" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D68" s="1">
-        <v>4414</v>
+        <v>4425</v>
       </c>
       <c r="E68" s="1">
-        <v>6.5000000000000002E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F68" s="1">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G68" s="1">
-        <v>0.69799999999999995</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="H68" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.502</v>
       </c>
       <c r="I68" s="1">
-        <v>2627</v>
+        <v>1926</v>
       </c>
       <c r="J68" s="1">
-        <v>40.049999999999997</v>
+        <v>56.36</v>
       </c>
       <c r="K68" s="1">
         <v>97.05</v>
       </c>
       <c r="L68" s="9">
         <f>(D68*100)/D50</f>
-        <v>100</v>
+        <v>100.24920706841867</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -25152,35 +25182,35 @@
         <v>65</v>
       </c>
       <c r="C69" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D69" s="1">
-        <v>4414</v>
+        <v>4425</v>
       </c>
       <c r="E69" s="1">
-        <v>6.5000000000000002E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F69" s="1">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G69" s="1">
-        <v>0.69799999999999995</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="H69" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.502</v>
       </c>
       <c r="I69" s="1">
-        <v>2627</v>
+        <v>1926</v>
       </c>
       <c r="J69" s="1">
-        <v>40.049999999999997</v>
+        <v>56.36</v>
       </c>
       <c r="K69" s="1">
         <v>97.17</v>
       </c>
       <c r="L69" s="9">
         <f>(D69*100)/D50</f>
-        <v>100</v>
+        <v>100.24920706841867</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -25189,35 +25219,35 @@
         <v>66</v>
       </c>
       <c r="C70" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D70" s="13">
-        <v>4414</v>
+        <v>4424</v>
       </c>
       <c r="E70" s="13">
-        <v>6.5000000000000002E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F70" s="13">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G70" s="13">
-        <v>0.69799999999999995</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="H70" s="13">
-        <v>0.35399999999999998</v>
+        <v>0.502</v>
       </c>
       <c r="I70" s="13">
-        <v>2627</v>
+        <v>1926</v>
       </c>
       <c r="J70" s="1">
-        <v>40.049999999999997</v>
+        <v>56.35</v>
       </c>
       <c r="K70" s="13">
         <v>97.74</v>
       </c>
       <c r="L70" s="14">
         <f>(D70*100)/D50</f>
-        <v>100</v>
+        <v>100.22655188038061</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
@@ -25234,22 +25264,22 @@
         <v>210</v>
       </c>
       <c r="E71" s="6">
-        <v>0.14399999999999999</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="F71" s="6">
-        <v>4.2000000000000003E-2</v>
+        <v>0.151</v>
       </c>
       <c r="G71" s="6">
         <v>0.53500000000000003</v>
       </c>
       <c r="H71" s="6">
-        <v>0.16300000000000001</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="I71" s="6">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="J71" s="6">
-        <v>59.9</v>
+        <v>76.12</v>
       </c>
       <c r="K71" s="6"/>
       <c r="L71" s="6">
@@ -25263,35 +25293,35 @@
         <v>76</v>
       </c>
       <c r="C72" s="1">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="D72" s="1">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="E72" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="F72" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G72" s="1">
-        <v>6.3E-2</v>
+        <v>0.497</v>
       </c>
       <c r="H72" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="I72" s="1">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="J72" s="1">
-        <v>20.77</v>
+        <v>55.93</v>
       </c>
       <c r="K72" s="1">
         <v>31.15</v>
       </c>
       <c r="L72" s="9">
         <f>(D72*100)/D71</f>
-        <v>100</v>
+        <v>31.904761904761905</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
@@ -25300,35 +25330,35 @@
         <v>77</v>
       </c>
       <c r="C73" s="1">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="D73" s="1">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="E73" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="F73" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="G73" s="1">
-        <v>7.6999999999999999E-2</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="H73" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="I73" s="1">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="J73" s="1">
-        <v>14.49</v>
+        <v>66.67</v>
       </c>
       <c r="K73" s="1">
         <v>38.130000000000003</v>
       </c>
       <c r="L73" s="9">
         <f>(D73*100)/D71</f>
-        <v>100</v>
+        <v>23.80952380952381</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
@@ -25337,35 +25367,35 @@
         <v>78</v>
       </c>
       <c r="C74" s="1">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="D74" s="1">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="E74" s="1">
-        <v>2.7E-2</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="F74" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="G74" s="1">
-        <v>6.9000000000000006E-2</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="H74" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="I74" s="1">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="J74" s="1">
-        <v>12.08</v>
+        <v>76.47</v>
       </c>
       <c r="K74" s="1">
         <v>56.06</v>
       </c>
       <c r="L74" s="9">
         <f>(D74*100)/D71</f>
-        <v>100</v>
+        <v>19.523809523809526</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -25374,35 +25404,35 @@
         <v>79</v>
       </c>
       <c r="C75" s="1">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="D75" s="1">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="E75" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="F75" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="G75" s="1">
-        <v>6.3E-2</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="H75" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="I75" s="1">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="J75" s="1">
-        <v>10.14</v>
+        <v>88</v>
       </c>
       <c r="K75" s="1">
         <v>56.14</v>
       </c>
       <c r="L75" s="9">
         <f>(D75*100)/D71</f>
-        <v>100</v>
+        <v>14.761904761904763</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -25411,35 +25441,35 @@
         <v>80</v>
       </c>
       <c r="C76" s="1">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="D76" s="1">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="E76" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>0.6</v>
       </c>
       <c r="F76" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.502</v>
       </c>
       <c r="G76" s="1">
-        <v>6.3E-2</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="H76" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="I76" s="1">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="J76" s="1">
-        <v>10.14</v>
+        <v>88</v>
       </c>
       <c r="K76" s="1">
         <v>55.36</v>
       </c>
       <c r="L76" s="9">
         <f>(D76*100)/D71</f>
-        <v>100</v>
+        <v>14.761904761904763</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
@@ -25448,35 +25478,35 @@
         <v>81</v>
       </c>
       <c r="C77" s="1">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="E77" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="F77" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.441</v>
       </c>
       <c r="G77" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="H77" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="I77" s="1">
-        <v>189</v>
+        <v>4</v>
       </c>
       <c r="J77" s="1">
-        <v>8.6999999999999993</v>
+        <v>82.61</v>
       </c>
       <c r="K77" s="1">
         <v>64.099999999999994</v>
       </c>
       <c r="L77" s="9">
         <f>(D77*100)/D71</f>
-        <v>100</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
@@ -25485,35 +25515,35 @@
         <v>82</v>
       </c>
       <c r="C78" s="1">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="D78" s="1">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="E78" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="F78" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="G78" s="1">
-        <v>0.04</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="H78" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="I78" s="1">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="J78" s="1">
-        <v>8.2100000000000009</v>
+        <v>85.71</v>
       </c>
       <c r="K78" s="1">
         <v>63.16</v>
       </c>
       <c r="L78" s="9">
         <f>(D78*100)/D71</f>
-        <v>100</v>
+        <v>12.380952380952381</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
@@ -25522,35 +25552,35 @@
         <v>83</v>
       </c>
       <c r="C79" s="1">
-        <v>197</v>
+        <v>5</v>
       </c>
       <c r="D79" s="1">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="E79" s="1">
-        <v>1.4E-2</v>
+        <v>0.59</v>
       </c>
       <c r="F79" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G79" s="1">
-        <v>0.02</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="H79" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="I79" s="1">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="J79" s="1">
-        <v>5.31</v>
+        <v>92.31</v>
       </c>
       <c r="K79" s="1">
         <v>61.54</v>
       </c>
       <c r="L79" s="9">
         <f>(D79*100)/D71</f>
-        <v>100</v>
+        <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
@@ -25559,35 +25589,35 @@
         <v>84</v>
       </c>
       <c r="C80" s="1">
-        <v>197</v>
+        <v>5</v>
       </c>
       <c r="D80" s="1">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="E80" s="1">
-        <v>1.4E-2</v>
+        <v>0.59</v>
       </c>
       <c r="F80" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G80" s="1">
-        <v>0.02</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="H80" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="I80" s="1">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="J80" s="1">
-        <v>5.31</v>
+        <v>92.31</v>
       </c>
       <c r="K80" s="1">
         <v>61.54</v>
       </c>
       <c r="L80" s="9">
         <f>(D80*100)/D71</f>
-        <v>100</v>
+        <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
@@ -25596,35 +25626,35 @@
         <v>85</v>
       </c>
       <c r="C81" s="3">
-        <v>197</v>
+        <v>5</v>
       </c>
       <c r="D81" s="3">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="E81" s="3">
-        <v>1.4E-2</v>
+        <v>0.59</v>
       </c>
       <c r="F81" s="3">
-        <v>4.2000000000000003E-2</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G81" s="3">
-        <v>0.02</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="H81" s="3">
-        <v>0.16300000000000001</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="I81" s="3">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="J81" s="3">
-        <v>5.31</v>
+        <v>92.31</v>
       </c>
       <c r="K81" s="3">
         <v>61.54</v>
       </c>
       <c r="L81" s="11">
         <f>(D81*100)/D71</f>
-        <v>100</v>
+        <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
@@ -25633,35 +25663,35 @@
         <v>86</v>
       </c>
       <c r="C82" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D82" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E82" s="1">
-        <v>0.161</v>
+        <v>0.221</v>
       </c>
       <c r="F82" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.18</v>
       </c>
       <c r="G82" s="1">
-        <v>0.52900000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="H82" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="I82" s="1">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="J82" s="1">
-        <v>67.150000000000006</v>
+        <v>90.59</v>
       </c>
       <c r="K82" s="1">
         <v>81.99</v>
       </c>
       <c r="L82" s="9">
         <f>(D82*100)/D71</f>
-        <v>100</v>
+        <v>100.47619047619048</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
@@ -25670,28 +25700,28 @@
         <v>87</v>
       </c>
       <c r="C83" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D83" s="1">
         <v>210</v>
       </c>
       <c r="E83" s="1">
-        <v>0.13600000000000001</v>
+        <v>0.214</v>
       </c>
       <c r="F83" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.182</v>
       </c>
       <c r="G83" s="1">
-        <v>0.52900000000000003</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="H83" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="I83" s="1">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="J83" s="1">
-        <v>67.150000000000006</v>
+        <v>89.05</v>
       </c>
       <c r="K83" s="1">
         <v>89.89</v>
@@ -25707,28 +25737,28 @@
         <v>88</v>
       </c>
       <c r="C84" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D84" s="1">
         <v>210</v>
       </c>
       <c r="E84" s="1">
-        <v>0.13600000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="F84" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="G84" s="1">
-        <v>0.52900000000000003</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="H84" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="I84" s="1">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="J84" s="1">
-        <v>67.150000000000006</v>
+        <v>89.05</v>
       </c>
       <c r="K84" s="1">
         <v>96.35</v>
@@ -25744,28 +25774,28 @@
         <v>89</v>
       </c>
       <c r="C85" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D85" s="1">
         <v>210</v>
       </c>
       <c r="E85" s="1">
-        <v>0.13600000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="F85" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="G85" s="1">
-        <v>0.52900000000000003</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="H85" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="I85" s="1">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="J85" s="1">
-        <v>67.150000000000006</v>
+        <v>89.05</v>
       </c>
       <c r="K85" s="1">
         <v>96.84</v>
@@ -25787,22 +25817,22 @@
         <v>210</v>
       </c>
       <c r="E86" s="1">
-        <v>0.13600000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="F86" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="G86" s="1">
-        <v>0.52900000000000003</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="H86" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="I86" s="1">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="J86" s="1">
-        <v>67.150000000000006</v>
+        <v>86.57</v>
       </c>
       <c r="K86" s="1">
         <v>96.84</v>
@@ -25824,22 +25854,22 @@
         <v>210</v>
       </c>
       <c r="E87" s="1">
-        <v>0.13600000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="F87" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="G87" s="1">
-        <v>0.52900000000000003</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="H87" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="I87" s="1">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J87" s="1">
-        <v>67.150000000000006</v>
+        <v>87.56</v>
       </c>
       <c r="K87" s="1">
         <v>98.2</v>
@@ -25861,22 +25891,22 @@
         <v>210</v>
       </c>
       <c r="E88" s="1">
-        <v>0.13600000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="F88" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.161</v>
       </c>
       <c r="G88" s="1">
-        <v>0.52900000000000003</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="H88" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="I88" s="1">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J88" s="1">
-        <v>67.150000000000006</v>
+        <v>87.56</v>
       </c>
       <c r="K88" s="1">
         <v>98.2</v>
@@ -25892,28 +25922,28 @@
         <v>93</v>
       </c>
       <c r="C89" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1">
         <v>210</v>
       </c>
       <c r="E89" s="1">
-        <v>0.16400000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="F89" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.161</v>
       </c>
       <c r="G89" s="1">
-        <v>0.53500000000000003</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="H89" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="I89" s="1">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J89" s="1">
-        <v>61.84</v>
+        <v>87.56</v>
       </c>
       <c r="K89" s="1">
         <v>98.71</v>
@@ -25929,28 +25959,28 @@
         <v>94</v>
       </c>
       <c r="C90" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1">
         <v>210</v>
       </c>
       <c r="E90" s="1">
-        <v>0.16400000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="F90" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>0.161</v>
       </c>
       <c r="G90" s="1">
-        <v>0.53500000000000003</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="H90" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="I90" s="1">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J90" s="1">
-        <v>61.84</v>
+        <v>87.56</v>
       </c>
       <c r="K90" s="1">
         <v>98.71</v>
@@ -25966,28 +25996,28 @@
         <v>95</v>
       </c>
       <c r="C91" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" s="13">
         <v>210</v>
       </c>
       <c r="E91" s="13">
-        <v>0.16400000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="F91" s="13">
-        <v>4.2000000000000003E-2</v>
+        <v>0.161</v>
       </c>
       <c r="G91" s="13">
-        <v>0.53500000000000003</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="H91" s="13">
-        <v>0.16300000000000001</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="I91" s="13">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J91" s="13">
-        <v>61.84</v>
+        <v>87.56</v>
       </c>
       <c r="K91" s="13">
         <v>98.71</v>
@@ -25997,789 +26027,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" s="6">
-        <v>14</v>
-      </c>
-      <c r="D92" s="6">
-        <v>1738</v>
-      </c>
-      <c r="E92" s="6">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F92" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="G92" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H92" s="6">
-        <v>0.221</v>
-      </c>
-      <c r="I92" s="6">
-        <v>670</v>
-      </c>
-      <c r="J92" s="6">
-        <v>60.93</v>
-      </c>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6">
-        <f>(D92*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="25"/>
-      <c r="B93" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C93" s="1">
-        <v>1282</v>
-      </c>
-      <c r="D93" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E93" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F93" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G93" s="1">
-        <v>6.2E-2</v>
-      </c>
-      <c r="H93" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I93" s="1">
-        <v>1482</v>
-      </c>
-      <c r="J93" s="1">
-        <v>13.59</v>
-      </c>
-      <c r="K93" s="1">
-        <v>8.52</v>
-      </c>
-      <c r="L93" s="9">
-        <f>(D93*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="25"/>
-      <c r="B94" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" s="1">
-        <v>1282</v>
-      </c>
-      <c r="D94" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E94" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F94" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G94" s="1">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H94" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I94" s="1">
-        <v>1452</v>
-      </c>
-      <c r="J94" s="1">
-        <v>15.34</v>
-      </c>
-      <c r="K94" s="1">
-        <v>8.51</v>
-      </c>
-      <c r="L94" s="9">
-        <f>(D94*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="25"/>
-      <c r="B95" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C95" s="1">
-        <v>1318</v>
-      </c>
-      <c r="D95" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E95" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F95" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I95" s="1">
-        <v>1463</v>
-      </c>
-      <c r="J95" s="1">
-        <v>14.69</v>
-      </c>
-      <c r="K95" s="1">
-        <v>9.26</v>
-      </c>
-      <c r="L95" s="9">
-        <f>(D95*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="25"/>
-      <c r="B96" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1375</v>
-      </c>
-      <c r="D96" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E96" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F96" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G96" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H96" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I96" s="1">
-        <v>1509</v>
-      </c>
-      <c r="J96" s="1">
-        <v>12.01</v>
-      </c>
-      <c r="K96" s="1">
-        <v>10.54</v>
-      </c>
-      <c r="L96" s="9">
-        <f>(D96*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="25"/>
-      <c r="B97" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C97" s="1">
-        <v>1406</v>
-      </c>
-      <c r="D97" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E97" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F97" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G97" s="1">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="H97" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I97" s="1">
-        <v>1500</v>
-      </c>
-      <c r="J97" s="1">
-        <v>12.54</v>
-      </c>
-      <c r="K97" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="L97" s="9">
-        <f>(D97*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="25"/>
-      <c r="B98" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1468</v>
-      </c>
-      <c r="D98" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E98" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F98" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G98" s="1">
-        <v>3.9E-2</v>
-      </c>
-      <c r="H98" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I98" s="1">
-        <v>1545</v>
-      </c>
-      <c r="J98" s="1">
-        <v>9.91</v>
-      </c>
-      <c r="K98" s="1">
-        <v>13.59</v>
-      </c>
-      <c r="L98" s="9">
-        <f>(D98*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="25"/>
-      <c r="B99" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C99" s="1">
-        <v>1470</v>
-      </c>
-      <c r="D99" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E99" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F99" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G99" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H99" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I99" s="1">
-        <v>1547</v>
-      </c>
-      <c r="J99" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="K99" s="1">
-        <v>13.69</v>
-      </c>
-      <c r="L99" s="9">
-        <f>(D99*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="25"/>
-      <c r="B100" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" s="1">
-        <v>1471</v>
-      </c>
-      <c r="D100" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E100" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F100" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G100" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H100" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I100" s="1">
-        <v>1544</v>
-      </c>
-      <c r="J100" s="1">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="K100" s="1">
-        <v>13.53</v>
-      </c>
-      <c r="L100" s="9">
-        <f>(D100*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="25"/>
-      <c r="B101" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101" s="1">
-        <v>1643</v>
-      </c>
-      <c r="D101" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E101" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F101" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G101" s="1">
-        <v>1.6E-2</v>
-      </c>
-      <c r="H101" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I101" s="1">
-        <v>1640</v>
-      </c>
-      <c r="J101" s="1">
-        <v>4.37</v>
-      </c>
-      <c r="K101" s="1">
-        <v>27.32</v>
-      </c>
-      <c r="L101" s="9">
-        <f>(D101*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="25"/>
-      <c r="B102" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102" s="3">
-        <v>1645</v>
-      </c>
-      <c r="D102" s="3">
-        <v>1738</v>
-      </c>
-      <c r="E102" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1.6E-2</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0.221</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1641</v>
-      </c>
-      <c r="J102" s="3">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="K102" s="3">
-        <v>27.27</v>
-      </c>
-      <c r="L102" s="11">
-        <f>(D102*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A103" s="25"/>
-      <c r="B103" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C103" s="1">
-        <v>12</v>
-      </c>
-      <c r="D103" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E103" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F103" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="H103" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I103" s="1">
-        <v>699</v>
-      </c>
-      <c r="J103" s="1">
-        <v>59.24</v>
-      </c>
-      <c r="K103" s="1">
-        <v>54.93</v>
-      </c>
-      <c r="L103" s="9">
-        <f>(D103*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A104" s="25"/>
-      <c r="B104" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C104" s="1">
-        <v>13</v>
-      </c>
-      <c r="D104" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E104" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F104" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="H104" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I104" s="1">
-        <v>691</v>
-      </c>
-      <c r="J104" s="1">
-        <v>59.71</v>
-      </c>
-      <c r="K104" s="1">
-        <v>55.75</v>
-      </c>
-      <c r="L104" s="9">
-        <f>(D104*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="25"/>
-      <c r="B105" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C105" s="1">
-        <v>12</v>
-      </c>
-      <c r="D105" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E105" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F105" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="H105" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I105" s="1">
-        <v>700</v>
-      </c>
-      <c r="J105" s="1">
-        <v>59.18</v>
-      </c>
-      <c r="K105" s="1">
-        <v>61.76</v>
-      </c>
-      <c r="L105" s="9">
-        <f>(D105*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" s="25"/>
-      <c r="B106" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C106" s="1">
-        <v>14</v>
-      </c>
-      <c r="D106" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E106" s="1">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F106" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G106" s="1">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="H106" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I106" s="1">
-        <v>704</v>
-      </c>
-      <c r="J106" s="1">
-        <v>58.95</v>
-      </c>
-      <c r="K106" s="1">
-        <v>71.53</v>
-      </c>
-      <c r="L106" s="9">
-        <f>(D106*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="25"/>
-      <c r="B107" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C107" s="1">
-        <v>14</v>
-      </c>
-      <c r="D107" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E107" s="1">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F107" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="H107" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I107" s="1">
-        <v>704</v>
-      </c>
-      <c r="J107" s="1">
-        <v>58.95</v>
-      </c>
-      <c r="K107" s="1">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="L107" s="9">
-        <f>(D107*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A108" s="25"/>
-      <c r="B108" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C108" s="1">
-        <v>14</v>
-      </c>
-      <c r="D108" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E108" s="1">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F108" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G108" s="1">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="H108" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I108" s="1">
-        <v>704</v>
-      </c>
-      <c r="J108" s="1">
-        <v>58.95</v>
-      </c>
-      <c r="K108" s="1">
-        <v>79.7</v>
-      </c>
-      <c r="L108" s="9">
-        <f>(D108*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A109" s="25"/>
-      <c r="B109" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C109" s="1">
-        <v>13</v>
-      </c>
-      <c r="D109" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E109" s="1">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F109" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G109" s="1">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="H109" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I109" s="1">
-        <v>705</v>
-      </c>
-      <c r="J109" s="1">
-        <v>58.89</v>
-      </c>
-      <c r="K109" s="1">
-        <v>79.89</v>
-      </c>
-      <c r="L109" s="9">
-        <f>(D109*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A110" s="25"/>
-      <c r="B110" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C110" s="1">
-        <v>13</v>
-      </c>
-      <c r="D110" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E110" s="1">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F110" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G110" s="1">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="H110" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I110" s="1">
-        <v>705</v>
-      </c>
-      <c r="J110" s="1">
-        <v>58.89</v>
-      </c>
-      <c r="K110" s="1">
-        <v>80.290000000000006</v>
-      </c>
-      <c r="L110" s="9">
-        <f>(D110*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" s="25"/>
-      <c r="B111" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C111" s="1">
-        <v>15</v>
-      </c>
-      <c r="D111" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E111" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F111" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G111" s="1">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="H111" s="1">
-        <v>0.221</v>
-      </c>
-      <c r="I111" s="1">
-        <v>686</v>
-      </c>
-      <c r="J111" s="1">
-        <v>60</v>
-      </c>
-      <c r="K111" s="1">
-        <v>96.29</v>
-      </c>
-      <c r="L111" s="9">
-        <f>(D111*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="25"/>
-      <c r="B112" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C112" s="13">
-        <v>15</v>
-      </c>
-      <c r="D112" s="13">
-        <v>1738</v>
-      </c>
-      <c r="E112" s="13">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F112" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="G112" s="13">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="H112" s="13">
-        <v>0.221</v>
-      </c>
-      <c r="I112" s="13">
-        <v>686</v>
-      </c>
-      <c r="J112" s="13">
-        <v>60</v>
-      </c>
-      <c r="K112" s="13">
-        <v>96.31</v>
-      </c>
-      <c r="L112" s="14">
-        <f>(D112*100)/D92</f>
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A29:A49"/>
     <mergeCell ref="A50:A70"/>
     <mergeCell ref="A71:A91"/>
-    <mergeCell ref="A92:A112"/>
     <mergeCell ref="C1:L3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
@@ -26793,6 +26045,3200 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50E6858-4E51-4E03-B7F6-4483CAC839AA}">
+  <dimension ref="A1:L87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="6">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6">
+        <v>517</v>
+      </c>
+      <c r="E4" s="6">
+        <v>11.34</v>
+      </c>
+      <c r="F4" s="6">
+        <v>12.46</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="I4" s="6">
+        <v>140</v>
+      </c>
+      <c r="J4" s="6">
+        <v>72.11</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7">
+        <f>(D4*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1">
+        <v>320</v>
+      </c>
+      <c r="E5" s="1">
+        <v>55.773000000000003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>13.534000000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="I5" s="1">
+        <v>101</v>
+      </c>
+      <c r="J5" s="1">
+        <v>66.89</v>
+      </c>
+      <c r="K5" s="1">
+        <v>36.15</v>
+      </c>
+      <c r="L5" s="9">
+        <f>(D5*100)/D4</f>
+        <v>61.895551257253388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1">
+        <v>215</v>
+      </c>
+      <c r="E6" s="1">
+        <v>52.98</v>
+      </c>
+      <c r="F6" s="1">
+        <v>11.369</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="I6" s="1">
+        <v>63</v>
+      </c>
+      <c r="J6" s="1">
+        <v>68.81</v>
+      </c>
+      <c r="K6" s="1">
+        <v>39.729999999999997</v>
+      </c>
+      <c r="L6" s="9">
+        <f>(D6*100)/D4</f>
+        <v>41.586073500967117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1">
+        <v>174</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10.63</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45</v>
+      </c>
+      <c r="J7" s="1">
+        <v>72.39</v>
+      </c>
+      <c r="K7" s="1">
+        <v>41.13</v>
+      </c>
+      <c r="L7" s="9">
+        <f>(D7*100)/D4</f>
+        <v>33.65570599613153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1">
+        <v>152</v>
+      </c>
+      <c r="E8" s="1">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8.6850000000000005</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="I8" s="1">
+        <v>39</v>
+      </c>
+      <c r="J8" s="1">
+        <v>72.540000000000006</v>
+      </c>
+      <c r="K8" s="1">
+        <v>41.87</v>
+      </c>
+      <c r="L8" s="9">
+        <f>(D8*100)/D4</f>
+        <v>29.400386847195357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1">
+        <v>138</v>
+      </c>
+      <c r="E9" s="1">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8.9039999999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="I9" s="1">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1">
+        <v>75.78</v>
+      </c>
+      <c r="K9" s="1">
+        <v>43.96</v>
+      </c>
+      <c r="L9" s="9">
+        <f>(D9*100)/D4</f>
+        <v>26.692456479690524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>120</v>
+      </c>
+      <c r="E10" s="1">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7.89</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.748</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="I10" s="1">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1">
+        <v>72.97</v>
+      </c>
+      <c r="K10" s="1">
+        <v>47.74</v>
+      </c>
+      <c r="L10" s="9">
+        <f>(D10*100)/D4</f>
+        <v>23.210831721470019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1">
+        <v>106</v>
+      </c>
+      <c r="E11" s="1">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7.9080000000000004</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="I11" s="1">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1">
+        <v>74.23</v>
+      </c>
+      <c r="K11" s="1">
+        <v>48.29</v>
+      </c>
+      <c r="L11" s="9">
+        <f>(D11*100)/D4</f>
+        <v>20.502901353965182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1">
+        <v>92</v>
+      </c>
+      <c r="E12" s="1">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7.907</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="I12" s="1">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1">
+        <v>73.489999999999995</v>
+      </c>
+      <c r="K12" s="1">
+        <v>47.85</v>
+      </c>
+      <c r="L12" s="9">
+        <f>(D12*100)/D4</f>
+        <v>17.794970986460349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
+        <v>79</v>
+      </c>
+      <c r="E13" s="1">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7.907</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1">
+        <v>75.709999999999994</v>
+      </c>
+      <c r="K13" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="L13" s="9">
+        <f>(D13*100)/D4</f>
+        <v>15.28046421663443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
+      <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="I14" s="3">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3">
+        <v>80.36</v>
+      </c>
+      <c r="K14" s="3">
+        <v>44.03</v>
+      </c>
+      <c r="L14" s="11">
+        <f>(D14*100)/D4</f>
+        <v>12.379110251450676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="30"/>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1">
+        <v>517</v>
+      </c>
+      <c r="E15" s="1">
+        <v>14.272</v>
+      </c>
+      <c r="F15" s="1">
+        <v>12.667999999999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="I15" s="1">
+        <v>86</v>
+      </c>
+      <c r="J15" s="17">
+        <v>82.87</v>
+      </c>
+      <c r="K15" s="1">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="L15" s="9">
+        <f>(D15*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
+      <c r="B16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1">
+        <v>517</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13.879</v>
+      </c>
+      <c r="F16" s="1">
+        <v>12.663</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="I16" s="1">
+        <v>99</v>
+      </c>
+      <c r="J16" s="1">
+        <v>80.28</v>
+      </c>
+      <c r="K16" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="L16" s="9">
+        <f>(D16*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
+      <c r="B17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>517</v>
+      </c>
+      <c r="E17" s="1">
+        <v>14.672000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>12.696999999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="I17" s="1">
+        <v>80</v>
+      </c>
+      <c r="J17" s="1">
+        <v>84.06</v>
+      </c>
+      <c r="K17" s="1">
+        <v>89.77</v>
+      </c>
+      <c r="L17" s="9">
+        <f>(D17*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
+      <c r="B18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <v>517</v>
+      </c>
+      <c r="E18" s="1">
+        <v>12.458</v>
+      </c>
+      <c r="F18" s="1">
+        <v>12.695</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.623</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="I18" s="1">
+        <v>111</v>
+      </c>
+      <c r="J18" s="1">
+        <v>77.89</v>
+      </c>
+      <c r="K18" s="1">
+        <v>90.86</v>
+      </c>
+      <c r="L18" s="9">
+        <f>(D18*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>517</v>
+      </c>
+      <c r="E19" s="1">
+        <v>11.750999999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <v>12.712</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.627</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>134</v>
+      </c>
+      <c r="J19" s="1">
+        <v>73.31</v>
+      </c>
+      <c r="K19" s="1">
+        <v>92.06</v>
+      </c>
+      <c r="L19" s="9">
+        <f>(D19*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="30"/>
+      <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
+        <v>517</v>
+      </c>
+      <c r="E20" s="1">
+        <v>11.74</v>
+      </c>
+      <c r="F20" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.626</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>134</v>
+      </c>
+      <c r="J20" s="1">
+        <v>73.31</v>
+      </c>
+      <c r="K20" s="1">
+        <v>94.29</v>
+      </c>
+      <c r="L20" s="9">
+        <f>(D20*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="30"/>
+      <c r="B21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>517</v>
+      </c>
+      <c r="E21" s="1">
+        <v>11.734999999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>12.696999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>133</v>
+      </c>
+      <c r="J21" s="1">
+        <v>73.510000000000005</v>
+      </c>
+      <c r="K21" s="1">
+        <v>95.19</v>
+      </c>
+      <c r="L21" s="9">
+        <f>(D21*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="30"/>
+      <c r="B22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1">
+        <v>517</v>
+      </c>
+      <c r="E22" s="1">
+        <v>11.731</v>
+      </c>
+      <c r="F22" s="1">
+        <v>12.693</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I22" s="1">
+        <v>133</v>
+      </c>
+      <c r="J22" s="1">
+        <v>73.510000000000005</v>
+      </c>
+      <c r="K22" s="1">
+        <v>96.11</v>
+      </c>
+      <c r="L22" s="9">
+        <f>(D22*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1">
+        <v>517</v>
+      </c>
+      <c r="E23" s="1">
+        <v>11.727</v>
+      </c>
+      <c r="F23" s="1">
+        <v>12.691000000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.624</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="I23" s="1">
+        <v>133</v>
+      </c>
+      <c r="J23" s="1">
+        <v>73.510000000000005</v>
+      </c>
+      <c r="K23" s="1">
+        <v>96.24</v>
+      </c>
+      <c r="L23" s="9">
+        <f>(D23*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="30"/>
+      <c r="B24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="13">
+        <v>14</v>
+      </c>
+      <c r="D24" s="13">
+        <v>517</v>
+      </c>
+      <c r="E24" s="13">
+        <v>11.731999999999999</v>
+      </c>
+      <c r="F24" s="13">
+        <v>12.691000000000001</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.623</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="I24" s="13">
+        <v>139</v>
+      </c>
+      <c r="J24" s="13">
+        <v>72.31</v>
+      </c>
+      <c r="K24" s="13">
+        <v>96.55</v>
+      </c>
+      <c r="L24" s="14">
+        <f>(D24*100)/D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="6">
+        <v>31</v>
+      </c>
+      <c r="D25" s="6">
+        <v>662</v>
+      </c>
+      <c r="E25" s="6">
+        <v>28.734999999999999</v>
+      </c>
+      <c r="F25" s="6">
+        <v>13.334</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="I25" s="6">
+        <v>117</v>
+      </c>
+      <c r="J25" s="6">
+        <v>81.92</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7">
+        <f>(D25*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="32"/>
+      <c r="B26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1">
+        <v>415</v>
+      </c>
+      <c r="E26" s="1">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F26" s="1">
+        <v>14.686999999999999</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="I26" s="1">
+        <v>45</v>
+      </c>
+      <c r="J26" s="1">
+        <v>88.75</v>
+      </c>
+      <c r="K26" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="L26" s="9">
+        <f>(D26*100)/D25</f>
+        <v>62.688821752265859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="32"/>
+      <c r="B27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1">
+        <v>308</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45.893999999999998</v>
+      </c>
+      <c r="F27" s="1">
+        <v>13.771000000000001</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="I27" s="1">
+        <v>54</v>
+      </c>
+      <c r="J27" s="1">
+        <v>81.63</v>
+      </c>
+      <c r="K27" s="1">
+        <v>30.95</v>
+      </c>
+      <c r="L27" s="9">
+        <f>(D27*100)/D25</f>
+        <v>46.525679758308158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="32"/>
+      <c r="B28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1">
+        <v>250</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45.914999999999999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>13.875</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="I28" s="1">
+        <v>43</v>
+      </c>
+      <c r="J28" s="1">
+        <v>81.78</v>
+      </c>
+      <c r="K28" s="1">
+        <v>32.43</v>
+      </c>
+      <c r="L28" s="9">
+        <f>(D28*100)/D25</f>
+        <v>37.764350453172206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="32"/>
+      <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1">
+        <v>209</v>
+      </c>
+      <c r="E29" s="1">
+        <v>41.969000000000001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>12.929</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="I29" s="1">
+        <v>32</v>
+      </c>
+      <c r="J29" s="1">
+        <v>83.67</v>
+      </c>
+      <c r="K29" s="1">
+        <v>34.33</v>
+      </c>
+      <c r="L29" s="9">
+        <f>(D29*100)/D25</f>
+        <v>31.570996978851962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="32"/>
+      <c r="B30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1">
+        <v>199</v>
+      </c>
+      <c r="E30" s="1">
+        <v>44</v>
+      </c>
+      <c r="F30" s="1">
+        <v>12.964</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I30" s="1">
+        <v>33</v>
+      </c>
+      <c r="J30" s="1">
+        <v>82.26</v>
+      </c>
+      <c r="K30" s="1">
+        <v>35.04</v>
+      </c>
+      <c r="L30" s="9">
+        <f>(D30*100)/D25</f>
+        <v>30.060422960725077</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="32"/>
+      <c r="B31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1">
+        <v>178</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45</v>
+      </c>
+      <c r="F31" s="1">
+        <v>11.968</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="I31" s="1">
+        <v>34</v>
+      </c>
+      <c r="J31" s="1">
+        <v>79.52</v>
+      </c>
+      <c r="K31" s="1">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="L31" s="9">
+        <f>(D31*100)/D25</f>
+        <v>26.888217522658611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="32"/>
+      <c r="B32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1">
+        <v>165</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44.984999999999999</v>
+      </c>
+      <c r="F32" s="1">
+        <v>11.962999999999999</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.876</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="I32" s="1">
+        <v>34</v>
+      </c>
+      <c r="J32" s="1">
+        <v>77.78</v>
+      </c>
+      <c r="K32" s="1">
+        <v>36.83</v>
+      </c>
+      <c r="L32" s="9">
+        <f>(D32*100)/D25</f>
+        <v>24.924471299093657</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="32"/>
+      <c r="B33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1">
+        <v>127</v>
+      </c>
+      <c r="E33" s="1">
+        <v>35.984999999999999</v>
+      </c>
+      <c r="F33" s="1">
+        <v>8.9589999999999996</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="I33" s="1">
+        <v>28</v>
+      </c>
+      <c r="J33" s="1">
+        <v>76.27</v>
+      </c>
+      <c r="K33" s="1">
+        <v>40.28</v>
+      </c>
+      <c r="L33" s="9">
+        <f>(D33*100)/D25</f>
+        <v>19.184290030211482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="32"/>
+      <c r="B34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1">
+        <v>116</v>
+      </c>
+      <c r="E34" s="1">
+        <v>32</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8.9190000000000005</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I34" s="1">
+        <v>24</v>
+      </c>
+      <c r="J34" s="1">
+        <v>77.569999999999993</v>
+      </c>
+      <c r="K34" s="1">
+        <v>38.11</v>
+      </c>
+      <c r="L34" s="9">
+        <f>(D34*100)/D25</f>
+        <v>17.522658610271904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="32"/>
+      <c r="B35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3">
+        <v>30</v>
+      </c>
+      <c r="D35" s="3">
+        <v>110</v>
+      </c>
+      <c r="E35" s="3">
+        <v>30</v>
+      </c>
+      <c r="F35" s="3">
+        <v>9</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="I35" s="3">
+        <v>21</v>
+      </c>
+      <c r="J35" s="3">
+        <v>79.209999999999994</v>
+      </c>
+      <c r="K35" s="3">
+        <v>37.97</v>
+      </c>
+      <c r="L35" s="11">
+        <f>(D35*100)/D25</f>
+        <v>16.61631419939577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="32"/>
+      <c r="B36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1">
+        <v>671</v>
+      </c>
+      <c r="E36" s="1">
+        <v>23.015000000000001</v>
+      </c>
+      <c r="F36" s="1">
+        <v>13.731</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="I36" s="1">
+        <v>56</v>
+      </c>
+      <c r="J36" s="17">
+        <v>91.46</v>
+      </c>
+      <c r="K36" s="1">
+        <v>55.86</v>
+      </c>
+      <c r="L36" s="9">
+        <f>(D36*100)/D25</f>
+        <v>101.3595166163142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="32"/>
+      <c r="B37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1">
+        <v>29</v>
+      </c>
+      <c r="D37" s="1">
+        <v>667</v>
+      </c>
+      <c r="E37" s="1">
+        <v>27.449000000000002</v>
+      </c>
+      <c r="F37" s="1">
+        <v>13.679</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="I37" s="1">
+        <v>123</v>
+      </c>
+      <c r="J37" s="1">
+        <v>81.13</v>
+      </c>
+      <c r="K37" s="1">
+        <v>74.66</v>
+      </c>
+      <c r="L37" s="9">
+        <f>(D37*100)/D25</f>
+        <v>100.75528700906344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="32"/>
+      <c r="B38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1">
+        <v>30</v>
+      </c>
+      <c r="D38" s="1">
+        <v>663</v>
+      </c>
+      <c r="E38" s="1">
+        <v>27.948</v>
+      </c>
+      <c r="F38" s="1">
+        <v>13.669</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="I38" s="1">
+        <v>96</v>
+      </c>
+      <c r="J38" s="1">
+        <v>85.19</v>
+      </c>
+      <c r="K38" s="1">
+        <v>80.84</v>
+      </c>
+      <c r="L38" s="9">
+        <f>(D38*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="32"/>
+      <c r="B39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1">
+        <v>663</v>
+      </c>
+      <c r="E39" s="1">
+        <v>27.977</v>
+      </c>
+      <c r="F39" s="1">
+        <v>13.659000000000001</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="I39" s="1">
+        <v>112</v>
+      </c>
+      <c r="J39" s="1">
+        <v>82.72</v>
+      </c>
+      <c r="K39" s="1">
+        <v>84.27</v>
+      </c>
+      <c r="L39" s="9">
+        <f>(D39*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="32"/>
+      <c r="B40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1">
+        <v>663</v>
+      </c>
+      <c r="E40" s="1">
+        <v>27.972999999999999</v>
+      </c>
+      <c r="F40" s="1">
+        <v>13.657</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="I40" s="1">
+        <v>112</v>
+      </c>
+      <c r="J40" s="1">
+        <v>82.72</v>
+      </c>
+      <c r="K40" s="1">
+        <v>85.56</v>
+      </c>
+      <c r="L40" s="9">
+        <f>(D40*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="32"/>
+      <c r="B41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="1">
+        <v>30</v>
+      </c>
+      <c r="D41" s="1">
+        <v>663</v>
+      </c>
+      <c r="E41" s="1">
+        <v>27.954999999999998</v>
+      </c>
+      <c r="F41" s="1">
+        <v>13.64</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="I41" s="1">
+        <v>112</v>
+      </c>
+      <c r="J41" s="1">
+        <v>82.72</v>
+      </c>
+      <c r="K41" s="1">
+        <v>88.17</v>
+      </c>
+      <c r="L41" s="9">
+        <f>(D41*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="32"/>
+      <c r="B42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1">
+        <v>663</v>
+      </c>
+      <c r="E42" s="1">
+        <v>29.547999999999998</v>
+      </c>
+      <c r="F42" s="1">
+        <v>13.635999999999999</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="I42" s="1">
+        <v>107</v>
+      </c>
+      <c r="J42" s="1">
+        <v>83.49</v>
+      </c>
+      <c r="K42" s="1">
+        <v>89.52</v>
+      </c>
+      <c r="L42" s="9">
+        <f>(D42*100)/D25</f>
+        <v>100.15105740181269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="32"/>
+      <c r="B43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1">
+        <v>32</v>
+      </c>
+      <c r="D43" s="1">
+        <v>662</v>
+      </c>
+      <c r="E43" s="1">
+        <v>29.523</v>
+      </c>
+      <c r="F43" s="1">
+        <v>13.616</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="I43" s="1">
+        <v>107</v>
+      </c>
+      <c r="J43" s="1">
+        <v>83.46</v>
+      </c>
+      <c r="K43" s="1">
+        <v>92.58</v>
+      </c>
+      <c r="L43" s="9">
+        <f>(D43*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="32"/>
+      <c r="B44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1">
+        <v>32</v>
+      </c>
+      <c r="D44" s="1">
+        <v>662</v>
+      </c>
+      <c r="E44" s="1">
+        <v>29.507000000000001</v>
+      </c>
+      <c r="F44" s="1">
+        <v>13.609</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="I44" s="1">
+        <v>110</v>
+      </c>
+      <c r="J44" s="1">
+        <v>83</v>
+      </c>
+      <c r="K44" s="1">
+        <v>93.32</v>
+      </c>
+      <c r="L44" s="9">
+        <f>(D44*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="32"/>
+      <c r="B45" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="13">
+        <v>31</v>
+      </c>
+      <c r="D45" s="13">
+        <v>662</v>
+      </c>
+      <c r="E45" s="13">
+        <v>28.687999999999999</v>
+      </c>
+      <c r="F45" s="13">
+        <v>13.608000000000001</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="I45" s="13">
+        <v>111</v>
+      </c>
+      <c r="J45" s="13">
+        <v>82.84</v>
+      </c>
+      <c r="K45" s="13">
+        <v>93.49</v>
+      </c>
+      <c r="L45" s="14">
+        <f>(D45*100)/D25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="6">
+        <v>26</v>
+      </c>
+      <c r="D46" s="6">
+        <v>4414</v>
+      </c>
+      <c r="E46" s="6">
+        <v>23.78</v>
+      </c>
+      <c r="F46" s="6">
+        <v>9.6509999999999998</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.499</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1978</v>
+      </c>
+      <c r="J46" s="6">
+        <v>55.07</v>
+      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="7">
+        <f>(D46*100)/D46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="25"/>
+      <c r="B47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="1">
+        <v>47</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1469</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45.936</v>
+      </c>
+      <c r="F47" s="1">
+        <v>6.9409999999999998</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="I47" s="1">
+        <v>675</v>
+      </c>
+      <c r="J47" s="1">
+        <v>53.74</v>
+      </c>
+      <c r="K47" s="1">
+        <v>14.97</v>
+      </c>
+      <c r="L47" s="9">
+        <f>(D47*100)/D46</f>
+        <v>33.280471227911192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="25"/>
+      <c r="B48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="1">
+        <v>65</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1343</v>
+      </c>
+      <c r="E48" s="1">
+        <v>64.337999999999994</v>
+      </c>
+      <c r="F48" s="1">
+        <v>7.3029999999999999</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="I48" s="1">
+        <v>568</v>
+      </c>
+      <c r="J48" s="1">
+        <v>57.39</v>
+      </c>
+      <c r="K48" s="1">
+        <v>18.11</v>
+      </c>
+      <c r="L48" s="9">
+        <f>(D48*100)/D46</f>
+        <v>30.425917535115541</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="25"/>
+      <c r="B49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="1">
+        <v>68</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1242</v>
+      </c>
+      <c r="E49" s="1">
+        <v>67.424000000000007</v>
+      </c>
+      <c r="F49" s="1">
+        <v>7.327</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="I49" s="1">
+        <v>505</v>
+      </c>
+      <c r="J49" s="1">
+        <v>59.01</v>
+      </c>
+      <c r="K49" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L49" s="9">
+        <f>(D49*100)/D46</f>
+        <v>28.137743543271409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="25"/>
+      <c r="B50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1">
+        <v>86</v>
+      </c>
+      <c r="D50" s="1">
+        <v>933</v>
+      </c>
+      <c r="E50" s="1">
+        <v>85.281000000000006</v>
+      </c>
+      <c r="F50" s="1">
+        <v>7.3010000000000002</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="I50" s="1">
+        <v>374</v>
+      </c>
+      <c r="J50" s="1">
+        <v>59.52</v>
+      </c>
+      <c r="K50" s="1">
+        <v>22.96</v>
+      </c>
+      <c r="L50" s="9">
+        <f>(D50*100)/D46</f>
+        <v>21.137290439510647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="25"/>
+      <c r="B51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="1">
+        <v>90</v>
+      </c>
+      <c r="D51" s="1">
+        <v>917</v>
+      </c>
+      <c r="E51" s="1">
+        <v>89.019000000000005</v>
+      </c>
+      <c r="F51" s="1">
+        <v>7.351</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.623</v>
+      </c>
+      <c r="I51" s="1">
+        <v>377</v>
+      </c>
+      <c r="J51" s="1">
+        <v>58.48</v>
+      </c>
+      <c r="K51" s="1">
+        <v>24.16</v>
+      </c>
+      <c r="L51" s="9">
+        <f>(D51*100)/D46</f>
+        <v>20.774807430901678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="25"/>
+      <c r="B52" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="1">
+        <v>89</v>
+      </c>
+      <c r="D52" s="1">
+        <v>866</v>
+      </c>
+      <c r="E52" s="1">
+        <v>88.004000000000005</v>
+      </c>
+      <c r="F52" s="1">
+        <v>7.4489999999999998</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="I52" s="1">
+        <v>356</v>
+      </c>
+      <c r="J52" s="1">
+        <v>58.46</v>
+      </c>
+      <c r="K52" s="1">
+        <v>24.32</v>
+      </c>
+      <c r="L52" s="9">
+        <f>(D52*100)/D46</f>
+        <v>19.619392840960579</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="25"/>
+      <c r="B53" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="1">
+        <v>93</v>
+      </c>
+      <c r="D53" s="1">
+        <v>474</v>
+      </c>
+      <c r="E53" s="1">
+        <v>92.76</v>
+      </c>
+      <c r="F53" s="1">
+        <v>7.6639999999999997</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="I53" s="1">
+        <v>162</v>
+      </c>
+      <c r="J53" s="1">
+        <v>65.16</v>
+      </c>
+      <c r="K53" s="1">
+        <v>32.42</v>
+      </c>
+      <c r="L53" s="9">
+        <f>(D53*100)/D46</f>
+        <v>10.738559130040779</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="25"/>
+      <c r="B54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="1">
+        <v>96</v>
+      </c>
+      <c r="D54" s="1">
+        <v>465</v>
+      </c>
+      <c r="E54" s="1">
+        <v>95.805000000000007</v>
+      </c>
+      <c r="F54" s="1">
+        <v>7.9480000000000004</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.871</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="I54" s="1">
+        <v>164</v>
+      </c>
+      <c r="J54" s="1">
+        <v>64.040000000000006</v>
+      </c>
+      <c r="K54" s="1">
+        <v>35.22</v>
+      </c>
+      <c r="L54" s="9">
+        <f>(D54*100)/D46</f>
+        <v>10.534662437698232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="25"/>
+      <c r="B55" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="1">
+        <v>97</v>
+      </c>
+      <c r="D55" s="1">
+        <v>447</v>
+      </c>
+      <c r="E55" s="1">
+        <v>96.820999999999998</v>
+      </c>
+      <c r="F55" s="1">
+        <v>7.867</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.871</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="I55" s="1">
+        <v>159</v>
+      </c>
+      <c r="J55" s="1">
+        <v>63.7</v>
+      </c>
+      <c r="K55" s="1">
+        <v>35</v>
+      </c>
+      <c r="L55" s="9">
+        <f>(D55*100)/D46</f>
+        <v>10.12686905301314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="25"/>
+      <c r="B56" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="3">
+        <v>86</v>
+      </c>
+      <c r="D56" s="3">
+        <v>370</v>
+      </c>
+      <c r="E56" s="3">
+        <v>85.846000000000004</v>
+      </c>
+      <c r="F56" s="3">
+        <v>7.7619999999999996</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="I56" s="3">
+        <v>134</v>
+      </c>
+      <c r="J56" s="3">
+        <v>62.88</v>
+      </c>
+      <c r="K56" s="3">
+        <v>36.61</v>
+      </c>
+      <c r="L56" s="11">
+        <f>(D56*100)/D46</f>
+        <v>8.3824195740824656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="25"/>
+      <c r="B57" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1">
+        <v>25</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4432</v>
+      </c>
+      <c r="E57" s="1">
+        <v>22.231999999999999</v>
+      </c>
+      <c r="F57" s="1">
+        <v>9.6479999999999997</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1889</v>
+      </c>
+      <c r="J57" s="1">
+        <v>57.26</v>
+      </c>
+      <c r="K57" s="1">
+        <v>68.67</v>
+      </c>
+      <c r="L57" s="9">
+        <f>(D57*100)/D46</f>
+        <v>100.40779338468509</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="25"/>
+      <c r="B58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1">
+        <v>27</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4431</v>
+      </c>
+      <c r="E58" s="1">
+        <v>24.212</v>
+      </c>
+      <c r="F58" s="1">
+        <v>9.6639999999999997</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.501</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1932</v>
+      </c>
+      <c r="J58" s="1">
+        <v>56.28</v>
+      </c>
+      <c r="K58" s="1">
+        <v>77.209999999999994</v>
+      </c>
+      <c r="L58" s="9">
+        <f>(D58*100)/D46</f>
+        <v>100.38513819664703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="25"/>
+      <c r="B59" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="1">
+        <v>27</v>
+      </c>
+      <c r="D59" s="1">
+        <v>4431</v>
+      </c>
+      <c r="E59" s="1">
+        <v>24.405000000000001</v>
+      </c>
+      <c r="F59" s="1">
+        <v>9.6639999999999997</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.501</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1960</v>
+      </c>
+      <c r="J59" s="1">
+        <v>55.65</v>
+      </c>
+      <c r="K59" s="1">
+        <v>80.36</v>
+      </c>
+      <c r="L59" s="9">
+        <f>(D59*100)/D46</f>
+        <v>100.38513819664703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="25"/>
+      <c r="B60" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1">
+        <v>29</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4429</v>
+      </c>
+      <c r="E60" s="1">
+        <v>26.131</v>
+      </c>
+      <c r="F60" s="1">
+        <v>9.6690000000000005</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1947</v>
+      </c>
+      <c r="J60" s="1">
+        <v>55.92</v>
+      </c>
+      <c r="K60" s="1">
+        <v>88.49</v>
+      </c>
+      <c r="L60" s="9">
+        <f>(D60*100)/D46</f>
+        <v>100.33982782057092</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="25"/>
+      <c r="B61" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="1">
+        <v>29</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4429</v>
+      </c>
+      <c r="E61" s="1">
+        <v>26.212</v>
+      </c>
+      <c r="F61" s="1">
+        <v>9.6690000000000005</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1889</v>
+      </c>
+      <c r="J61" s="1">
+        <v>57.23</v>
+      </c>
+      <c r="K61" s="1">
+        <v>89.61</v>
+      </c>
+      <c r="L61" s="9">
+        <f>(D61*100)/D46</f>
+        <v>100.33982782057092</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="25"/>
+      <c r="B62" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="1">
+        <v>29</v>
+      </c>
+      <c r="D62" s="1">
+        <v>4429</v>
+      </c>
+      <c r="E62" s="1">
+        <v>26.331</v>
+      </c>
+      <c r="F62" s="1">
+        <v>9.6709999999999994</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.501</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1862</v>
+      </c>
+      <c r="J62" s="1">
+        <v>57.84</v>
+      </c>
+      <c r="K62" s="1">
+        <v>90.52</v>
+      </c>
+      <c r="L62" s="9">
+        <f>(D62*100)/D46</f>
+        <v>100.33982782057092</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="25"/>
+      <c r="B63" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="1">
+        <v>26</v>
+      </c>
+      <c r="D63" s="1">
+        <v>4425</v>
+      </c>
+      <c r="E63" s="1">
+        <v>23.695</v>
+      </c>
+      <c r="F63" s="1">
+        <v>9.6709999999999994</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1877</v>
+      </c>
+      <c r="J63" s="1">
+        <v>57.47</v>
+      </c>
+      <c r="K63" s="1">
+        <v>96.51</v>
+      </c>
+      <c r="L63" s="9">
+        <f>(D63*100)/D46</f>
+        <v>100.24920706841867</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="25"/>
+      <c r="B64" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="1">
+        <v>30</v>
+      </c>
+      <c r="D64" s="1">
+        <v>4425</v>
+      </c>
+      <c r="E64" s="1">
+        <v>27.222000000000001</v>
+      </c>
+      <c r="F64" s="1">
+        <v>9.6720000000000006</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1926</v>
+      </c>
+      <c r="J64" s="1">
+        <v>56.36</v>
+      </c>
+      <c r="K64" s="1">
+        <v>97.05</v>
+      </c>
+      <c r="L64" s="9">
+        <f>(D64*100)/D46</f>
+        <v>100.24920706841867</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="25"/>
+      <c r="B65" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="1">
+        <v>30</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4425</v>
+      </c>
+      <c r="E65" s="1">
+        <v>27.222000000000001</v>
+      </c>
+      <c r="F65" s="1">
+        <v>9.6720000000000006</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1926</v>
+      </c>
+      <c r="J65" s="1">
+        <v>56.36</v>
+      </c>
+      <c r="K65" s="1">
+        <v>97.17</v>
+      </c>
+      <c r="L65" s="9">
+        <f>(D65*100)/D46</f>
+        <v>100.24920706841867</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="25"/>
+      <c r="B66" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="13">
+        <v>30</v>
+      </c>
+      <c r="D66" s="13">
+        <v>4424</v>
+      </c>
+      <c r="E66" s="13">
+        <v>27.222000000000001</v>
+      </c>
+      <c r="F66" s="13">
+        <v>9.6720000000000006</v>
+      </c>
+      <c r="G66" s="13">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H66" s="13">
+        <v>0.502</v>
+      </c>
+      <c r="I66" s="13">
+        <v>1926</v>
+      </c>
+      <c r="J66" s="1">
+        <v>56.35</v>
+      </c>
+      <c r="K66" s="13">
+        <v>97.74</v>
+      </c>
+      <c r="L66" s="14">
+        <f>(D66*100)/D46</f>
+        <v>100.22655188038061</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="6">
+        <v>10</v>
+      </c>
+      <c r="D67" s="6">
+        <v>210</v>
+      </c>
+      <c r="E67" s="6">
+        <v>8.4960000000000004</v>
+      </c>
+      <c r="F67" s="6">
+        <v>6.8289999999999997</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="I67" s="6">
+        <v>48</v>
+      </c>
+      <c r="J67" s="6">
+        <v>76.12</v>
+      </c>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6">
+        <f>(D67*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="25"/>
+      <c r="B68" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="1">
+        <v>10</v>
+      </c>
+      <c r="D68" s="1">
+        <v>67</v>
+      </c>
+      <c r="E68" s="1">
+        <v>9.6850000000000005</v>
+      </c>
+      <c r="F68" s="1">
+        <v>5.798</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="I68" s="1">
+        <v>26</v>
+      </c>
+      <c r="J68" s="1">
+        <v>55.93</v>
+      </c>
+      <c r="K68" s="1">
+        <v>31.15</v>
+      </c>
+      <c r="L68" s="9">
+        <f>(D68*100)/D67</f>
+        <v>31.904761904761905</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="25"/>
+      <c r="B69" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="1">
+        <v>11</v>
+      </c>
+      <c r="D69" s="1">
+        <v>50</v>
+      </c>
+      <c r="E69" s="1">
+        <v>10.868</v>
+      </c>
+      <c r="F69" s="1">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="I69" s="1">
+        <v>14</v>
+      </c>
+      <c r="J69" s="1">
+        <v>66.67</v>
+      </c>
+      <c r="K69" s="1">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="L69" s="9">
+        <f>(D69*100)/D67</f>
+        <v>23.80952380952381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="25"/>
+      <c r="B70" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="1">
+        <v>12</v>
+      </c>
+      <c r="D70" s="1">
+        <v>41</v>
+      </c>
+      <c r="E70" s="1">
+        <v>11.904999999999999</v>
+      </c>
+      <c r="F70" s="1">
+        <v>6.7709999999999999</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="I70" s="1">
+        <v>8</v>
+      </c>
+      <c r="J70" s="1">
+        <v>76.47</v>
+      </c>
+      <c r="K70" s="1">
+        <v>56.06</v>
+      </c>
+      <c r="L70" s="9">
+        <f>(D70*100)/D67</f>
+        <v>19.523809523809526</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="25"/>
+      <c r="B71" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="1">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1">
+        <v>31</v>
+      </c>
+      <c r="E71" s="1">
+        <v>7.9009999999999998</v>
+      </c>
+      <c r="F71" s="1">
+        <v>5.8460000000000001</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="I71" s="1">
+        <v>3</v>
+      </c>
+      <c r="J71" s="1">
+        <v>88</v>
+      </c>
+      <c r="K71" s="1">
+        <v>56.14</v>
+      </c>
+      <c r="L71" s="9">
+        <f>(D71*100)/D67</f>
+        <v>14.761904761904763</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="25"/>
+      <c r="B72" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="1">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1">
+        <v>31</v>
+      </c>
+      <c r="E72" s="1">
+        <v>7.8849999999999998</v>
+      </c>
+      <c r="F72" s="1">
+        <v>5.8170000000000002</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="I72" s="1">
+        <v>3</v>
+      </c>
+      <c r="J72" s="1">
+        <v>88</v>
+      </c>
+      <c r="K72" s="1">
+        <v>55.36</v>
+      </c>
+      <c r="L72" s="9">
+        <f>(D72*100)/D67</f>
+        <v>14.761904761904763</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="25"/>
+      <c r="B73" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="1">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1">
+        <v>28</v>
+      </c>
+      <c r="E73" s="1">
+        <v>8</v>
+      </c>
+      <c r="F73" s="1">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="I73" s="1">
+        <v>4</v>
+      </c>
+      <c r="J73" s="1">
+        <v>82.61</v>
+      </c>
+      <c r="K73" s="1">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="L73" s="9">
+        <f>(D73*100)/D67</f>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="25"/>
+      <c r="B74" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="1">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1">
+        <v>26</v>
+      </c>
+      <c r="E74" s="1">
+        <v>7</v>
+      </c>
+      <c r="F74" s="1">
+        <v>4.7960000000000003</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="I74" s="1">
+        <v>3</v>
+      </c>
+      <c r="J74" s="1">
+        <v>85.71</v>
+      </c>
+      <c r="K74" s="1">
+        <v>63.16</v>
+      </c>
+      <c r="L74" s="9">
+        <f>(D74*100)/D67</f>
+        <v>12.380952380952381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" s="25"/>
+      <c r="B75" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1">
+        <v>18</v>
+      </c>
+      <c r="E75" s="1">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1">
+        <v>3.9740000000000002</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>92.31</v>
+      </c>
+      <c r="K75" s="1">
+        <v>61.54</v>
+      </c>
+      <c r="L75" s="9">
+        <f>(D75*100)/D67</f>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="25"/>
+      <c r="B76" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="1">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1">
+        <v>18</v>
+      </c>
+      <c r="E76" s="1">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1">
+        <v>3.9740000000000002</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1">
+        <v>92.31</v>
+      </c>
+      <c r="K76" s="1">
+        <v>61.54</v>
+      </c>
+      <c r="L76" s="9">
+        <f>(D76*100)/D67</f>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="25"/>
+      <c r="B77" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="3">
+        <v>5</v>
+      </c>
+      <c r="D77" s="3">
+        <v>18</v>
+      </c>
+      <c r="E77" s="3">
+        <v>5</v>
+      </c>
+      <c r="F77" s="3">
+        <v>3.9740000000000002</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="I77" s="3">
+        <v>1</v>
+      </c>
+      <c r="J77" s="3">
+        <v>92.31</v>
+      </c>
+      <c r="K77" s="3">
+        <v>61.54</v>
+      </c>
+      <c r="L77" s="11">
+        <f>(D77*100)/D67</f>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" s="25"/>
+      <c r="B78" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="1">
+        <v>13</v>
+      </c>
+      <c r="D78" s="1">
+        <v>211</v>
+      </c>
+      <c r="E78" s="1">
+        <v>10.801</v>
+      </c>
+      <c r="F78" s="1">
+        <v>6.8879999999999999</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="I78" s="1">
+        <v>19</v>
+      </c>
+      <c r="J78" s="1">
+        <v>90.59</v>
+      </c>
+      <c r="K78" s="1">
+        <v>81.99</v>
+      </c>
+      <c r="L78" s="9">
+        <f>(D78*100)/D67</f>
+        <v>100.47619047619048</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="25"/>
+      <c r="B79" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="1">
+        <v>11</v>
+      </c>
+      <c r="D79" s="1">
+        <v>210</v>
+      </c>
+      <c r="E79" s="1">
+        <v>9.4629999999999992</v>
+      </c>
+      <c r="F79" s="1">
+        <v>6.9640000000000004</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="I79" s="1">
+        <v>22</v>
+      </c>
+      <c r="J79" s="1">
+        <v>89.05</v>
+      </c>
+      <c r="K79" s="1">
+        <v>89.89</v>
+      </c>
+      <c r="L79" s="9">
+        <f>(D79*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" s="25"/>
+      <c r="B80" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="1">
+        <v>11</v>
+      </c>
+      <c r="D80" s="1">
+        <v>210</v>
+      </c>
+      <c r="E80" s="1">
+        <v>9.4770000000000003</v>
+      </c>
+      <c r="F80" s="1">
+        <v>6.9790000000000001</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="I80" s="1">
+        <v>22</v>
+      </c>
+      <c r="J80" s="1">
+        <v>89.05</v>
+      </c>
+      <c r="K80" s="1">
+        <v>96.35</v>
+      </c>
+      <c r="L80" s="9">
+        <f>(D80*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" s="25"/>
+      <c r="B81" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="1">
+        <v>11</v>
+      </c>
+      <c r="D81" s="1">
+        <v>210</v>
+      </c>
+      <c r="E81" s="1">
+        <v>9.4740000000000002</v>
+      </c>
+      <c r="F81" s="1">
+        <v>6.976</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="I81" s="1">
+        <v>22</v>
+      </c>
+      <c r="J81" s="1">
+        <v>89.05</v>
+      </c>
+      <c r="K81" s="1">
+        <v>96.84</v>
+      </c>
+      <c r="L81" s="9">
+        <f>(D81*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" s="25"/>
+      <c r="B82" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="1">
+        <v>10</v>
+      </c>
+      <c r="D82" s="1">
+        <v>210</v>
+      </c>
+      <c r="E82" s="1">
+        <v>8.5820000000000007</v>
+      </c>
+      <c r="F82" s="1">
+        <v>6.9690000000000003</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="I82" s="1">
+        <v>27</v>
+      </c>
+      <c r="J82" s="1">
+        <v>86.57</v>
+      </c>
+      <c r="K82" s="1">
+        <v>96.84</v>
+      </c>
+      <c r="L82" s="9">
+        <f>(D82*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" s="25"/>
+      <c r="B83" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="1">
+        <v>10</v>
+      </c>
+      <c r="D83" s="1">
+        <v>210</v>
+      </c>
+      <c r="E83" s="1">
+        <v>8.6059999999999999</v>
+      </c>
+      <c r="F83" s="1">
+        <v>6.9710000000000001</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="I83" s="1">
+        <v>25</v>
+      </c>
+      <c r="J83" s="1">
+        <v>87.56</v>
+      </c>
+      <c r="K83" s="1">
+        <v>98.2</v>
+      </c>
+      <c r="L83" s="9">
+        <f>(D83*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" s="25"/>
+      <c r="B84" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="1">
+        <v>10</v>
+      </c>
+      <c r="D84" s="1">
+        <v>210</v>
+      </c>
+      <c r="E84" s="1">
+        <v>8.6050000000000004</v>
+      </c>
+      <c r="F84" s="1">
+        <v>6.9690000000000003</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="I84" s="1">
+        <v>25</v>
+      </c>
+      <c r="J84" s="1">
+        <v>87.56</v>
+      </c>
+      <c r="K84" s="1">
+        <v>98.2</v>
+      </c>
+      <c r="L84" s="9">
+        <f>(D84*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="25"/>
+      <c r="B85" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="1">
+        <v>10</v>
+      </c>
+      <c r="D85" s="1">
+        <v>210</v>
+      </c>
+      <c r="E85" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="F85" s="1">
+        <v>6.9630000000000001</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="I85" s="1">
+        <v>25</v>
+      </c>
+      <c r="J85" s="1">
+        <v>87.56</v>
+      </c>
+      <c r="K85" s="1">
+        <v>98.71</v>
+      </c>
+      <c r="L85" s="9">
+        <f>(D85*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" s="25"/>
+      <c r="B86" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="1">
+        <v>10</v>
+      </c>
+      <c r="D86" s="1">
+        <v>210</v>
+      </c>
+      <c r="E86" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="F86" s="1">
+        <v>6.9630000000000001</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="I86" s="1">
+        <v>25</v>
+      </c>
+      <c r="J86" s="1">
+        <v>87.56</v>
+      </c>
+      <c r="K86" s="1">
+        <v>98.71</v>
+      </c>
+      <c r="L86" s="9">
+        <f>(D86*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="25"/>
+      <c r="B87" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="13">
+        <v>10</v>
+      </c>
+      <c r="D87" s="13">
+        <v>210</v>
+      </c>
+      <c r="E87" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="F87" s="13">
+        <v>6.9630000000000001</v>
+      </c>
+      <c r="G87" s="13">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="H87" s="13">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="I87" s="13">
+        <v>25</v>
+      </c>
+      <c r="J87" s="13">
+        <v>87.56</v>
+      </c>
+      <c r="K87" s="13">
+        <v>98.71</v>
+      </c>
+      <c r="L87" s="14">
+        <f>(D87*100)/D67</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A46:A66"/>
+    <mergeCell ref="A67:A87"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="A25:A45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8D636B-9791-48D6-9E7E-061A6406E6E8}">
   <dimension ref="D5:H9"/>
   <sheetViews>
